--- a/QALD9-Plus-testing/baseline-model/baseline-wikidata-dbpedia/baseline_llama_dbpedia_results_analysis.xlsx
+++ b/QALD9-Plus-testing/baseline-model/baseline-wikidata-dbpedia/baseline_llama_dbpedia_results_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meine Ablage\Master Thesis\SPARQL-Query-Translation-QALD9\QALD9-Plus-testing\baseline-model\baseline-wikidata-dbpedia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB39CC5-FD3A-4E90-B36B-2F80E86CBD71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E52EF5-B94C-42CF-A1CD-FCDF717766BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="493">
   <si>
     <t>Question</t>
   </si>
@@ -349,306 +349,6 @@
     <t>Who created Goofy?</t>
   </si>
   <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?founder WHERE { &lt;http://dbpedia.org/resource/Penguin_Books&gt; dbo:founder ?founder . SERVICE wikibase:serviceLink { BIND (IRI("http://dbpedia.org/resource/") AS ?service) } }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?film WHERE { ?film rdf:type dbo:Work . ?film foaf:maker &lt;http://dbpedia.org/resource/Stanley_Kubrick&gt; . }</t>
-  </si>
-  <si>
-    <t>SELECT ?musical ?musicalLabel WHERE { ?musical a dbo:Musical. ?composer foaf:name "Elton John"@en. ?musical dbo:composer ?composer. SERVICE dbpedia-lookups:labels { "en" @en. } BIND(STRAFTER(STR(?musical), STR(&lt;http://dbpedia.org/resource/)) AS ?musicalLabel) }</t>
-  </si>
-  <si>
-    <t>SELECT ?developer WHERE { SERVICE &lt;http://dbpedia.org/sparql&gt; { ?skype rdf:type dbo:Software. ?skype foaf:maker ?developer. } }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema SELECT ?club WHERE { ?club a dbpedia-owl:SoccerClub. ?club dbpedia-owl:league dbpedia:Bundesliga. }</t>
-  </si>
-  <si>
-    <t>** PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt; SELECT DISTINCT ?actor WHERE { ?movie dbpedia-owl:director &lt;http://dbpedia.org/resource/William_Shatner&gt; . ?movie dbpedia-owl:actor ?actor . FILTER (lang(?actor) = 'en') } **</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/property/&gt; SELECT ?mountain WHERE { ?mountain a dbpedia-owl:Mountain . ?mountain dbpedia2:elevation ?elevation . FILTER (?elevation = (SELECT MAX(?elevation) FROM (SELECT ?mountain ?elevation FROM &lt;http://dbpedia.org&gt; WHERE { ?mountain a dbpedia-owl:Mountain . ?mountain dbpedia2:elevation ?elevation }))) }</t>
-  </si>
-  <si>
-    <t>PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema PREFIX dbpprop: &lt;http://dbpedia.org/property/&gt; SELECT ?film WHERE { &lt;http://dbpedia.org/resource/Leonardo_DiCaprio&gt; foaf:starring ?film. }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?date FROM &lt;http://dbpedia.org&gt; WHERE { dbr:Olof_Palme dbo:deathDate ?date . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbpprop: &lt;http://dbpedia.org/property/&gt; SELECT ?movie WHERE { ?movie a dbo:Film. ?movie dbpprop:actor ?actor1. ?actor1 dbpprop:birthName "Elizabeth Taylor". ?movie dbpprop:actor ?actor2. ?actor2 dbpprop:birthName "Richard Burton". FILTER(?actor1 != ?actor2) }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX dcterms: &lt;http://purl.org/dc/terms/&gt; SELECT ?item ?itemLabel WHERE { ?item a dbpedia:VideoGame . ?item dcterms:creator "Mojang" . SERVICE wikibase:serviceUrl "https://dbpedia.org/sparql" }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?cost WHERE { ?movie a dbpedia-owl:Movie; dbpedia-owl:boxOffice ?cost. }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/property/&gt; PREFIX dcterms: &lt;http://purl.org/dc/terms/&gt; SELECT ?label WHERE { dbpedia2:Elvis_Presley dcterms:creator ?album . ?album rdfs:label ?label . FILTER (lang(?label) = "en") . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX wikibase: &lt;http://wikibase.org/ontology PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?runtime WHERE { ?toy_story wdt:P31 wd:Q134302. SERVICE wikibase:label { bd:serviceParam wikibase:language "en". } OPTIONAL { ?toy_story wdt:P626 ?toy_story_dbpedia } BIND (STR(?toy_story_dbpedia) AS ?dbpedia_uri) ?dbpedia_uri dbpedia-owl:runtime ?runtime . FILTER langMatches(lang(?runtime), "en") . FILTER regex(str(?runtime), "^\d+$") . BIND (STRLEN(?runtime) AS ?length) FILTER (?length &lt; 10) }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt; SELECT ?item ?itemLabel WHERE { ?item a foaf:Person. ?item dbpedia-owl:instrument dbpedia-owl:Trumpet. ?item a dbpedia-owl:Bandleader. ?item rdfs:label ?itemLabel. FILTER (lang(?itemLabel) = 'en'). }</t>
-  </si>
-  <si>
-    <t>SELECT ?film WHERE { ?film a &lt;http://dbpedia.org/ontology/Film&gt;. ?film &lt;http://dbpedia.org/ontology/director&gt; &lt;http://dbpedia.org/resource/Garry_Marshall&gt;. ?film &lt;http://dbpedia.org/ontology/actor&gt; &lt;http://dbpedia.org/resource/Julia_Roberts&gt;. OPTIONAL { ?film &lt;http://dbpedia.org/ontology/partOf&gt; ?actor } }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/property/&gt; SELECT ?birthYear WHERE { dbpedia2:Rachel_Stevens foaf:birthYear ?birthYear . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; SELECT ?cause ?causeLabel WHERE { ?cause a dbo:CauseOfDeath . ?cause rdfs:label ?causeLabel . { SELECT ?cause (COUNT(DISTINCT ?entity) as ?count) WHERE { ?entity dbo:causeOfDeath ?cause . } GROUP BY ?cause } AS ?subquery FILTER (?subquery.?count = (SELECT MAX(?count) FROM ?subquery)) }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/property/&gt; SELECT ?height WHERE { ?yokohamaMarineTower a dbpedia-owl:Building . ?yokohamaMarineTower dbpedia2:height ?height . FILTER langMatches(lang(?height), "EN") }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; PREFIX owl: &lt;http://www.w3.org/2002/07/owl PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema SELECT ?item ?itemLabel ?peak ?location ?country WHERE { BIND(dbpedia:Italy AS ?location) ?item dbpedia-owl:location ?location. ?item dbpedia-owl:peak ?peak. ?item dbpedia-owl:country ?country. FILTER (?peak = dbpedia:xxxx OR ?peak = &lt;http://dbpedia.org/resource/xxxx&gt;) FILTER (?country = dbpedia:xxxx OR ?country = &lt;http://dbpedia.org/resource/xxxx&gt;) SERVICE dbpedia:label { dbpedia:serviceParam dbpedia:language "en". } }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/property/&gt; SELECT ?supervisor WHERE { ?person dbpedia2:doctoralSupervisor ?supervisor; dbpedia-owl:name "Albert Einstein". ?supervisor dbpedia-owl:fullName "Marcel Grossmann". }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt; SELECT ?company WHERE { ?person a dbpedia-owl:Person . ?person foaf:name "Donald Trump"@en . ?person dbpedia-owl:company ?company . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema PREFIX : &lt;http://dbpedia.org/resource/&gt; SELECT ?married WHERE { dbr:Tom_Cruise dbo:spouse ?married . SERVICE dbpedia-ld:expand { bd:serviceParam dbpedia-ld:defaultContext "http://dbpedia.org/resource/" } }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/property/&gt; PREFIX dcterms: &lt;http://purl.org/dc/terms/&gt; SELECT (SUM(?population) AS ?totalPopulation) WHERE { ?country a dbpedia-owl:Country. ?country dbpedia2:continent "Asia" || "Europe". ?country dbpedia2:population ?population. FILTER (lang(?population) = "en"). }</t>
-  </si>
-  <si>
-    <t>PREFIX dcterms: &lt;http://purl.org/dc/terms/&gt; PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt; SELECT ?author WHERE { ?book dcterms:title "The Interpretation of Dreams"@en ; dcterms:creator ?author . }</t>
-  </si>
-  <si>
-    <t>SELECT ?birthDate WHERE { ?dbpediaEntity a dbo:Person; dbo:birthDate ?birthDate. FILTER(?dbpediaEntity = &lt;http://dbpedia.org/resource/John_Adams&gt;). }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT ?population FROM &lt;http://dbpedia.org&gt; WHERE { ?e rdfs:label "European Union"@en. ?e dbpedia-owl:population ?population. }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?currency WHERE { ?china a dbo:Country . ?china dbo:currency ?currency . FILTER (regex(?china, "China")) . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?death WHERE { ?author dbpedia-owl:deathDate ?death . FILTER (lang(?death) = "en") . FILTER (?author = dbpedia:William_Shakespeare) }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema SELECT ?rocket WHERE { ?baikonur rdf:type dbpedia-owl:Location. ?rocket rdf:type dbpedia-owl:Rocket. ?launch_event dbpedia-owl:launchSite ?baikonur; dbpedia-owl:launchVehicle ?rocket. }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema SELECT ?island WHERE { ?island a dbpedia-owl:Island . ?island dbpedia-owl:country ?country . FILTER (?country = &lt;http://dbpedia.org/resource/Japan&gt;) }</t>
-  </si>
-  <si>
-    <t>&lt;code&gt;PREFIX dbpedia-owl: &amp;lt;&lt;http://dbpedia.org/ontology/&gt;&amp;gt; SELECT ?developer WHERE { &amp;lt;&lt;http://dbpedia.org/resource/World_of_Warcraft&amp;gt; dbpedia-owl:developer ?developer }&lt;/code&gt;</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/property/&gt; SELECT DISTINCT ?item ?itemLabel WHERE { ?item dbpedia-owl:industryCategory dbpedia:Media. FILTER(LANG(?itemLabel) = 'en'). SERVICE wikibase:label { bd:serviceParam wikibase:language "en". } }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?university WHERE { &lt;http://dbpedia.org/resource/Angela_Merkel&gt; dbpedia-owl:education ?education . ?education dbpedia-owl:institution ?university . }</t>
-  </si>
-  <si>
-    <t>PREFIX db: &lt;http://dbpedia.org/&gt; PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt; PREFIX dcterms: &lt;http://purl.org/dc/terms/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns SELECT ?show WHERE { ?show a db:TVShow . ?show foaf:maker ?neilPatrickHarris . BIND (URI(CONCAT("http://dbpedia.org/resource/", ?show)) AS ?showUri) . OPTIONAL { ?show dcterms:title ?showTitle . } }</t>
-  </si>
-  <si>
-    <t>** PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/property/&gt; SELECT ?film WHERE { ?film dbo:starring dbpedia2:Tom_Cruise . FILTER(LANG(?film) = 'en') } **</t>
-  </si>
-  <si>
-    <t>PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema PREFIX geo: &lt;http://www.w3.org/2003/01/geo/wgs84_pos PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?country WHERE { ?mountEverest a dbpedia-owl:Mountain . ?mountEverest dbpedia-owl:locatedInRegion ?country . FILTER (lang(?country) = 'en') . FILTER (regex(str(?mountEverest), 'Everest$')). }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/property/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema SELECT ?Location WHERE { ?Event a dbpedia-owl:Event ; dbpedia2:subject &lt;http://dbpedia.org/resource/John_F._Kennedy&gt; ; dbpedia-owl:location ?Location . FILTER (lang(?Event) = "en") }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia-resource: &lt;http://dbpedia.org/resource/&gt; SELECT ?river WHERE { &lt;http://dbpedia.org/resource/Brooklyn_Bridge&gt; dbpedia-owl:crosses ?river. SERVICE dbpedia-lookup { } }</t>
-  </si>
-  <si>
-    <t>PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?swimmer WHERE { ?swimmer a dbo:Swimmer . ?swimmer dbo:birthPlace ?birthPlace . ?birthPlace rdfs:label "Moscow"@en . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/&gt; SELECT ?movie WHERE { ?movie dbpedia-owl:actor ?actor. ?actor foaf:name "Alec Guinness"@en. FILTER (?movie dbpedia-owl:releaseDate ?releaseDate) BIND (MAX(?releaseDate) AS ?max_release_date) FILTER (?releaseDate = ?max_release_date) }</t>
-  </si>
-  <si>
-    <t>SELECT ?mountainName WHERE { ?mountain dbr:P1506 ?secondHighest; dbr:P31 dbr:Mountain. ?mountain dbr:P180 dbr:Earth. SERVICE wikibase:label { bd:serviceParam wikibase:language "en". } OPTIONAL { ?mountain dbr:P625 ?coordinate. } ?mountain dbr:P2561 ?mountainName. } GROUP BY ?mountainName ORDER BY DESC(?mountainName)</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema SELECT ?population WHERE { ?cairo a dbpedia-owl:City . ?cairo dbpedia-owl:populationTotal ?population . FILTER regex(str(?population), "^\d+$") . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?s WHERE { ?s a dbpedia-owl:Person. ?s dbpedia-owl:birthPlace &lt;http://dbpedia.org/resource/Heraklion&gt;. }</t>
-  </si>
-  <si>
-    <t>PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT (COUNT(DISTINCT ?child) AS ?count) WHERE { ?parent foaf:isPrimaryTopicOf dbpedia:Benjamin_Franklin . ?child foaf:maker ?parent . }</t>
-  </si>
-  <si>
-    <t>PREFIX db: &lt;http://dbpedia.org/ontology/&gt; SELECT ?elevation WHERE { ?airport db:elevation ?elevation . FILTER regex(str(?airport), "Düsseldorf") }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?country WHERE { wd:Q39784 wdt:P30 ?country. }</t>
-  </si>
-  <si>
-    <t>PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?height WHERE { &lt;http://dbpedia.org/resource/Claudia_Schiffer&gt; dbo:height ?height . }</t>
-  </si>
-  <si>
-    <t>` tags for clarity:  PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema SELECT ?author WHERE { &lt;http://dbpedia.org/resource/The_Pillars_of_the_Earth&gt; dbo:author ?author . ?author rdfs:label ?authorLabel . FILTER regex(?authorLabel, "^[^\\s]*$", "i") }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema PREFIX schema: &lt;http://schema.org/&gt; SELECT ?label ?item ?genre WHERE { ?item a dbpedia-owl:Person. ?item dbpedia-owl:country &lt;http://dbpedia.org/resource/United_States&gt;. ?item schema:genre ?genre. SERVICE dbpedia:label { dbpedia:serviceParam dbpedia:language "en". } }</t>
-  </si>
-  <si>
-    <t>PREFIX dbprop: &lt;http://dbpedia.org/property/&gt; PREFIX db: &lt;http://dbpedia.org/resource/&gt; SELECT ?birthPlace WHERE { db:Frank_Sinatra dbprop:birthPlace ?birthPlace }</t>
-  </si>
-  <si>
-    <t>PREFIX db: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; SELECT ?city (MIN(?population) as ?minPopulation) WHERE { ?city a db:City . ?city dbpprop:populationTotal ?population . GROUP BY ?city } ORDER BY ?minPopulation LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?s WHERE { ?s dbo:tvShow true. ?s dbo:creator dbr:Walt_Disney. SERVICE wikibase:label { BIND(STR(?s) AS @label) } }</t>
-  </si>
-  <si>
-    <t>PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX schema: &lt;http://schema.org/&gt; SELECT ?holidayName WHERE { ?holiday a dbpedia-owl:Event ; dbpedia-owl:location dbr:Sweden ; schema:name ?holidayName . FILTER (regex(?holidayName, "New Year|Christmas|Easter", "i")) . }</t>
-  </si>
-  <si>
-    <t>SELECT ?item ?itemLabel ?netIncome WHERE { ?item wdt:P31 wd:Q83. ?item wdt:P1082 ?netIncome. SERVICE wikibase:label { bd:serviceParam wikibase:language "en". } }</t>
-  </si>
-  <si>
-    <t>PREFIX db: &lt;http://dbpedia.org/ontology/&gt; SELECT ?location WHERE { db:Abraham_Lincoln db:deathPlace ?location . }</t>
-  </si>
-  <si>
-    <t>SELECT ?country ?capital WHERE { ?country wdt:P31 wd:Q11196. ?country wdt:P17 ?location. ?location wdt:P30 ?country2. ?country2 wdt:P36 ?capital. FILTER (?capital != wd:Q2129) }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/property/&gt; SELECT ?lake ?country WHERE { ?lake a dbpedia-owl:BodyOfWater. ?lake dbpedia2:locationOfSituation ?location. ?location a dbpedia-owl:Place. ?location dbpedia2:country ?country. SERVICE wikibase:attribution { BIND(wikibase:labelService() AS @label) } FILTER (regex(?lake, &lt;http://dbpedia.org/page/Limerick_Lake&gt;)) }</t>
-  </si>
-  <si>
-    <t>SELECT ?height WHERE { wd:Michael_Jordan dbpedia-owl:height ?height. }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt; SELECT ?film WHERE { ?film dbo:director dbp:Clint_Eastwood . ?film dbo:director ?person . FILTER (?person = dbp:Clint_Eastwood) FILTER (?film dbo:directorType dbo:FilmDirector) . SERVICE &lt;http://dbpedia.org/sparql&gt; { ?film rdfs:seeAlso ?filmId . ?filmId dbo:wikiPageID ?id . BIND (strafter(?id, "page/") as ?filmId) } }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?country WHERE { ?country dbpedia-owl:currency db:West African CFA franc. }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT ?population WHERE { dbpedia:Iraq dbpedia-owl:populationTotal ?population . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; SELECT ?holiday ?holidayLabel WHERE { ?holiday a dbo:Holiday. ?holiday dbp:isPartOf ?country. SERVICE wikibase:label { bd:serviceParam wikibase:language "en". } }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?party WHERE { ?party a dbo:PoliticalParty. ?party dbo:country "Greece". FILTER regex(?party, "pro-European", "i"). }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?actor ?actorLabel ?birthday WHERE { ?episode dbo:actor ?actor. ?actor dbo:birthDate ?birthday. ?actor dbo:wikiPageID ?wikiPageID. SERVICE &lt;http://dbpedia.org/sparql&gt; { ?actor rdfs:label ?actorLabel. FILTER (lang(?actorLabel) = 'en'). } FILTER (STRSTARTS(str(?episode), "Charmed")). }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/property/&gt; SELECT ?movement WHERE { &lt;http://dbpedia.org/resource/The_Three_Dancers&gt; dbpedia2:artist &lt;http://dbpedia.org/resource/Painter_Name&gt; . &lt;http://dbpedia.org/resource/Painter_Name&gt; dbpedia-owl:influencedBy ?movement . }</t>
-  </si>
-  <si>
-    <t>SELECT ?actor WHERE { ?actor a dbr:Actor. ?actor dbo:countryOfOrigin dbr:Germany. }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema SELECT ?designer WHERE { ?bridge dbpedia-owl:name "Brooklyn Bridge"@en ; dbpedia-owl:designer ?designer . FILTER (lang(?bridge) = "en") }</t>
-  </si>
-  <si>
-    <t>SELECT ?composer WHERE { ?book dbo:themeMusic ?composition . ?composition dbo:creator ?composer . ?book dbo:wikiPageID "Game_of_Thrones" . ?book dbo:abstract "Game of Thrones" . FILTER (lang(?abstract) = "en") }</t>
-  </si>
-  <si>
-    <t>PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?movie WHERE { ?movie dbr:Director ?director. ?director dbr:Name "Francis Ford Coppola". FILTER (lang(?director) = "en"). FILTER (lang(?movie) = "en"). }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt; SELECT ?givenname WHERE { ?artist a dbpedia-owl:Person . ?artist foaf:name 'Adele' . ?artist foaf:givenname ?givenname . OPTIONAL { ?artist dbpedia-owl:birthName ?birthName } FILTER NOT EXISTS { ?artist dbpedia-owl:birthName ?birthName } }</t>
-  </si>
-  <si>
-    <t>PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dcterms: &lt;http://purl.org/dc/terms/&gt; SELECT ?item ?itemLabel WHERE { SERVICE dbpedia:label { dbr:serviceParam dbpedia:language "en". } ?item dbr:band "Queen" . ?item dbr:album ?album . ?item dbr:releaseOrder ?releaseOrder . FILTER (lang(?itemLabel) = "en" &amp;&amp; ?releaseOrder = 1) }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/property/&gt; SELECT ?item ?itemLabel ?currency WHERE { ?item a dbpedia-owl:Country . ?item dbpedia2:currencies ?currency . FILTER regex(?item, "Czech Republic") . SERVICE dbpedia-lookups:labels { ?item rdfs:label ?itemLabel. } }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia2: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt; SELECT ?person WHERE { ?person foaf:birthPlace &lt;http://dbpedia.org/resource/Vienna&gt; . ?person foaf:deathPlace &lt;http://dbpedia.org/resource/Berlin&gt; . FILTER (isLiteral(?person)) }</t>
-  </si>
-  <si>
-    <t>SELECT ?bridge WHERE { ?bridge a dbo:Bridge. ?bridge dbo:crosses ?river. ?river dbpedia:Seine. }</t>
-  </si>
-  <si>
-    <t>** PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/property/&gt; SELECT ?musician ?bookCount WHERE { ?musician a dbpedia-owl:MusicalArtist. ?musician dbpedia2:bookCount ?bookCount. FILTER (?bookCount &gt; 0). GROUP BY ?musician ORDER BY DESC(?bookCount) LIMIT 1 } **</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; PREFIX dbprop: &lt;http://dbpedia.org/property/&gt; PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt; SELECT ?tvshow WHERE { ?tvshow a dbpedia-owl:WorkType ; dbpedia-owl:creator ?creator . ?creator dbpedia-owl:name "John Cleese"@en . }</t>
-  </si>
-  <si>
-    <t>&lt;select distinct ?writer&gt; { ?writer foaf:makerOf ?prize. ?prize a dbpedia-owl:NobelPrize. ?prize dcterms:subject dbpedia:category:Literature. SERVICE dbpedia:service { ?prize dcterms:date ?date. } ?writer dbpedia-owl:award ?prize. ?prize rdfs:label ?awardLabel. FILTER(LANG(?awardLabel) = 'en'). BIND(STRLANG(?awardLabel, 'en') AS ?awardLabel) } GROUP BY ?writer ORDER BY ?writer</t>
-  </si>
-  <si>
-    <t>SELECT ?discoverer WHERE { &lt;http://dbpedia.org/resource/1_Ceres&gt; ?property ?discoverer. FILTER ( ?property = http://dbpedia.org/ontology/discoveryBy ) }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/property/&gt; SELECT ?leader ?leaderLabel ?instrument WHERE { ?leader a dbpedia-owl:BandLeader. ?leader dbpedia2:instrument ?instrument. ?instrument dbpedia2:instrumentType ?trumpet. SERVICE wikibase:label { bd:serviceParam wikibase:language "en". }</t>
-  </si>
-  <si>
-    <t>PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?player WHERE { ?player a dbo:Person . ?player dbo:sport ?sport . ?player dbo:height ?height . FILTER (lang(?height) = 'en' &amp;&amp; STRDT(?height, xsd:decimal) &gt; 2) FILTER (str(?sport) = "Basketball") }</t>
-  </si>
-  <si>
-    <t>SELECT ?film WHERE { &lt;http://dbpedia.org/resource/Julia_Roberts&gt; &lt;http://dbpedia.org/ontology/actor&gt; ?film. ?film &lt;http://dbpedia.org/ontology/actor&gt; &lt;http://dbpedia.org/resource/Richard_Gere&gt;. }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?city WHERE { ?country a dbpedia:Country. ?country rdfs:seeAlso &lt;http://dbpedia.org/resource/Canada&gt;. ?city a dbpedia:Location. ?city dbpedia-owl:capital ?country. FILTER (lang(?city) = "en"). FILTER (regex(?city, "Canad.*", "i")). }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/property/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX owl: &lt;http://www.w3.org/2002/07/owl SELECT ?player ?playerLabel WHERE { ?player a dbo:SoccerPlayer. ?player dbpedia2:birthPlace ?birthPlace. ?birthPlace rdfs:label ?birthPlaceLabel. FILTER (lower(?birthPlaceLabel) = "malta"). SERVICE wikibase:label { bd:serviceParam wikibase:language "en". } ?player rdfs:label ?playerLabel. }</t>
-  </si>
-  <si>
-    <t>PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; SELECT ?capital WHERE { dbr:Cameroon dbp:capital ?capital }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dct: &lt;http://purl.org/dc/terms/&gt; SELECT (COUNT(?language) AS ?total_languages) WHERE { ?language a dbpedia-owl:ProgrammingLanguage . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt; PREFIX wikidata: &lt;http://www.wikidata.org/entity/&gt; SELECT ?item WHERE { ?wikidataItem wdt:P31 ?class. FILTER (strstarts(str(?class), "Q")) ?item foaf:isPrimaryTopicOf ?wikidataItem. FILTER (regex(str(?item), "dbpedia.org")) }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT ?creator WHERE { ?familyGuy a dbo:TelevisionSeries. ?familyGuy dbo:creator ?creator. FILTER (regex(?familyGuy, "Family Guy")). }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?population WHERE { ?city a dbpedia-owl:City . ?city dbpedia-owl:population ?population . FILTER regex(?city, "Mexico City") }</t>
-  </si>
-  <si>
-    <t>SELECT ?s WHERE { ?s a &lt;http://dbpedia.org/ontology/Person&gt; ; &lt;http://dbpedia.org/ontology/creator&gt; ?o . FILTER (lang(?o) = 'en') . FILTER regex(?o, "Batman") . }</t>
-  </si>
-  <si>
-    <t>SELECT ?city ?cityPopulation WHERE { VALUES ?country { &lt;http://dbpedia.org/resource/Australia&gt; } ?city dbo:capitalOf ?country. ?city dbo:population ?cityPopulation. FILTER lang(?cityPopulation) = 'en'. }</t>
-  </si>
-  <si>
-    <t>PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; SELECT ?area WHERE { dbr:North_Rhine-Westphalia dbp:area ?area }</t>
-  </si>
-  <si>
-    <t>PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt; PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/property/&gt; SELECT (COUNT(?employee) AS ?numEmployees) WHERE { ?company a dbpedia-owl:Company. ?company rdfs:label "IBM"@en. ?employee dbpedia2:employer ?company. }</t>
-  </si>
-  <si>
-    <t>PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?productionBudget WHERE { dbr:Pulp_Fiction_(1994_film) dbp:productionBudget ?productionBudget . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/property/&gt; SELECT ?movie WHERE { ?movie dbpedia-owl:wikiPageID ?pgid. ?movie dbpedia2:actor ?actor. ?actor foaf:name "Jesse Eisenberg" . }</t>
-  </si>
-  <si>
-    <t>SELECT ?item ?itemLabel FROM &lt;http://dbpedia.org&gt; WHERE { ?item a &lt;http://dbpedia.org/ontology/Movie&gt; . ?item dbpedia-owl:country http://dbpedia.org/resource/Denmark . SERVICE wikibase:language { bd:serviceParam wikibase:language "en". } SERVICE wikibase:label { bd:serviceParam wikibase:language "en". } FILTER (lang(?itemLabel) = "en"). }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema PREFIX yago: &lt;http://dbpedia.org/ontology/&gt; SELECT ?country WHERE { ?himalayanMountain yago:borderingCountry ?country. ?himalayanMountain rdfs:label "Himalayan or Himalayas"@en. }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/resource/&gt; SELECT ?item ?itemLabel WHERE { ?item dbpedia-owl:country dbpedia2:Russia. SERVICE dbpedia:label { dbpedia:serviceParam dbpedia:language "en". } }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; ` `PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema `SELECT ?university ` `WHERE { ` `Angela Merkel dbo:almaMater ?university . ` `SERVICE wikibase:serviceLink { BDWS SERVICE }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?creator WHERE { ?character dbo:creator ?creator. ?character rdfs:label "Goofy"@en. }</t>
-  </si>
-  <si>
     <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT DISTINCT ?uri WHERE { res:Penguin_Books dbo:founder ?uri }</t>
   </si>
   <si>
@@ -1258,393 +958,1447 @@
     <t>['http://dbpedia.org/resource/Bob_Ogle', 'http://dbpedia.org/resource/Paul_Murry']</t>
   </si>
   <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wikibase was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 193,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?founder WHERE { &lt;http://dbpedia.org/resource/Penguin_Books&gt; dbo:founder ?founder . SERVICE wikibase:serviceLink { BIND (IRI(\\"http://dbpedia.org/resource/\\") AS ?service) } }",\n        "startIndex": 193,\n        "stopIndex": 212\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?founder WHERE { &lt;http://dbpedia.org/resource/Penguin_Books&gt; dbo:founder ?founder . SERVICE wikibase:serviceLink { BIND (IRI(\\"http://dbpedia.org/resource/\\") AS ?service) } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"&lt;\\": no viable alternative at input \'PREFIXrdf:&lt;\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 12,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?film WHERE { ?film rdf:type dbo:Work . ?film foaf:maker &lt;http://dbpedia.org/resource/Stanley_Kubrick&gt; . }",\n        "startIndex": 12,\n        "stopIndex": 12\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?film WHERE { ?film rdf:type dbo:Work . ?film foaf:maker &lt;http://dbpedia.org/resource/Stanley_Kubrick&gt; . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\".\\": mismatched input \'.\' expecting {\'(\', \'a\', \'^\', \'!\', IRI_REF, PNAME_NS, PNAME_LN, VAR1, VAR2, PREFIX_LANGTAG}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 173,\n        "query": "SELECT ?musical ?musicalLabel WHERE { ?musical a dbo:Musical. ?composer foaf:name \\"Elton John\\"@en. ?musical dbo:composer ?composer. SERVICE dbpedia-lookups:labels { \\"en\\" @en. } BIND(STRAFTER(STR(?musical), STR(&lt;http://dbpedia.org/resource/)) AS ?musicalLabel) }",\n        "startIndex": 173,\n        "stopIndex": 173\n    },\n    "query": "SELECT ?musical ?musicalLabel WHERE { ?musical a dbo:Musical. ?composer foaf:name \\"Elton John\\"@en. ?musical dbo:composer ?composer. SERVICE dbpedia-lookups:labels { \\"en\\" @en. } BIND(STRAFTER(STR(?musical), STR(&lt;http://dbpedia.org/resource/)) AS ?musicalLabel) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix rdf was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 71,\n        "query": "SELECT ?developer WHERE { SERVICE &lt;http://dbpedia.org/sparql&gt; { ?skype rdf:type dbo:Software. ?skype foaf:maker ?developer. } }",\n        "startIndex": 71,\n        "stopIndex": 78\n    },\n    "query": "SELECT ?developer WHERE { SERVICE &lt;http://dbpedia.org/sparql&gt; { ?skype rdf:type dbo:Software. ?skype foaf:maker ?developer. } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"&lt;\\": no viable alternative at input \'PREFIXdbpedia-owl:&lt;http://dbpedia.org/ontology/&gt;PREFIXrdf:&lt;\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 63,\n        "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema SELECT ?club WHERE { ?club a dbpedia-owl:SoccerClub. ?club dbpedia-owl:league dbpedia:Bundesliga. }",\n        "startIndex": 63,\n        "stopIndex": 63\n    },\n    "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema SELECT ?club WHERE { ?club a dbpedia-owl:SoccerClub. ?club dbpedia-owl:league dbpedia:Bundesliga. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"*\\": mismatched input \'*\' expecting {&lt;EOF&gt;, BASE, PREFIX, SELECT, CONSTRUCT, DESCRIBE, ASK, LOAD, CLEAR, DROP, CREATE, ADD, MOVE, COPY, INSERT, DELETE, WITH}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 0,\n        "query": "** PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt; SELECT DISTINCT ?actor WHERE { ?movie dbpedia-owl:director &lt;http://dbpedia.org/resource/William_Shatner&gt; . ?movie dbpedia-owl:actor ?actor . FILTER (lang(?actor) = \'en\') } **",\n        "startIndex": 0,\n        "stopIndex": 0\n    },\n    "query": "** PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt; SELECT DISTINCT ?actor WHERE { ?movie dbpedia-owl:director &lt;http://dbpedia.org/resource/William_Shatner&gt; . ?movie dbpedia-owl:actor ?actor . FILTER (lang(?actor) = \'en\') } **",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"SELECT\\": extraneous input \'SELECT\' expecting {\'(\', \'+\', \'!\', \'-\', \'true\', \'false\', GROUP_CONCAT, NOT, STR, LANG, LANGMATCHES, DATATYPE, BOUND, IRI, URI, BNODE, RAND, ABS, CEIL, FLOOR, ROUND, CONCAT, STRLEN, UCASE, LCASE, ENCODE_FOR_URI, CONTAINS, STRSTARTS, STRENDS, STRBEFORE, STRAFTER, YEAR, MONTH, DAY, HOURS, MINUTES, SECONDS, TIMEZONE, TZ, NOW, UUID, STRUUID, SHA1, SHA256, SHA384, SHA512, MD5, COALESCE, IF, STRLANG, STRDT, SAMETERM, ISIRI, ISURI, ISBLANK, ISLITERAL, ISNUMERIC, REGEX, SUBSTR, REPLACE, EXISTS, COUNT, SUM, MIN, MAX, AVG, SAMPLE, IRI_REF, PNAME_NS, PNAME_LN, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 223,\n        "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/property/&gt; SELECT ?mountain WHERE { ?mountain a dbpedia-owl:Mountain . ?mountain dbpedia2:elevation ?elevation . FILTER (?elevation = (SELECT MAX(?elevation) FROM (SELECT ?mountain ?elevation FROM &lt;http://dbpedia.org&gt; WHERE { ?mountain a dbpedia-owl:Mountain . ?mountain dbpedia2:elevation ?elevation }))) }",\n        "startIndex": 223,\n        "stopIndex": 228\n    },\n    "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/property/&gt; SELECT ?mountain WHERE { ?mountain a dbpedia-owl:Mountain . ?mountain dbpedia2:elevation ?elevation . FILTER (?elevation = (SELECT MAX(?elevation) FROM (SELECT ?mountain ?elevation FROM &lt;http://dbpedia.org&gt; WHERE { ?mountain a dbpedia-owl:Mountain . ?mountain dbpedia2:elevation ?elevation }))) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"&lt;\\": no viable alternative at input \'PREFIXfoaf:&lt;http://xmlns.com/foaf/0.1/&gt;PREFIXrdfs:&lt;\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 55,\n        "query": "PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema PREFIX dbpprop: &lt;http://dbpedia.org/property/&gt; SELECT ?film WHERE { &lt;http://dbpedia.org/resource/Leonardo_DiCaprio&gt; foaf:starring ?film. }",\n        "startIndex": 55,\n        "stopIndex": 55\n    },\n    "query": "PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema PREFIX dbpprop: &lt;http://dbpedia.org/property/&gt; SELECT ?film WHERE { &lt;http://dbpedia.org/resource/Leonardo_DiCaprio&gt; foaf:starring ?film. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Not supported: FROM clauses are currently not supported by QLever.",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 99,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?date FROM &lt;http://dbpedia.org&gt; WHERE { dbr:Olof_Palme dbo:deathDate ?date . }",\n        "startIndex": 99,\n        "stopIndex": 123\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?date FROM &lt;http://dbpedia.org&gt; WHERE { dbr:Olof_Palme dbo:deathDate ?date . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
     <t>None</t>
   </si>
   <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"\\"https://dbpedia.org/sparql\\"\\": missing \'{\' at \'\\"https://dbpedia.org/sparql\\"\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 212,\n        "query": "PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX dcterms: &lt;http://purl.org/dc/terms/&gt; SELECT ?item ?itemLabel WHERE { ?item a dbpedia:VideoGame . ?item dcterms:creator \\"Mojang\\" . SERVICE wikibase:serviceUrl \\"https://dbpedia.org/sparql\\" }",\n        "startIndex": 212,\n        "stopIndex": 239\n    },\n    "query": "PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX dcterms: &lt;http://purl.org/dc/terms/&gt; SELECT ?item ?itemLabel WHERE { ?item a dbpedia:VideoGame . ?item dcterms:creator \\"Mojang\\" . SERVICE wikibase:serviceUrl \\"https://dbpedia.org/sparql\\" }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix rdfs was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 220,\n        "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/property/&gt; PREFIX dcterms: &lt;http://purl.org/dc/terms/&gt; SELECT ?label WHERE { dbpedia2:Elvis_Presley dcterms:creator ?album . ?album rdfs:label ?label . FILTER (lang(?label) = \\"en\\") . }",\n        "startIndex": 220,\n        "stopIndex": 229\n    },\n    "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/property/&gt; PREFIX dcterms: &lt;http://purl.org/dc/terms/&gt; SELECT ?label WHERE { dbpedia2:Elvis_Presley dcterms:creator ?album . ?album rdfs:label ?label . FILTER (lang(?label) = \\"en\\") . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"&lt;\\": no viable alternative at input \'PREFIXdbpedia-owl:&lt;http://dbpedia.org/ontology/&gt;PREFIXwikibase:&lt;\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 68,\n        "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX wikibase: &lt;http://wikibase.org/ontology PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?runtime WHERE { ?toy_story wdt:P31 wd:Q134302. SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". } OPTIONAL { ?toy_story wdt:P626 ?toy_story_dbpedia } BIND (STR(?toy_story_dbpedia) AS ?dbpedia_uri) ?dbpedia_uri dbpedia-owl:runtime ?runtime . FILTER langMatches(lang(?runtime), \\"en\\") . FILTER regex(str(?runtime), \\"^\\\\d+$\\") . BIND (STRLEN(?runtime) AS ?length) FILTER (?length &lt; 10) }",\n        "startIndex": 68,\n        "stopIndex": 68\n    },\n    "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX wikibase: &lt;http://wikibase.org/ontology PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?runtime WHERE { ?toy_story wdt:P31 wd:Q134302. SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". } OPTIONAL { ?toy_story wdt:P626 ?toy_story_dbpedia } BIND (STR(?toy_story_dbpedia) AS ?dbpedia_uri) ?dbpedia_uri dbpedia-owl:runtime ?runtime . FILTER langMatches(lang(?runtime), \\"en\\") . FILTER regex(str(?runtime), \\"^\\\\d+$\\") . BIND (STRLEN(?runtime) AS ?length) FILTER (?length &lt; 10) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"&lt;\\": no viable alternative at input \'PREFIXdbpedia-owl:&lt;http://dbpedia.org/ontology/&gt;PREFIXrdfs:&lt;\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 64,\n        "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt; SELECT ?item ?itemLabel WHERE { ?item a foaf:Person. ?item dbpedia-owl:instrument dbpedia-owl:Trumpet. ?item a dbpedia-owl:Bandleader. ?item rdfs:label ?itemLabel. FILTER (lang(?itemLabel) = \'en\'). }",\n        "startIndex": 64,\n        "stopIndex": 64\n    },\n    "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt; SELECT ?item ?itemLabel WHERE { ?item a foaf:Person. ?item dbpedia-owl:instrument dbpedia-owl:Trumpet. ?item a dbpedia-owl:Bandleader. ?item rdfs:label ?itemLabel. FILTER (lang(?itemLabel) = \'en\'). }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"AS\\": mismatched input \'AS\' expecting \'}\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 294,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; SELECT ?cause ?causeLabel WHERE { ?cause a dbo:CauseOfDeath . ?cause rdfs:label ?causeLabel . { SELECT ?cause (COUNT(DISTINCT ?entity) as ?count) WHERE { ?entity dbo:causeOfDeath ?cause . } GROUP BY ?cause } AS ?subquery FILTER (?subquery.?count = (SELECT MAX(?count) FROM ?subquery)) }",\n        "startIndex": 294,\n        "stopIndex": 295\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; SELECT ?cause ?causeLabel WHERE { ?cause a dbo:CauseOfDeath . ?cause rdfs:label ?causeLabel . { SELECT ?cause (COUNT(DISTINCT ?entity) as ?count) WHERE { ?entity dbo:causeOfDeath ?cause . } GROUP BY ?cause } AS ?subquery FILTER (?subquery.?count = (SELECT MAX(?count) FROM ?subquery)) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"&lt;\\": no viable alternative at input \'PREFIXdbpedia-owl:&lt;http://dbpedia.org/ontology/&gt;PREFIXdbpedia:&lt;http://dbpedia.org/resource/&gt;PREFIXowl:&lt;\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 110,\n        "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; PREFIX owl: &lt;http://www.w3.org/2002/07/owl PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema SELECT ?item ?itemLabel ?peak ?location ?country WHERE { BIND(dbpedia:Italy AS ?location) ?item dbpedia-owl:location ?location. ?item dbpedia-owl:peak ?peak. ?item dbpedia-owl:country ?country. FILTER (?peak = dbpedia:xxxx OR ?peak = &lt;http://dbpedia.org/resource/xxxx&gt;) FILTER (?country = dbpedia:xxxx OR ?country = &lt;http://dbpedia.org/resource/xxxx&gt;) SERVICE dbpedia:label { dbpedia:serviceParam dbpedia:language \\"en\\". } }",\n        "startIndex": 110,\n        "stopIndex": 110\n    },\n    "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; PREFIX owl: &lt;http://www.w3.org/2002/07/owl PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema SELECT ?item ?itemLabel ?peak ?location ?country WHERE { BIND(dbpedia:Italy AS ?location) ?item dbpedia-owl:location ?location. ?item dbpedia-owl:peak ?peak. ?item dbpedia-owl:country ?country. FILTER (?peak = dbpedia:xxxx OR ?peak = &lt;http://dbpedia.org/resource/xxxx&gt;) FILTER (?country = dbpedia:xxxx OR ?country = &lt;http://dbpedia.org/resource/xxxx&gt;) SERVICE dbpedia:label { dbpedia:serviceParam dbpedia:language \\"en\\". } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"&lt;\\": no viable alternative at input \'PREFIXdbo:&lt;http://dbpedia.org/ontology/&gt;PREFIXdbpedia-owl:&lt;http://dbpedia.org/ontology/&gt;PREFIXrdfs:&lt;\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 107,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema PREFIX : &lt;http://dbpedia.org/resource/&gt; SELECT ?married WHERE { dbr:Tom_Cruise dbo:spouse ?married . SERVICE dbpedia-ld:expand { bd:serviceParam dbpedia-ld:defaultContext \\"http://dbpedia.org/resource/\\" } }",\n        "startIndex": 107,\n        "stopIndex": 107\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema PREFIX : &lt;http://dbpedia.org/resource/&gt; SELECT ?married WHERE { dbr:Tom_Cruise dbo:spouse ?married . SERVICE dbpedia-ld:expand { bd:serviceParam dbpedia-ld:defaultContext \\"http://dbpedia.org/resource/\\" } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"||\\": mismatched input \'||\' expecting \'}\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 264,\n        "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/property/&gt; PREFIX dcterms: &lt;http://purl.org/dc/terms/&gt; SELECT (SUM(?population) AS ?totalPopulation) WHERE { ?country a dbpedia-owl:Country. ?country dbpedia2:continent \\"Asia\\" || \\"Europe\\". ?country dbpedia2:population ?population. FILTER (lang(?population) = \\"en\\"). }",\n        "startIndex": 264,\n        "stopIndex": 265\n    },\n    "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/property/&gt; PREFIX dcterms: &lt;http://purl.org/dc/terms/&gt; SELECT (SUM(?population) AS ?totalPopulation) WHERE { ?country a dbpedia-owl:Country. ?country dbpedia2:continent \\"Asia\\" || \\"Europe\\". ?country dbpedia2:population ?population. FILTER (lang(?population) = \\"en\\"). }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix dbo was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 43,\n        "query": "SELECT ?birthDate WHERE { ?dbpediaEntity a dbo:Person; dbo:birthDate ?birthDate. FILTER(?dbpediaEntity = &lt;http://dbpedia.org/resource/John_Adams&gt;). }",\n        "startIndex": 43,\n        "stopIndex": 52\n    },\n    "query": "SELECT ?birthDate WHERE { ?dbpediaEntity a dbo:Person; dbo:birthDate ?birthDate. FILTER(?dbpediaEntity = &lt;http://dbpedia.org/resource/John_Adams&gt;). }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Not supported: FROM clauses are currently not supported by QLever.",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 66,\n        "query": "PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT ?population FROM &lt;http://dbpedia.org&gt; WHERE { ?e rdfs:label \\"European Union\\"@en. ?e dbpedia-owl:population ?population. }",\n        "startIndex": 66,\n        "stopIndex": 90\n    },\n    "query": "PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT ?population FROM &lt;http://dbpedia.org&gt; WHERE { ?e rdfs:label \\"European Union\\"@en. ?e dbpedia-owl:population ?population. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"&lt;\\": no viable alternative at input \'PREFIXdbpedia-owl:&lt;http://dbpedia.org/ontology/&gt;PREFIXrdfs:&lt;\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 64,\n        "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema SELECT ?rocket WHERE { ?baikonur rdf:type dbpedia-owl:Location. ?rocket rdf:type dbpedia-owl:Rocket. ?launch_event dbpedia-owl:launchSite ?baikonur; dbpedia-owl:launchVehicle ?rocket. }",\n        "startIndex": 64,\n        "stopIndex": 64\n    },\n    "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema SELECT ?rocket WHERE { ?baikonur rdf:type dbpedia-owl:Location. ?rocket rdf:type dbpedia-owl:Rocket. ?launch_event dbpedia-owl:launchSite ?baikonur; dbpedia-owl:launchVehicle ?rocket. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"&lt;\\": no viable alternative at input \'PREFIXdbpedia-owl:&lt;http://dbpedia.org/ontology/&gt;PREFIXrdfs:&lt;\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 64,\n        "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema SELECT ?island WHERE { ?island a dbpedia-owl:Island . ?island dbpedia-owl:country ?country . FILTER (?country = &lt;http://dbpedia.org/resource/Japan&gt;) }",\n        "startIndex": 64,\n        "stopIndex": 64\n    },\n    "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema SELECT ?island WHERE { ?island a dbpedia-owl:Island . ?island dbpedia-owl:country ?country . FILTER (?country = &lt;http://dbpedia.org/resource/Japan&gt;) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"&lt;code&gt;\\": extraneous input \'&lt;code&gt;\' expecting {&lt;EOF&gt;, BASE, PREFIX, SELECT, CONSTRUCT, DESCRIBE, ASK, LOAD, CLEAR, DROP, CREATE, ADD, MOVE, COPY, INSERT, DELETE, WITH}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 0,\n        "query": "&lt;code&gt;PREFIX dbpedia-owl: &amp;lt;&lt;http://dbpedia.org/ontology/&gt;&amp;gt; SELECT ?developer WHERE { &amp;lt;&lt;http://dbpedia.org/resource/World_of_Warcraft&amp;gt; dbpedia-owl:developer ?developer }&lt;/code&gt;",\n        "startIndex": 0,\n        "stopIndex": 5\n    },\n    "query": "&lt;code&gt;PREFIX dbpedia-owl: &amp;lt;&lt;http://dbpedia.org/ontology/&gt;&amp;gt; SELECT ?developer WHERE { &amp;lt;&lt;http://dbpedia.org/resource/World_of_Warcraft&amp;gt; dbpedia-owl:developer ?developer }&lt;/code&gt;",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix dbpedia was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 175,\n        "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/property/&gt; SELECT DISTINCT ?item ?itemLabel WHERE { ?item dbpedia-owl:industryCategory dbpedia:Media. FILTER(LANG(?itemLabel) = \'en\'). SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". } }",\n        "startIndex": 175,\n        "stopIndex": 187\n    },\n    "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/property/&gt; SELECT DISTINCT ?item ?itemLabel WHERE { ?item dbpedia-owl:industryCategory dbpedia:Media. FILTER(LANG(?itemLabel) = \'en\'). SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"&lt;\\": no viable alternative at input \'PREFIXdb:&lt;http://dbpedia.org/&gt;PREFIXfoaf:&lt;http://xmlns.com/foaf/0.1/&gt;PREFIXdcterms:&lt;http://purl.org/dc/terms/&gt;PREFIXrdf:&lt;\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 131,\n        "query": "PREFIX db: &lt;http://dbpedia.org/&gt; PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt; PREFIX dcterms: &lt;http://purl.org/dc/terms/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns SELECT ?show WHERE { ?show a db:TVShow . ?show foaf:maker ?neilPatrickHarris . BIND (URI(CONCAT(\\"http://dbpedia.org/resource/\\", ?show)) AS ?showUri) . OPTIONAL { ?show dcterms:title ?showTitle . } }",\n        "startIndex": 131,\n        "stopIndex": 131\n    },\n    "query": "PREFIX db: &lt;http://dbpedia.org/&gt; PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt; PREFIX dcterms: &lt;http://purl.org/dc/terms/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns SELECT ?show WHERE { ?show a db:TVShow . ?show foaf:maker ?neilPatrickHarris . BIND (URI(CONCAT(\\"http://dbpedia.org/resource/\\", ?show)) AS ?showUri) . OPTIONAL { ?show dcterms:title ?showTitle . } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"*\\": mismatched input \'*\' expecting {&lt;EOF&gt;, BASE, PREFIX, SELECT, CONSTRUCT, DESCRIBE, ASK, LOAD, CLEAR, DROP, CREATE, ADD, MOVE, COPY, INSERT, DELETE, WITH}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 0,\n        "query": "** PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/property/&gt; SELECT ?film WHERE { ?film dbo:starring dbpedia2:Tom_Cruise . FILTER(LANG(?film) = \'en\') } **",\n        "startIndex": 0,\n        "stopIndex": 0\n    },\n    "query": "** PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/property/&gt; SELECT ?film WHERE { ?film dbo:starring dbpedia2:Tom_Cruise . FILTER(LANG(?film) = \'en\') } **",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"&lt;\\": no viable alternative at input \'PREFIXrdfs:&lt;\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 13,\n        "query": "PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema PREFIX geo: &lt;http://www.w3.org/2003/01/geo/wgs84_pos PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?country WHERE { ?mountEverest a dbpedia-owl:Mountain . ?mountEverest dbpedia-owl:locatedInRegion ?country . FILTER (lang(?country) = \'en\') . FILTER (regex(str(?mountEverest), \'Everest$\')). }",\n        "startIndex": 13,\n        "stopIndex": 13\n    },\n    "query": "PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema PREFIX geo: &lt;http://www.w3.org/2003/01/geo/wgs84_pos PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?country WHERE { ?mountEverest a dbpedia-owl:Mountain . ?mountEverest dbpedia-owl:locatedInRegion ?country . FILTER (lang(?country) = \'en\') . FILTER (regex(str(?mountEverest), \'Everest$\')). }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"&lt;\\": no viable alternative at input \'PREFIXdbpedia-owl:&lt;http://dbpedia.org/ontology/&gt;PREFIXdbpedia2:&lt;http://dbpedia.org/property/&gt;PREFIXrdfs:&lt;\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 112,\n        "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/property/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema SELECT ?Location WHERE { ?Event a dbpedia-owl:Event ; dbpedia2:subject &lt;http://dbpedia.org/resource/John_F._Kennedy&gt; ; dbpedia-owl:location ?Location . FILTER (lang(?Event) = \\"en\\") }",\n        "startIndex": 112,\n        "stopIndex": 112\n    },\n    "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/property/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema SELECT ?Location WHERE { ?Event a dbpedia-owl:Event ; dbpedia2:subject &lt;http://dbpedia.org/resource/John_F._Kennedy&gt; ; dbpedia-owl:location ?Location . FILTER (lang(?Event) = \\"en\\") }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"dbpedia-lookup\\": mismatched input \'dbpedia-lookup\' expecting {SILENT, IRI_REF, PNAME_NS, PNAME_LN, VAR1, VAR2, PREFIX_LANGTAG}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 211,\n        "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia-resource: &lt;http://dbpedia.org/resource/&gt; SELECT ?river WHERE { &lt;http://dbpedia.org/resource/Brooklyn_Bridge&gt; dbpedia-owl:crosses ?river. SERVICE dbpedia-lookup { } }",\n        "startIndex": 211,\n        "stopIndex": 224\n    },\n    "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia-resource: &lt;http://dbpedia.org/resource/&gt; SELECT ?river WHERE { &lt;http://dbpedia.org/resource/Brooklyn_Bridge&gt; dbpedia-owl:crosses ?river. SERVICE dbpedia-lookup { } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"&lt;\\": no viable alternative at input \'PREFIXrdfs:&lt;\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 13,\n        "query": "PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?swimmer WHERE { ?swimmer a dbo:Swimmer . ?swimmer dbo:birthPlace ?birthPlace . ?birthPlace rdfs:label \\"Moscow\\"@en . }",\n        "startIndex": 13,\n        "stopIndex": 13\n    },\n    "query": "PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?swimmer WHERE { ?swimmer a dbo:Swimmer . ?swimmer dbo:birthPlace ?birthPlace . ?birthPlace rdfs:label \\"Moscow\\"@en . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"dbpedia-owl:releaseDate\\": missing \')\' at \'dbpedia-owl:releaseDate\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 196,\n        "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/&gt; SELECT ?movie WHERE { ?movie dbpedia-owl:actor ?actor. ?actor foaf:name \\"Alec Guinness\\"@en. FILTER (?movie dbpedia-owl:releaseDate ?releaseDate) BIND (MAX(?releaseDate) AS ?max_release_date) FILTER (?releaseDate = ?max_release_date) }",\n        "startIndex": 196,\n        "stopIndex": 218\n    },\n    "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/&gt; SELECT ?movie WHERE { ?movie dbpedia-owl:actor ?actor. ?actor foaf:name \\"Alec Guinness\\"@en. FILTER (?movie dbpedia-owl:releaseDate ?releaseDate) BIND (MAX(?releaseDate) AS ?max_release_date) FILTER (?releaseDate = ?max_release_date) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix dbr was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 39,\n        "query": "SELECT ?mountainName WHERE { ?mountain dbr:P1506 ?secondHighest; dbr:P31 dbr:Mountain. ?mountain dbr:P180 dbr:Earth. SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". } OPTIONAL { ?mountain dbr:P625 ?coordinate. } ?mountain dbr:P2561 ?mountainName. } GROUP BY ?mountainName ORDER BY DESC(?mountainName)",\n        "startIndex": 39,\n        "stopIndex": 47\n    },\n    "query": "SELECT ?mountainName WHERE { ?mountain dbr:P1506 ?secondHighest; dbr:P31 dbr:Mountain. ?mountain dbr:P180 dbr:Earth. SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". } OPTIONAL { ?mountain dbr:P625 ?coordinate. } ?mountain dbr:P2561 ?mountainName. } GROUP BY ?mountainName ORDER BY DESC(?mountainName)",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"&lt;\\": no viable alternative at input \'PREFIXdbpedia-owl:&lt;http://dbpedia.org/ontology/&gt;PREFIXrdfs:&lt;\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 64,\n        "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema SELECT ?population WHERE { ?cairo a dbpedia-owl:City . ?cairo dbpedia-owl:populationTotal ?population . FILTER regex(str(?population), \\"^\\\\d+$\\") . }",\n        "startIndex": 64,\n        "stopIndex": 64\n    },\n    "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema SELECT ?population WHERE { ?cairo a dbpedia-owl:City . ?cairo dbpedia-owl:populationTotal ?population . FILTER regex(str(?population), \\"^\\\\d+$\\") . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"&lt;\\": no viable alternative at input \'PREFIXrdfs:&lt;\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 13,\n        "query": "PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT (COUNT(DISTINCT ?child) AS ?count) WHERE { ?parent foaf:isPrimaryTopicOf dbpedia:Benjamin_Franklin . ?child foaf:maker ?parent . }",\n        "startIndex": 13,\n        "stopIndex": 13\n    },\n    "query": "PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT (COUNT(DISTINCT ?child) AS ?count) WHERE { ?parent foaf:isPrimaryTopicOf dbpedia:Benjamin_Franklin . ?child foaf:maker ?parent . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 79,\n        "query": "PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?country WHERE { wd:Q39784 wdt:P30 ?country. }",\n        "startIndex": 79,\n        "stopIndex": 85\n    },\n    "query": "PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?country WHERE { wd:Q39784 wdt:P30 ?country. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"&lt;\\": no viable alternative at input \'PREFIXrdfs:&lt;\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 13,\n        "query": "PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?height WHERE { &lt;http://dbpedia.org/resource/Claudia_Schiffer&gt; dbo:height ?height . }",\n        "startIndex": 13,\n        "stopIndex": 13\n    },\n    "query": "PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?height WHERE { &lt;http://dbpedia.org/resource/Claudia_Schiffer&gt; dbo:height ?height . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: token recognition error at: \'`\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 0,\n        "query": "` tags for clarity:  PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema SELECT ?author WHERE { &lt;http://dbpedia.org/resource/The_Pillars_of_the_Earth&gt; dbo:author ?author . ?author rdfs:label ?authorLabel . FILTER regex(?authorLabel, \\"^[^\\\\\\\\s]*$\\", \\"i\\") }",\n        "startIndex": 0,\n        "stopIndex": 0\n    },\n    "query": "` tags for clarity:  PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema SELECT ?author WHERE { &lt;http://dbpedia.org/resource/The_Pillars_of_the_Earth&gt; dbo:author ?author . ?author rdfs:label ?authorLabel . FILTER regex(?authorLabel, \\"^[^\\\\\\\\s]*$\\", \\"i\\") }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"&lt;\\": no viable alternative at input \'PREFIXdbpedia-owl:&lt;http://dbpedia.org/ontology/&gt;PREFIXrdfs:&lt;\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 64,\n        "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema PREFIX schema: &lt;http://schema.org/&gt; SELECT ?label ?item ?genre WHERE { ?item a dbpedia-owl:Person. ?item dbpedia-owl:country &lt;http://dbpedia.org/resource/United_States&gt;. ?item schema:genre ?genre. SERVICE dbpedia:label { dbpedia:serviceParam dbpedia:language \\"en\\". } }",\n        "startIndex": 64,\n        "stopIndex": 64\n    },\n    "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema PREFIX schema: &lt;http://schema.org/&gt; SELECT ?label ?item ?genre WHERE { ?item a dbpedia-owl:Person. ?item dbpedia-owl:country &lt;http://dbpedia.org/resource/United_States&gt;. ?item schema:genre ?genre. SERVICE dbpedia:label { dbpedia:serviceParam dbpedia:language \\"en\\". } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"GROUP BY\\": missing \'}\' at \'GROUP BY\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 205,\n        "query": "PREFIX db: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; SELECT ?city (MIN(?population) as ?minPopulation) WHERE { ?city a db:City . ?city dbpprop:populationTotal ?population . GROUP BY ?city } ORDER BY ?minPopulation LIMIT 1",\n        "startIndex": 205,\n        "stopIndex": 212\n    },\n    "query": "PREFIX db: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; SELECT ?city (MIN(?population) as ?minPopulation) WHERE { ?city a db:City . ?city dbpprop:populationTotal ?population . GROUP BY ?city } ORDER BY ?minPopulation LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"&lt;\\": no viable alternative at input \'PREFIXdbo:&lt;http://dbpedia.org/ontology/&gt;PREFIXrdfs:&lt;\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 56,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?s WHERE { ?s dbo:tvShow true. ?s dbo:creator dbr:Walt_Disney. SERVICE wikibase:label { BIND(STR(?s) AS @label) } }",\n        "startIndex": 56,\n        "stopIndex": 56\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?s WHERE { ?s dbo:tvShow true. ?s dbo:creator dbr:Walt_Disney. SERVICE wikibase:label { BIND(STR(?s) AS @label) } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 49,\n        "query": "SELECT ?item ?itemLabel ?netIncome WHERE { ?item wdt:P31 wd:Q83. ?item wdt:P1082 ?netIncome. SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". } }",\n        "startIndex": 49,\n        "stopIndex": 55\n    },\n    "query": "SELECT ?item ?itemLabel ?netIncome WHERE { ?item wdt:P31 wd:Q83. ?item wdt:P1082 ?netIncome. SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 42,\n        "query": "SELECT ?country ?capital WHERE { ?country wdt:P31 wd:Q11196. ?country wdt:P17 ?location. ?location wdt:P30 ?country2. ?country2 wdt:P36 ?capital. FILTER (?capital != wd:Q2129) }",\n        "startIndex": 42,\n        "stopIndex": 48\n    },\n    "query": "SELECT ?country ?capital WHERE { ?country wdt:P31 wd:Q11196. ?country wdt:P17 ?location. ?location wdt:P30 ?country2. ?country2 wdt:P36 ?capital. FILTER (?capital != wd:Q2129) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"@label\\": mismatched input \'@label\' expecting {VAR1, VAR2}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 339,\n        "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/property/&gt; SELECT ?lake ?country WHERE { ?lake a dbpedia-owl:BodyOfWater. ?lake dbpedia2:locationOfSituation ?location. ?location a dbpedia-owl:Place. ?location dbpedia2:country ?country. SERVICE wikibase:attribution { BIND(wikibase:labelService() AS @label) } FILTER (regex(?lake, &lt;http://dbpedia.org/page/Limerick_Lake&gt;)) }",\n        "startIndex": 339,\n        "stopIndex": 344\n    },\n    "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/property/&gt; SELECT ?lake ?country WHERE { ?lake a dbpedia-owl:BodyOfWater. ?lake dbpedia2:locationOfSituation ?location. ?location a dbpedia-owl:Place. ?location dbpedia2:country ?country. SERVICE wikibase:attribution { BIND(wikibase:labelService() AS @label) } FILTER (regex(?lake, &lt;http://dbpedia.org/page/Limerick_Lake&gt;)) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 23,\n        "query": "SELECT ?height WHERE { wd:Michael_Jordan dbpedia-owl:height ?height. }",\n        "startIndex": 23,\n        "stopIndex": 39\n    },\n    "query": "SELECT ?height WHERE { wd:Michael_Jordan dbpedia-owl:height ?height. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"dbo:directorType\\": missing \')\' at \'dbo:directorType\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 270,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt; SELECT ?film WHERE { ?film dbo:director dbp:Clint_Eastwood . ?film dbo:director ?person . FILTER (?person = dbp:Clint_Eastwood) FILTER (?film dbo:directorType dbo:FilmDirector) . SERVICE &lt;http://dbpedia.org/sparql&gt; { ?film rdfs:seeAlso ?filmId . ?filmId dbo:wikiPageID ?id . BIND (strafter(?id, \\"page/\\") as ?filmId) } }",\n        "startIndex": 270,\n        "stopIndex": 285\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt; SELECT ?film WHERE { ?film dbo:director dbp:Clint_Eastwood . ?film dbo:director ?person . FILTER (?person = dbp:Clint_Eastwood) FILTER (?film dbo:directorType dbo:FilmDirector) . SERVICE &lt;http://dbpedia.org/sparql&gt; { ?film rdfs:seeAlso ?filmId . ?filmId dbo:wikiPageID ?id . BIND (strafter(?id, \\"page/\\") as ?filmId) } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"African\\": mismatched input \'African\' expecting \'}\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 113,\n        "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?country WHERE { ?country dbpedia-owl:currency db:West African CFA franc. }",\n        "startIndex": 113,\n        "stopIndex": 119\n    },\n    "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?country WHERE { ?country dbpedia-owl:currency db:West African CFA franc. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wikibase was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 188,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; SELECT ?holiday ?holidayLabel WHERE { ?holiday a dbo:Holiday. ?holiday dbp:isPartOf ?country. SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". } }",\n        "startIndex": 188,\n        "stopIndex": 201\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; SELECT ?holiday ?holidayLabel WHERE { ?holiday a dbo:Holiday. ?holiday dbp:isPartOf ?country. SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix rdfs was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 269,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?actor ?actorLabel ?birthday WHERE { ?episode dbo:actor ?actor. ?actor dbo:birthDate ?birthday. ?actor dbo:wikiPageID ?wikiPageID. SERVICE &lt;http://dbpedia.org/sparql&gt; { ?actor rdfs:label ?actorLabel. FILTER (lang(?actorLabel) = \'en\'). } FILTER (STRSTARTS(str(?episode), \\"Charmed\\")). }",\n        "startIndex": 269,\n        "stopIndex": 278\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?actor ?actorLabel ?birthday WHERE { ?episode dbo:actor ?actor. ?actor dbo:birthDate ?birthday. ?actor dbo:wikiPageID ?wikiPageID. SERVICE &lt;http://dbpedia.org/sparql&gt; { ?actor rdfs:label ?actorLabel. FILTER (lang(?actorLabel) = \'en\'). } FILTER (STRSTARTS(str(?episode), \\"Charmed\\")). }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+    <t>Query Bad Formed</t>
+  </si>
+  <si>
+    <t>Resource treated as Ontology</t>
+  </si>
+  <si>
+    <t>Unadapted Dataset Patterns</t>
+  </si>
+  <si>
+    <t>Structural Error</t>
+  </si>
+  <si>
+    <t>Ontology treated as Resource</t>
+  </si>
+  <si>
+    <t>Missing rdf:type</t>
+  </si>
+  <si>
+    <t>Wrong Ontology</t>
+  </si>
+  <si>
+    <t>Error Category 2</t>
+  </si>
+  <si>
+    <t>Error Category 3</t>
+  </si>
+  <si>
+    <t>Error Category 4</t>
+  </si>
+  <si>
+    <t>Wrong Resource</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?founder WHERE { &lt;http://dbpedia.org/resource/Penguin_Books&gt; dbo:founder ?founder . SERVICE wikibase:serviceLink { BIND (IRI("http://dbpedia.org/resource/") AS ?service) } }</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Prefix wikibase was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 193,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?founder WHERE { &lt;http://dbpedia.org/resource/Penguin_Books&gt; dbo:founder ?founder . SERVICE wikibase:serviceLink { BIND (IRI(\\"http://dbpedia.org/resource/\\") AS ?service) } }",\n        "startIndex": 527,\n        "stopIndex": 546\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?founder WHERE { &lt;http://dbpedia.org/resource/Penguin_Books&gt; dbo:founder ?founder . SERVICE wikibase:serviceLink { BIND (IRI(\\"http://dbpedia.org/resource/\\") AS ?service) } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?film WHERE { ?film rdf:type dbo:Work . ?film foaf:maker &lt;http://dbpedia.org/resource/Stanley_Kubrick&gt; . }</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Token \\"&lt;\\": no viable alternative at input \'PREFIXrdf:&lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;PREFIXdbr:&lt;http://dbpedia.org/resource/&gt;PREFIXdbp:&lt;http://dbpedia.org/property/&gt;PREFIXskos:&lt;http://www.w3.org/2004/02/skos/core#&gt;PREFIXyago:&lt;http://dbpedia.org/class/yago/&gt;PREFIXdbc:&lt;http://dbpedia.org/resource/Category:&gt;PREFIXdct:&lt;http://purl.org/dc/terms/&gt;PREFIXrdf:&lt;\'",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 12,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?film WHERE { ?film rdf:type dbo:Work . ?film foaf:maker &lt;http://dbpedia.org/resource/Stanley_Kubrick&gt; . }",\n        "startIndex": 346,\n        "stopIndex": 346\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?film WHERE { ?film rdf:type dbo:Work . ?film foaf:maker &lt;http://dbpedia.org/resource/Stanley_Kubrick&gt; . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT ?musical ?musicalLabel WHERE { ?musical a dbo:Musical. ?composer foaf:name "Elton John"@en. ?musical dbo:composer ?composer. SERVICE dbpedia-lookups:labels { "en" @en. } BIND(STRAFTER(STR(?musical), STR(&lt;http://dbpedia.org/resource/)) AS ?musicalLabel) }</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Token \\".\\": mismatched input \'.\' expecting {\'(\', \'a\', \'^\', \'!\', IRI_REF, PNAME_NS, PNAME_LN, VAR1, VAR2, PREFIX_LANGTAG}",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 173,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nSELECT ?musical ?musicalLabel WHERE { ?musical a dbo:Musical. ?composer foaf:name \\"Elton John\\"@en. ?musical dbo:composer ?composer. SERVICE dbpedia-lookups:labels { \\"en\\" @en. } BIND(STRAFTER(STR(?musical), STR(&lt;http://dbpedia.org/resource/)) AS ?musicalLabel) }",\n        "startIndex": 550,\n        "stopIndex": 550\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nSELECT ?musical ?musicalLabel WHERE { ?musical a dbo:Musical. ?composer foaf:name \\"Elton John\\"@en. ?musical dbo:composer ?composer. SERVICE dbpedia-lookups:labels { \\"en\\" @en. } BIND(STRAFTER(STR(?musical), STR(&lt;http://dbpedia.org/resource/)) AS ?musicalLabel) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT ?developer WHERE { SERVICE &lt;http://dbpedia.org/sparql&gt; { ?skype rdf:type dbo:Software. ?skype foaf:maker ?developer. } }</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Prefix foaf was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 101,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nSELECT ?developer WHERE { SERVICE &lt;http://dbpedia.org/sparql&gt; { ?skype rdf:type dbo:Software. ?skype foaf:maker ?developer. } }",\n        "startIndex": 478,\n        "stopIndex": 487\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nSELECT ?developer WHERE { SERVICE &lt;http://dbpedia.org/sparql&gt; { ?skype rdf:type dbo:Software. ?skype foaf:maker ?developer. } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema SELECT ?club WHERE { ?club a dbpedia-owl:SoccerClub. ?club dbpedia-owl:league dbpedia:Bundesliga. }</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Token \\"&lt;\\": no viable alternative at input \'PREFIXrdf:&lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;PREFIXdbo:&lt;http://dbpedia.org/ontology/&gt;PREFIXdbr:&lt;http://dbpedia.org/resource/&gt;PREFIXdbp:&lt;http://dbpedia.org/property/&gt;PREFIXskos:&lt;http://www.w3.org/2004/02/skos/core#&gt;PREFIXyago:&lt;http://dbpedia.org/class/yago/&gt;PREFIXdbc:&lt;http://dbpedia.org/resource/Category:&gt;PREFIXdct:&lt;http://purl.org/dc/terms/&gt;PREFIXdbpedia-owl:&lt;http://dbpedia.org/ontology/&gt;PREFIXrdf:&lt;\'",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 63,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema SELECT ?club WHERE { ?club a dbpedia-owl:SoccerClub. ?club dbpedia-owl:league dbpedia:Bundesliga. }",\n        "startIndex": 440,\n        "stopIndex": 440\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema SELECT ?club WHERE { ?club a dbpedia-owl:SoccerClub. ?club dbpedia-owl:league dbpedia:Bundesliga. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+** PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt; SELECT DISTINCT ?actor WHERE { ?movie dbpedia-owl:director &lt;http://dbpedia.org/resource/William_Shatner&gt; . ?movie dbpedia-owl:actor ?actor . FILTER (lang(?actor) = 'en') } **</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Token \\"*\\": no viable alternative at input \'PREFIXrdf:&lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;PREFIXdbo:&lt;http://dbpedia.org/ontology/&gt;PREFIXdbr:&lt;http://dbpedia.org/resource/&gt;PREFIXdbp:&lt;http://dbpedia.org/property/&gt;PREFIXskos:&lt;http://www.w3.org/2004/02/skos/core#&gt;PREFIXyago:&lt;http://dbpedia.org/class/yago/&gt;PREFIXdbc:&lt;http://dbpedia.org/resource/Category:&gt;PREFIXdct:&lt;http://purl.org/dc/terms/&gt;*\'",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 0,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\n** PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt; SELECT DISTINCT ?actor WHERE { ?movie dbpedia-owl:director &lt;http://dbpedia.org/resource/William_Shatner&gt; . ?movie dbpedia-owl:actor ?actor . FILTER (lang(?actor) = \'en\') } **",\n        "startIndex": 377,\n        "stopIndex": 377\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\n** PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt; SELECT DISTINCT ?actor WHERE { ?movie dbpedia-owl:director &lt;http://dbpedia.org/resource/William_Shatner&gt; . ?movie dbpedia-owl:actor ?actor . FILTER (lang(?actor) = \'en\') } **",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/property/&gt; SELECT ?mountain WHERE { ?mountain a dbpedia-owl:Mountain . ?mountain dbpedia2:elevation ?elevation . FILTER (?elevation = (SELECT MAX(?elevation) FROM (SELECT ?mountain ?elevation FROM &lt;http://dbpedia.org&gt; WHERE { ?mountain a dbpedia-owl:Mountain . ?mountain dbpedia2:elevation ?elevation }))) }</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Token \\"SELECT\\": extraneous input \'SELECT\' expecting {\'(\', \'+\', \'!\', \'-\', \'true\', \'false\', GROUP_CONCAT, NOT, STR, LANG, LANGMATCHES, DATATYPE, BOUND, IRI, URI, BNODE, RAND, ABS, CEIL, FLOOR, ROUND, CONCAT, STRLEN, UCASE, LCASE, ENCODE_FOR_URI, CONTAINS, STRSTARTS, STRENDS, STRBEFORE, STRAFTER, YEAR, MONTH, DAY, HOURS, MINUTES, SECONDS, TIMEZONE, TZ, NOW, UUID, STRUUID, SHA1, SHA256, SHA384, SHA512, MD5, COALESCE, IF, STRLANG, STRDT, SAMETERM, ISIRI, ISURI, ISBLANK, ISLITERAL, ISNUMERIC, REGEX, SUBSTR, REPLACE, EXISTS, COUNT, SUM, MIN, MAX, AVG, SAMPLE, IRI_REF, PNAME_NS, PNAME_LN, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2}",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 223,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/property/&gt; SELECT ?mountain WHERE { ?mountain a dbpedia-owl:Mountain . ?mountain dbpedia2:elevation ?elevation . FILTER (?elevation = (SELECT MAX(?elevation) FROM (SELECT ?mountain ?elevation FROM &lt;http://dbpedia.org&gt; WHERE { ?mountain a dbpedia-owl:Mountain . ?mountain dbpedia2:elevation ?elevation }))) }",\n        "startIndex": 600,\n        "stopIndex": 605\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/property/&gt; SELECT ?mountain WHERE { ?mountain a dbpedia-owl:Mountain . ?mountain dbpedia2:elevation ?elevation . FILTER (?elevation = (SELECT MAX(?elevation) FROM (SELECT ?mountain ?elevation FROM &lt;http://dbpedia.org&gt; WHERE { ?mountain a dbpedia-owl:Mountain . ?mountain dbpedia2:elevation ?elevation }))) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema PREFIX dbpprop: &lt;http://dbpedia.org/property/&gt; SELECT ?film WHERE { &lt;http://dbpedia.org/resource/Leonardo_DiCaprio&gt; foaf:starring ?film. }</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Token \\"&lt;\\": no viable alternative at input \'PREFIXrdf:&lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;PREFIXdbo:&lt;http://dbpedia.org/ontology/&gt;PREFIXdbr:&lt;http://dbpedia.org/resource/&gt;PREFIXdbp:&lt;http://dbpedia.org/property/&gt;PREFIXskos:&lt;http://www.w3.org/2004/02/skos/core#&gt;PREFIXyago:&lt;http://dbpedia.org/class/yago/&gt;PREFIXdbc:&lt;http://dbpedia.org/resource/Category:&gt;PREFIXdct:&lt;http://purl.org/dc/terms/&gt;PREFIXfoaf:&lt;http://xmlns.com/foaf/0.1/&gt;PREFIXrdfs:&lt;\'",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 55,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema PREFIX dbpprop: &lt;http://dbpedia.org/property/&gt; SELECT ?film WHERE { &lt;http://dbpedia.org/resource/Leonardo_DiCaprio&gt; foaf:starring ?film. }",\n        "startIndex": 432,\n        "stopIndex": 432\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema PREFIX dbpprop: &lt;http://dbpedia.org/property/&gt; SELECT ?film WHERE { &lt;http://dbpedia.org/resource/Leonardo_DiCaprio&gt; foaf:starring ?film. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?date FROM &lt;http://dbpedia.org&gt; WHERE { dbr:Olof_Palme dbo:deathDate ?date . }</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Not supported: FROM clauses are currently not supported by QLever.",\n    "metadata": {\n        "line": 7,\n        "positionInLine": 99,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?date FROM &lt;http://dbpedia.org&gt; WHERE { dbr:Olof_Palme dbo:deathDate ?date . }",\n        "startIndex": 390,\n        "stopIndex": 414\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?date FROM &lt;http://dbpedia.org&gt; WHERE { dbr:Olof_Palme dbo:deathDate ?date . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbpprop: &lt;http://dbpedia.org/property/&gt; SELECT ?movie WHERE { ?movie a dbo:Film. ?movie dbpprop:actor ?actor1. ?actor1 dbpprop:birthName "Elizabeth Taylor". ?movie dbpprop:actor ?actor2. ?actor2 dbpprop:birthName "Richard Burton". FILTER(?actor1 != ?actor2) }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX dcterms: &lt;http://purl.org/dc/terms/&gt; SELECT ?item ?itemLabel WHERE { ?item a dbpedia:VideoGame . ?item dcterms:creator "Mojang" . SERVICE wikibase:serviceUrl "https://dbpedia.org/sparql" }</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Token \\"\\"https://dbpedia.org/sparql\\"\\": missing \'{\' at \'\\"https://dbpedia.org/sparql\\"\'",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 212,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX dcterms: &lt;http://purl.org/dc/terms/&gt; SELECT ?item ?itemLabel WHERE { ?item a dbpedia:VideoGame . ?item dcterms:creator \\"Mojang\\" . SERVICE wikibase:serviceUrl \\"https://dbpedia.org/sparql\\" }",\n        "startIndex": 589,\n        "stopIndex": 616\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX dcterms: &lt;http://purl.org/dc/terms/&gt; SELECT ?item ?itemLabel WHERE { ?item a dbpedia:VideoGame . ?item dcterms:creator \\"Mojang\\" . SERVICE wikibase:serviceUrl \\"https://dbpedia.org/sparql\\" }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?cost WHERE { ?movie a dbpedia-owl:Movie; dbpedia-owl:boxOffice ?cost. }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/property/&gt; PREFIX dcterms: &lt;http://purl.org/dc/terms/&gt; SELECT ?label WHERE { dbpedia2:Elvis_Presley dcterms:creator ?album . ?album rdfs:label ?label . FILTER (lang(?label) = "en") . }</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Prefix rdfs was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 220,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/property/&gt; PREFIX dcterms: &lt;http://purl.org/dc/terms/&gt; SELECT ?label WHERE { dbpedia2:Elvis_Presley dcterms:creator ?album . ?album rdfs:label ?label . FILTER (lang(?label) = \\"en\\") . }",\n        "startIndex": 597,\n        "stopIndex": 606\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/property/&gt; PREFIX dcterms: &lt;http://purl.org/dc/terms/&gt; SELECT ?label WHERE { dbpedia2:Elvis_Presley dcterms:creator ?album . ?album rdfs:label ?label . FILTER (lang(?label) = \\"en\\") . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX wikibase: &lt;http://wikibase.org/ontology PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?runtime WHERE { ?toy_story wdt:P31 wd:Q134302. SERVICE wikibase:label { bd:serviceParam wikibase:language "en". } OPTIONAL { ?toy_story wdt:P626 ?toy_story_dbpedia } BIND (STR(?toy_story_dbpedia) AS ?dbpedia_uri) ?dbpedia_uri dbpedia-owl:runtime ?runtime . FILTER langMatches(lang(?runtime), "en") . FILTER regex(str(?runtime), "^\d+$") . BIND (STRLEN(?runtime) AS ?length) FILTER (?length &lt; 10) }</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Token \\"&lt;\\": no viable alternative at input \'PREFIXrdf:&lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;PREFIXdbo:&lt;http://dbpedia.org/ontology/&gt;PREFIXdbr:&lt;http://dbpedia.org/resource/&gt;PREFIXdbp:&lt;http://dbpedia.org/property/&gt;PREFIXskos:&lt;http://www.w3.org/2004/02/skos/core#&gt;PREFIXyago:&lt;http://dbpedia.org/class/yago/&gt;PREFIXdbc:&lt;http://dbpedia.org/resource/Category:&gt;PREFIXdct:&lt;http://purl.org/dc/terms/&gt;PREFIXdbpedia-owl:&lt;http://dbpedia.org/ontology/&gt;PREFIXwikibase:&lt;\'",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 68,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX wikibase: &lt;http://wikibase.org/ontology PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?runtime WHERE { ?toy_story wdt:P31 wd:Q134302. SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". } OPTIONAL { ?toy_story wdt:P626 ?toy_story_dbpedia } BIND (STR(?toy_story_dbpedia) AS ?dbpedia_uri) ?dbpedia_uri dbpedia-owl:runtime ?runtime . FILTER langMatches(lang(?runtime), \\"en\\") . FILTER regex(str(?runtime), \\"^\\\\d+$\\") . BIND (STRLEN(?runtime) AS ?length) FILTER (?length &lt; 10) }",\n        "startIndex": 445,\n        "stopIndex": 445\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX wikibase: &lt;http://wikibase.org/ontology PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?runtime WHERE { ?toy_story wdt:P31 wd:Q134302. SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". } OPTIONAL { ?toy_story wdt:P626 ?toy_story_dbpedia } BIND (STR(?toy_story_dbpedia) AS ?dbpedia_uri) ?dbpedia_uri dbpedia-owl:runtime ?runtime . FILTER langMatches(lang(?runtime), \\"en\\") . FILTER regex(str(?runtime), \\"^\\\\d+$\\") . BIND (STRLEN(?runtime) AS ?length) FILTER (?length &lt; 10) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt; SELECT ?item ?itemLabel WHERE { ?item a foaf:Person. ?item dbpedia-owl:instrument dbpedia-owl:Trumpet. ?item a dbpedia-owl:Bandleader. ?item rdfs:label ?itemLabel. FILTER (lang(?itemLabel) = 'en'). }</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Token \\"&lt;\\": no viable alternative at input \'PREFIXrdf:&lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;PREFIXdbo:&lt;http://dbpedia.org/ontology/&gt;PREFIXdbr:&lt;http://dbpedia.org/resource/&gt;PREFIXdbp:&lt;http://dbpedia.org/property/&gt;PREFIXskos:&lt;http://www.w3.org/2004/02/skos/core#&gt;PREFIXyago:&lt;http://dbpedia.org/class/yago/&gt;PREFIXdbc:&lt;http://dbpedia.org/resource/Category:&gt;PREFIXdct:&lt;http://purl.org/dc/terms/&gt;PREFIXdbpedia-owl:&lt;http://dbpedia.org/ontology/&gt;PREFIXrdfs:&lt;\'",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 64,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt; SELECT ?item ?itemLabel WHERE { ?item a foaf:Person. ?item dbpedia-owl:instrument dbpedia-owl:Trumpet. ?item a dbpedia-owl:Bandleader. ?item rdfs:label ?itemLabel. FILTER (lang(?itemLabel) = \'en\'). }",\n        "startIndex": 441,\n        "stopIndex": 441\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt; SELECT ?item ?itemLabel WHERE { ?item a foaf:Person. ?item dbpedia-owl:instrument dbpedia-owl:Trumpet. ?item a dbpedia-owl:Bandleader. ?item rdfs:label ?itemLabel. FILTER (lang(?itemLabel) = \'en\'). }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT ?film WHERE { ?film a &lt;http://dbpedia.org/ontology/Film&gt;. ?film &lt;http://dbpedia.org/ontology/director&gt; &lt;http://dbpedia.org/resource/Garry_Marshall&gt;. ?film &lt;http://dbpedia.org/ontology/actor&gt; &lt;http://dbpedia.org/resource/Julia_Roberts&gt;. OPTIONAL { ?film &lt;http://dbpedia.org/ontology/partOf&gt; ?actor } }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/property/&gt; SELECT ?birthYear WHERE { dbpedia2:Rachel_Stevens foaf:birthYear ?birthYear . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; SELECT ?cause ?causeLabel WHERE { ?cause a dbo:CauseOfDeath . ?cause rdfs:label ?causeLabel . { SELECT ?cause (COUNT(DISTINCT ?entity) as ?count) WHERE { ?entity dbo:causeOfDeath ?cause . } GROUP BY ?cause } AS ?subquery FILTER (?subquery.?count = (SELECT MAX(?count) FROM ?subquery)) }</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Token \\"AS\\": mismatched input \'AS\' expecting \'}\'",\n    "metadata": {\n        "line": 7,\n        "positionInLine": 294,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; SELECT ?cause ?causeLabel WHERE { ?cause a dbo:CauseOfDeath . ?cause rdfs:label ?causeLabel . { SELECT ?cause (COUNT(DISTINCT ?entity) as ?count) WHERE { ?entity dbo:causeOfDeath ?cause . } GROUP BY ?cause } AS ?subquery FILTER (?subquery.?count = (SELECT MAX(?count) FROM ?subquery)) }",\n        "startIndex": 585,\n        "stopIndex": 586\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; SELECT ?cause ?causeLabel WHERE { ?cause a dbo:CauseOfDeath . ?cause rdfs:label ?causeLabel . { SELECT ?cause (COUNT(DISTINCT ?entity) as ?count) WHERE { ?entity dbo:causeOfDeath ?cause . } GROUP BY ?cause } AS ?subquery FILTER (?subquery.?count = (SELECT MAX(?count) FROM ?subquery)) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/property/&gt; SELECT ?height WHERE { ?yokohamaMarineTower a dbpedia-owl:Building . ?yokohamaMarineTower dbpedia2:height ?height . FILTER langMatches(lang(?height), "EN") }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; PREFIX owl: &lt;http://www.w3.org/2002/07/owl PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema SELECT ?item ?itemLabel ?peak ?location ?country WHERE { BIND(dbpedia:Italy AS ?location) ?item dbpedia-owl:location ?location. ?item dbpedia-owl:peak ?peak. ?item dbpedia-owl:country ?country. FILTER (?peak = dbpedia:xxxx OR ?peak = &lt;http://dbpedia.org/resource/xxxx&gt;) FILTER (?country = dbpedia:xxxx OR ?country = &lt;http://dbpedia.org/resource/xxxx&gt;) SERVICE dbpedia:label { dbpedia:serviceParam dbpedia:language "en". } }</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Token \\"&lt;\\": no viable alternative at input \'PREFIXrdf:&lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;PREFIXdbo:&lt;http://dbpedia.org/ontology/&gt;PREFIXdbr:&lt;http://dbpedia.org/resource/&gt;PREFIXdbp:&lt;http://dbpedia.org/property/&gt;PREFIXskos:&lt;http://www.w3.org/2004/02/skos/core#&gt;PREFIXyago:&lt;http://dbpedia.org/class/yago/&gt;PREFIXdbc:&lt;http://dbpedia.org/resource/Category:&gt;PREFIXdct:&lt;http://purl.org/dc/terms/&gt;PREFIXdbpedia-owl:&lt;http://dbpedia.org/ontology/&gt;PREFIXdbpedia:&lt;http://dbpedia.org/resource/&gt;PREFIXowl:&lt;\'",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 110,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; PREFIX owl: &lt;http://www.w3.org/2002/07/owl PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema SELECT ?item ?itemLabel ?peak ?location ?country WHERE { BIND(dbpedia:Italy AS ?location) ?item dbpedia-owl:location ?location. ?item dbpedia-owl:peak ?peak. ?item dbpedia-owl:country ?country. FILTER (?peak = dbpedia:xxxx OR ?peak = &lt;http://dbpedia.org/resource/xxxx&gt;) FILTER (?country = dbpedia:xxxx OR ?country = &lt;http://dbpedia.org/resource/xxxx&gt;) SERVICE dbpedia:label { dbpedia:serviceParam dbpedia:language \\"en\\". } }",\n        "startIndex": 487,\n        "stopIndex": 487\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; PREFIX owl: &lt;http://www.w3.org/2002/07/owl PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema SELECT ?item ?itemLabel ?peak ?location ?country WHERE { BIND(dbpedia:Italy AS ?location) ?item dbpedia-owl:location ?location. ?item dbpedia-owl:peak ?peak. ?item dbpedia-owl:country ?country. FILTER (?peak = dbpedia:xxxx OR ?peak = &lt;http://dbpedia.org/resource/xxxx&gt;) FILTER (?country = dbpedia:xxxx OR ?country = &lt;http://dbpedia.org/resource/xxxx&gt;) SERVICE dbpedia:label { dbpedia:serviceParam dbpedia:language \\"en\\". } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/property/&gt; SELECT ?supervisor WHERE { ?person dbpedia2:doctoralSupervisor ?supervisor; dbpedia-owl:name "Albert Einstein". ?supervisor dbpedia-owl:fullName "Marcel Grossmann". }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt; SELECT ?company WHERE { ?person a dbpedia-owl:Person . ?person foaf:name "Donald Trump"@en . ?person dbpedia-owl:company ?company . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema PREFIX : &lt;http://dbpedia.org/resource/&gt; SELECT ?married WHERE { dbr:Tom_Cruise dbo:spouse ?married . SERVICE dbpedia-ld:expand { bd:serviceParam dbpedia-ld:defaultContext "http://dbpedia.org/resource/" } }</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Token \\"&lt;\\": no viable alternative at input \'PREFIXrdf:&lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;PREFIXdbp:&lt;http://dbpedia.org/property/&gt;PREFIXskos:&lt;http://www.w3.org/2004/02/skos/core#&gt;PREFIXyago:&lt;http://dbpedia.org/class/yago/&gt;PREFIXdbc:&lt;http://dbpedia.org/resource/Category:&gt;PREFIXdct:&lt;http://purl.org/dc/terms/&gt;PREFIXdbo:&lt;http://dbpedia.org/ontology/&gt;PREFIXdbpedia-owl:&lt;http://dbpedia.org/ontology/&gt;PREFIXrdfs:&lt;\'",\n    "metadata": {\n        "line": 7,\n        "positionInLine": 107,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema PREFIX : &lt;http://dbpedia.org/resource/&gt; SELECT ?married WHERE { dbr:Tom_Cruise dbo:spouse ?married . SERVICE dbpedia-ld:expand { bd:serviceParam dbpedia-ld:defaultContext \\"http://dbpedia.org/resource/\\" } }",\n        "startIndex": 398,\n        "stopIndex": 398\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema PREFIX : &lt;http://dbpedia.org/resource/&gt; SELECT ?married WHERE { dbr:Tom_Cruise dbo:spouse ?married . SERVICE dbpedia-ld:expand { bd:serviceParam dbpedia-ld:defaultContext \\"http://dbpedia.org/resource/\\" } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/property/&gt; PREFIX dcterms: &lt;http://purl.org/dc/terms/&gt; SELECT (SUM(?population) AS ?totalPopulation) WHERE { ?country a dbpedia-owl:Country. ?country dbpedia2:continent "Asia" || "Europe". ?country dbpedia2:population ?population. FILTER (lang(?population) = "en"). }</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Token \\"||\\": mismatched input \'||\' expecting \'}\'",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 264,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/property/&gt; PREFIX dcterms: &lt;http://purl.org/dc/terms/&gt; SELECT (SUM(?population) AS ?totalPopulation) WHERE { ?country a dbpedia-owl:Country. ?country dbpedia2:continent \\"Asia\\" || \\"Europe\\". ?country dbpedia2:population ?population. FILTER (lang(?population) = \\"en\\"). }",\n        "startIndex": 641,\n        "stopIndex": 642\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/property/&gt; PREFIX dcterms: &lt;http://purl.org/dc/terms/&gt; SELECT (SUM(?population) AS ?totalPopulation) WHERE { ?country a dbpedia-owl:Country. ?country dbpedia2:continent \\"Asia\\" || \\"Europe\\". ?country dbpedia2:population ?population. FILTER (lang(?population) = \\"en\\"). }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dcterms: &lt;http://purl.org/dc/terms/&gt; PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt; SELECT ?author WHERE { ?book dcterms:title "The Interpretation of Dreams"@en ; dcterms:creator ?author . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT ?birthDate WHERE { ?dbpediaEntity a dbo:Person; dbo:birthDate ?birthDate. FILTER(?dbpediaEntity = &lt;http://dbpedia.org/resource/John_Adams&gt;). }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT ?population FROM &lt;http://dbpedia.org&gt; WHERE { ?e rdfs:label "European Union"@en. ?e dbpedia-owl:population ?population. }</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Not supported: FROM clauses are currently not supported by QLever.",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 66,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT ?population FROM &lt;http://dbpedia.org&gt; WHERE { ?e rdfs:label \\"European Union\\"@en. ?e dbpedia-owl:population ?population. }",\n        "startIndex": 443,\n        "stopIndex": 467\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT ?population FROM &lt;http://dbpedia.org&gt; WHERE { ?e rdfs:label \\"European Union\\"@en. ?e dbpedia-owl:population ?population. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?currency WHERE { ?china a dbo:Country . ?china dbo:currency ?currency . FILTER (regex(?china, "China")) . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?death WHERE { ?author dbpedia-owl:deathDate ?death . FILTER (lang(?death) = "en") . FILTER (?author = dbpedia:William_Shakespeare) }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema SELECT ?rocket WHERE { ?baikonur rdf:type dbpedia-owl:Location. ?rocket rdf:type dbpedia-owl:Rocket. ?launch_event dbpedia-owl:launchSite ?baikonur; dbpedia-owl:launchVehicle ?rocket. }</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Token \\"&lt;\\": no viable alternative at input \'PREFIXrdf:&lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;PREFIXdbo:&lt;http://dbpedia.org/ontology/&gt;PREFIXdbr:&lt;http://dbpedia.org/resource/&gt;PREFIXdbp:&lt;http://dbpedia.org/property/&gt;PREFIXskos:&lt;http://www.w3.org/2004/02/skos/core#&gt;PREFIXyago:&lt;http://dbpedia.org/class/yago/&gt;PREFIXdbc:&lt;http://dbpedia.org/resource/Category:&gt;PREFIXdct:&lt;http://purl.org/dc/terms/&gt;PREFIXdbpedia-owl:&lt;http://dbpedia.org/ontology/&gt;PREFIXrdfs:&lt;\'",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 64,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema SELECT ?rocket WHERE { ?baikonur rdf:type dbpedia-owl:Location. ?rocket rdf:type dbpedia-owl:Rocket. ?launch_event dbpedia-owl:launchSite ?baikonur; dbpedia-owl:launchVehicle ?rocket. }",\n        "startIndex": 441,\n        "stopIndex": 441\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema SELECT ?rocket WHERE { ?baikonur rdf:type dbpedia-owl:Location. ?rocket rdf:type dbpedia-owl:Rocket. ?launch_event dbpedia-owl:launchSite ?baikonur; dbpedia-owl:launchVehicle ?rocket. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema SELECT ?island WHERE { ?island a dbpedia-owl:Island . ?island dbpedia-owl:country ?country . FILTER (?country = &lt;http://dbpedia.org/resource/Japan&gt;) }</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Token \\"&lt;\\": no viable alternative at input \'PREFIXrdf:&lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;PREFIXdbo:&lt;http://dbpedia.org/ontology/&gt;PREFIXdbr:&lt;http://dbpedia.org/resource/&gt;PREFIXdbp:&lt;http://dbpedia.org/property/&gt;PREFIXskos:&lt;http://www.w3.org/2004/02/skos/core#&gt;PREFIXyago:&lt;http://dbpedia.org/class/yago/&gt;PREFIXdbc:&lt;http://dbpedia.org/resource/Category:&gt;PREFIXdct:&lt;http://purl.org/dc/terms/&gt;PREFIXdbpedia-owl:&lt;http://dbpedia.org/ontology/&gt;PREFIXrdfs:&lt;\'",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 64,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema SELECT ?island WHERE { ?island a dbpedia-owl:Island . ?island dbpedia-owl:country ?country . FILTER (?country = &lt;http://dbpedia.org/resource/Japan&gt;) }",\n        "startIndex": 441,\n        "stopIndex": 441\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema SELECT ?island WHERE { ?island a dbpedia-owl:Island . ?island dbpedia-owl:country ?country . FILTER (?country = &lt;http://dbpedia.org/resource/Japan&gt;) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+&lt;code&gt;PREFIX dbpedia-owl: &amp;lt;&lt;http://dbpedia.org/ontology/&gt;&amp;gt; SELECT ?developer WHERE { &amp;lt;&lt;http://dbpedia.org/resource/World_of_Warcraft&amp;gt; dbpedia-owl:developer ?developer }&lt;/code&gt;</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Token \\"&lt;code&gt;\\": no viable alternative at input \'PREFIXrdf:&lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;PREFIXdbo:&lt;http://dbpedia.org/ontology/&gt;PREFIXdbr:&lt;http://dbpedia.org/resource/&gt;PREFIXdbp:&lt;http://dbpedia.org/property/&gt;PREFIXskos:&lt;http://www.w3.org/2004/02/skos/core#&gt;PREFIXyago:&lt;http://dbpedia.org/class/yago/&gt;PREFIXdbc:&lt;http://dbpedia.org/resource/Category:&gt;PREFIXdct:&lt;http://purl.org/dc/terms/&gt;&lt;code&gt;\'",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 0,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\n&lt;code&gt;PREFIX dbpedia-owl: &amp;lt;&lt;http://dbpedia.org/ontology/&gt;&amp;gt; SELECT ?developer WHERE { &amp;lt;&lt;http://dbpedia.org/resource/World_of_Warcraft&amp;gt; dbpedia-owl:developer ?developer }&lt;/code&gt;",\n        "startIndex": 377,\n        "stopIndex": 382\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\n&lt;code&gt;PREFIX dbpedia-owl: &amp;lt;&lt;http://dbpedia.org/ontology/&gt;&amp;gt; SELECT ?developer WHERE { &amp;lt;&lt;http://dbpedia.org/resource/World_of_Warcraft&amp;gt; dbpedia-owl:developer ?developer }&lt;/code&gt;",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/property/&gt; SELECT DISTINCT ?item ?itemLabel WHERE { ?item dbpedia-owl:industryCategory dbpedia:Media. FILTER(LANG(?itemLabel) = 'en'). SERVICE wikibase:label { bd:serviceParam wikibase:language "en". } }</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Prefix dbpedia was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 175,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/property/&gt; SELECT DISTINCT ?item ?itemLabel WHERE { ?item dbpedia-owl:industryCategory dbpedia:Media. FILTER(LANG(?itemLabel) = \'en\'). SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". } }",\n        "startIndex": 552,\n        "stopIndex": 564\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/property/&gt; SELECT DISTINCT ?item ?itemLabel WHERE { ?item dbpedia-owl:industryCategory dbpedia:Media. FILTER(LANG(?itemLabel) = \'en\'). SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?university WHERE { &lt;http://dbpedia.org/resource/Angela_Merkel&gt; dbpedia-owl:education ?education . ?education dbpedia-owl:institution ?university . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX db: &lt;http://dbpedia.org/&gt; PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt; PREFIX dcterms: &lt;http://purl.org/dc/terms/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns SELECT ?show WHERE { ?show a db:TVShow . ?show foaf:maker ?neilPatrickHarris . BIND (URI(CONCAT("http://dbpedia.org/resource/", ?show)) AS ?showUri) . OPTIONAL { ?show dcterms:title ?showTitle . } }</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Token \\"&lt;\\": no viable alternative at input \'PREFIXrdf:&lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;PREFIXdbo:&lt;http://dbpedia.org/ontology/&gt;PREFIXdbr:&lt;http://dbpedia.org/resource/&gt;PREFIXdbp:&lt;http://dbpedia.org/property/&gt;PREFIXskos:&lt;http://www.w3.org/2004/02/skos/core#&gt;PREFIXyago:&lt;http://dbpedia.org/class/yago/&gt;PREFIXdbc:&lt;http://dbpedia.org/resource/Category:&gt;PREFIXdct:&lt;http://purl.org/dc/terms/&gt;PREFIXdb:&lt;http://dbpedia.org/&gt;PREFIXfoaf:&lt;http://xmlns.com/foaf/0.1/&gt;PREFIXdcterms:&lt;http://purl.org/dc/terms/&gt;PREFIXrdf:&lt;\'",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 131,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX db: &lt;http://dbpedia.org/&gt; PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt; PREFIX dcterms: &lt;http://purl.org/dc/terms/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns SELECT ?show WHERE { ?show a db:TVShow . ?show foaf:maker ?neilPatrickHarris . BIND (URI(CONCAT(\\"http://dbpedia.org/resource/\\", ?show)) AS ?showUri) . OPTIONAL { ?show dcterms:title ?showTitle . } }",\n        "startIndex": 508,\n        "stopIndex": 508\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX db: &lt;http://dbpedia.org/&gt; PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt; PREFIX dcterms: &lt;http://purl.org/dc/terms/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns SELECT ?show WHERE { ?show a db:TVShow . ?show foaf:maker ?neilPatrickHarris . BIND (URI(CONCAT(\\"http://dbpedia.org/resource/\\", ?show)) AS ?showUri) . OPTIONAL { ?show dcterms:title ?showTitle . } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+** PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/property/&gt; SELECT ?film WHERE { ?film dbo:starring dbpedia2:Tom_Cruise . FILTER(LANG(?film) = 'en') } **</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Token \\"*\\": no viable alternative at input \'PREFIXrdf:&lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;PREFIXdbr:&lt;http://dbpedia.org/resource/&gt;PREFIXdbp:&lt;http://dbpedia.org/property/&gt;PREFIXskos:&lt;http://www.w3.org/2004/02/skos/core#&gt;PREFIXyago:&lt;http://dbpedia.org/class/yago/&gt;PREFIXdbc:&lt;http://dbpedia.org/resource/Category:&gt;PREFIXdct:&lt;http://purl.org/dc/terms/&gt;*\'",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 0,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\n** PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/property/&gt; SELECT ?film WHERE { ?film dbo:starring dbpedia2:Tom_Cruise . FILTER(LANG(?film) = \'en\') } **",\n        "startIndex": 334,\n        "stopIndex": 334\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\n** PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/property/&gt; SELECT ?film WHERE { ?film dbo:starring dbpedia2:Tom_Cruise . FILTER(LANG(?film) = \'en\') } **",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema PREFIX geo: &lt;http://www.w3.org/2003/01/geo/wgs84_pos PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?country WHERE { ?mountEverest a dbpedia-owl:Mountain . ?mountEverest dbpedia-owl:locatedInRegion ?country . FILTER (lang(?country) = 'en') . FILTER (regex(str(?mountEverest), 'Everest$')). }</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Token \\"&lt;\\": no viable alternative at input \'PREFIXrdf:&lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;PREFIXdbo:&lt;http://dbpedia.org/ontology/&gt;PREFIXdbr:&lt;http://dbpedia.org/resource/&gt;PREFIXdbp:&lt;http://dbpedia.org/property/&gt;PREFIXskos:&lt;http://www.w3.org/2004/02/skos/core#&gt;PREFIXyago:&lt;http://dbpedia.org/class/yago/&gt;PREFIXdbc:&lt;http://dbpedia.org/resource/Category:&gt;PREFIXdct:&lt;http://purl.org/dc/terms/&gt;PREFIXrdfs:&lt;\'",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 13,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema PREFIX geo: &lt;http://www.w3.org/2003/01/geo/wgs84_pos PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?country WHERE { ?mountEverest a dbpedia-owl:Mountain . ?mountEverest dbpedia-owl:locatedInRegion ?country . FILTER (lang(?country) = \'en\') . FILTER (regex(str(?mountEverest), \'Everest$\')). }",\n        "startIndex": 390,\n        "stopIndex": 390\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema PREFIX geo: &lt;http://www.w3.org/2003/01/geo/wgs84_pos PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?country WHERE { ?mountEverest a dbpedia-owl:Mountain . ?mountEverest dbpedia-owl:locatedInRegion ?country . FILTER (lang(?country) = \'en\') . FILTER (regex(str(?mountEverest), \'Everest$\')). }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/property/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema SELECT ?Location WHERE { ?Event a dbpedia-owl:Event ; dbpedia2:subject &lt;http://dbpedia.org/resource/John_F._Kennedy&gt; ; dbpedia-owl:location ?Location . FILTER (lang(?Event) = "en") }</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Token \\"&lt;\\": no viable alternative at input \'PREFIXrdf:&lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;PREFIXdbo:&lt;http://dbpedia.org/ontology/&gt;PREFIXdbr:&lt;http://dbpedia.org/resource/&gt;PREFIXdbp:&lt;http://dbpedia.org/property/&gt;PREFIXskos:&lt;http://www.w3.org/2004/02/skos/core#&gt;PREFIXyago:&lt;http://dbpedia.org/class/yago/&gt;PREFIXdbc:&lt;http://dbpedia.org/resource/Category:&gt;PREFIXdct:&lt;http://purl.org/dc/terms/&gt;PREFIXdbpedia-owl:&lt;http://dbpedia.org/ontology/&gt;PREFIXdbpedia2:&lt;http://dbpedia.org/property/&gt;PREFIXrdfs:&lt;\'",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 112,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/property/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema SELECT ?Location WHERE { ?Event a dbpedia-owl:Event ; dbpedia2:subject &lt;http://dbpedia.org/resource/John_F._Kennedy&gt; ; dbpedia-owl:location ?Location . FILTER (lang(?Event) = \\"en\\") }",\n        "startIndex": 489,\n        "stopIndex": 489\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/property/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema SELECT ?Location WHERE { ?Event a dbpedia-owl:Event ; dbpedia2:subject &lt;http://dbpedia.org/resource/John_F._Kennedy&gt; ; dbpedia-owl:location ?Location . FILTER (lang(?Event) = \\"en\\") }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia-resource: &lt;http://dbpedia.org/resource/&gt; SELECT ?river WHERE { &lt;http://dbpedia.org/resource/Brooklyn_Bridge&gt; dbpedia-owl:crosses ?river. SERVICE dbpedia-lookup { } }</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Token \\"dbpedia-lookup\\": mismatched input \'dbpedia-lookup\' expecting {SILENT, IRI_REF, PNAME_NS, PNAME_LN, VAR1, VAR2, PREFIX_LANGTAG}",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 211,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia-resource: &lt;http://dbpedia.org/resource/&gt; SELECT ?river WHERE { &lt;http://dbpedia.org/resource/Brooklyn_Bridge&gt; dbpedia-owl:crosses ?river. SERVICE dbpedia-lookup { } }",\n        "startIndex": 588,\n        "stopIndex": 601\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia-resource: &lt;http://dbpedia.org/resource/&gt; SELECT ?river WHERE { &lt;http://dbpedia.org/resource/Brooklyn_Bridge&gt; dbpedia-owl:crosses ?river. SERVICE dbpedia-lookup { } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?swimmer WHERE { ?swimmer a dbo:Swimmer . ?swimmer dbo:birthPlace ?birthPlace . ?birthPlace rdfs:label "Moscow"@en . }</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Token \\"&lt;\\": no viable alternative at input \'PREFIXrdf:&lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;PREFIXdbr:&lt;http://dbpedia.org/resource/&gt;PREFIXdbp:&lt;http://dbpedia.org/property/&gt;PREFIXskos:&lt;http://www.w3.org/2004/02/skos/core#&gt;PREFIXyago:&lt;http://dbpedia.org/class/yago/&gt;PREFIXdbc:&lt;http://dbpedia.org/resource/Category:&gt;PREFIXdct:&lt;http://purl.org/dc/terms/&gt;PREFIXrdfs:&lt;\'",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 13,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?swimmer WHERE { ?swimmer a dbo:Swimmer . ?swimmer dbo:birthPlace ?birthPlace . ?birthPlace rdfs:label \\"Moscow\\"@en . }",\n        "startIndex": 347,\n        "stopIndex": 347\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?swimmer WHERE { ?swimmer a dbo:Swimmer . ?swimmer dbo:birthPlace ?birthPlace . ?birthPlace rdfs:label \\"Moscow\\"@en . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/&gt; SELECT ?movie WHERE { ?movie dbpedia-owl:actor ?actor. ?actor foaf:name "Alec Guinness"@en. FILTER (?movie dbpedia-owl:releaseDate ?releaseDate) BIND (MAX(?releaseDate) AS ?max_release_date) FILTER (?releaseDate = ?max_release_date) }</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Token \\"dbpedia-owl:releaseDate\\": missing \')\' at \'dbpedia-owl:releaseDate\'",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 196,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/&gt; SELECT ?movie WHERE { ?movie dbpedia-owl:actor ?actor. ?actor foaf:name \\"Alec Guinness\\"@en. FILTER (?movie dbpedia-owl:releaseDate ?releaseDate) BIND (MAX(?releaseDate) AS ?max_release_date) FILTER (?releaseDate = ?max_release_date) }",\n        "startIndex": 573,\n        "stopIndex": 595\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/&gt; SELECT ?movie WHERE { ?movie dbpedia-owl:actor ?actor. ?actor foaf:name \\"Alec Guinness\\"@en. FILTER (?movie dbpedia-owl:releaseDate ?releaseDate) BIND (MAX(?releaseDate) AS ?max_release_date) FILTER (?releaseDate = ?max_release_date) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT ?mountainName WHERE { ?mountain dbr:P1506 ?secondHighest; dbr:P31 dbr:Mountain. ?mountain dbr:P180 dbr:Earth. SERVICE wikibase:label { bd:serviceParam wikibase:language "en". } OPTIONAL { ?mountain dbr:P625 ?coordinate. } ?mountain dbr:P2561 ?mountainName. } GROUP BY ?mountainName ORDER BY DESC(?mountainName)</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Prefix wikibase was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 125,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nSELECT ?mountainName WHERE { ?mountain dbr:P1506 ?secondHighest; dbr:P31 dbr:Mountain. ?mountain dbr:P180 dbr:Earth. SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". } OPTIONAL { ?mountain dbr:P625 ?coordinate. } ?mountain dbr:P2561 ?mountainName. } GROUP BY ?mountainName ORDER BY DESC(?mountainName)",\n        "startIndex": 502,\n        "stopIndex": 515\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nSELECT ?mountainName WHERE { ?mountain dbr:P1506 ?secondHighest; dbr:P31 dbr:Mountain. ?mountain dbr:P180 dbr:Earth. SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". } OPTIONAL { ?mountain dbr:P625 ?coordinate. } ?mountain dbr:P2561 ?mountainName. } GROUP BY ?mountainName ORDER BY DESC(?mountainName)",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema SELECT ?population WHERE { ?cairo a dbpedia-owl:City . ?cairo dbpedia-owl:populationTotal ?population . FILTER regex(str(?population), "^\d+$") . }</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Token \\"&lt;\\": no viable alternative at input \'PREFIXrdf:&lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;PREFIXdbo:&lt;http://dbpedia.org/ontology/&gt;PREFIXdbr:&lt;http://dbpedia.org/resource/&gt;PREFIXdbp:&lt;http://dbpedia.org/property/&gt;PREFIXskos:&lt;http://www.w3.org/2004/02/skos/core#&gt;PREFIXyago:&lt;http://dbpedia.org/class/yago/&gt;PREFIXdbc:&lt;http://dbpedia.org/resource/Category:&gt;PREFIXdct:&lt;http://purl.org/dc/terms/&gt;PREFIXdbpedia-owl:&lt;http://dbpedia.org/ontology/&gt;PREFIXrdfs:&lt;\'",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 64,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema SELECT ?population WHERE { ?cairo a dbpedia-owl:City . ?cairo dbpedia-owl:populationTotal ?population . FILTER regex(str(?population), \\"^\\\\d+$\\") . }",\n        "startIndex": 441,\n        "stopIndex": 441\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema SELECT ?population WHERE { ?cairo a dbpedia-owl:City . ?cairo dbpedia-owl:populationTotal ?population . FILTER regex(str(?population), \\"^\\\\d+$\\") . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?s WHERE { ?s a dbpedia-owl:Person. ?s dbpedia-owl:birthPlace &lt;http://dbpedia.org/resource/Heraklion&gt;. }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT (COUNT(DISTINCT ?child) AS ?count) WHERE { ?parent foaf:isPrimaryTopicOf dbpedia:Benjamin_Franklin . ?child foaf:maker ?parent . }</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Token \\"&lt;\\": no viable alternative at input \'PREFIXrdf:&lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;PREFIXdbo:&lt;http://dbpedia.org/ontology/&gt;PREFIXdbr:&lt;http://dbpedia.org/resource/&gt;PREFIXdbp:&lt;http://dbpedia.org/property/&gt;PREFIXskos:&lt;http://www.w3.org/2004/02/skos/core#&gt;PREFIXyago:&lt;http://dbpedia.org/class/yago/&gt;PREFIXdbc:&lt;http://dbpedia.org/resource/Category:&gt;PREFIXdct:&lt;http://purl.org/dc/terms/&gt;PREFIXrdfs:&lt;\'",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 13,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT (COUNT(DISTINCT ?child) AS ?count) WHERE { ?parent foaf:isPrimaryTopicOf dbpedia:Benjamin_Franklin . ?child foaf:maker ?parent . }",\n        "startIndex": 390,\n        "stopIndex": 390\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT (COUNT(DISTINCT ?child) AS ?count) WHERE { ?parent foaf:isPrimaryTopicOf dbpedia:Benjamin_Franklin . ?child foaf:maker ?parent . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX db: &lt;http://dbpedia.org/ontology/&gt; SELECT ?elevation WHERE { ?airport db:elevation ?elevation . FILTER regex(str(?airport), "Düsseldorf") }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?country WHERE { wd:Q39784 wdt:P30 ?country. }</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 79,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?country WHERE { wd:Q39784 wdt:P30 ?country. }",\n        "startIndex": 456,\n        "stopIndex": 462\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?country WHERE { wd:Q39784 wdt:P30 ?country. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?height WHERE { &lt;http://dbpedia.org/resource/Claudia_Schiffer&gt; dbo:height ?height . }</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Token \\"&lt;\\": no viable alternative at input \'PREFIXrdf:&lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;PREFIXdbr:&lt;http://dbpedia.org/resource/&gt;PREFIXdbp:&lt;http://dbpedia.org/property/&gt;PREFIXskos:&lt;http://www.w3.org/2004/02/skos/core#&gt;PREFIXyago:&lt;http://dbpedia.org/class/yago/&gt;PREFIXdbc:&lt;http://dbpedia.org/resource/Category:&gt;PREFIXdct:&lt;http://purl.org/dc/terms/&gt;PREFIXrdfs:&lt;\'",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 13,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?height WHERE { &lt;http://dbpedia.org/resource/Claudia_Schiffer&gt; dbo:height ?height . }",\n        "startIndex": 347,\n        "stopIndex": 347\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?height WHERE { &lt;http://dbpedia.org/resource/Claudia_Schiffer&gt; dbo:height ?height . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+` tags for clarity:  PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema SELECT ?author WHERE { &lt;http://dbpedia.org/resource/The_Pillars_of_the_Earth&gt; dbo:author ?author . ?author rdfs:label ?authorLabel . FILTER regex(?authorLabel, "^[^\\s]*$", "i") }</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: token recognition error at: \'`\'",\n    "metadata": {\n        "line": 7,\n        "positionInLine": 0,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\n` tags for clarity:  PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema SELECT ?author WHERE { &lt;http://dbpedia.org/resource/The_Pillars_of_the_Earth&gt; dbo:author ?author . ?author rdfs:label ?authorLabel . FILTER regex(?authorLabel, \\"^[^\\\\\\\\s]*$\\", \\"i\\") }",\n        "startIndex": 291,\n        "stopIndex": 291\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\n` tags for clarity:  PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema SELECT ?author WHERE { &lt;http://dbpedia.org/resource/The_Pillars_of_the_Earth&gt; dbo:author ?author . ?author rdfs:label ?authorLabel . FILTER regex(?authorLabel, \\"^[^\\\\\\\\s]*$\\", \\"i\\") }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema PREFIX schema: &lt;http://schema.org/&gt; SELECT ?label ?item ?genre WHERE { ?item a dbpedia-owl:Person. ?item dbpedia-owl:country &lt;http://dbpedia.org/resource/United_States&gt;. ?item schema:genre ?genre. SERVICE dbpedia:label { dbpedia:serviceParam dbpedia:language "en". } }</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Token \\"&lt;\\": no viable alternative at input \'PREFIXrdf:&lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;PREFIXdbo:&lt;http://dbpedia.org/ontology/&gt;PREFIXdbr:&lt;http://dbpedia.org/resource/&gt;PREFIXdbp:&lt;http://dbpedia.org/property/&gt;PREFIXskos:&lt;http://www.w3.org/2004/02/skos/core#&gt;PREFIXyago:&lt;http://dbpedia.org/class/yago/&gt;PREFIXdbc:&lt;http://dbpedia.org/resource/Category:&gt;PREFIXdct:&lt;http://purl.org/dc/terms/&gt;PREFIXdbpedia-owl:&lt;http://dbpedia.org/ontology/&gt;PREFIXrdfs:&lt;\'",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 64,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema PREFIX schema: &lt;http://schema.org/&gt; SELECT ?label ?item ?genre WHERE { ?item a dbpedia-owl:Person. ?item dbpedia-owl:country &lt;http://dbpedia.org/resource/United_States&gt;. ?item schema:genre ?genre. SERVICE dbpedia:label { dbpedia:serviceParam dbpedia:language \\"en\\". } }",\n        "startIndex": 441,\n        "stopIndex": 441\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema PREFIX schema: &lt;http://schema.org/&gt; SELECT ?label ?item ?genre WHERE { ?item a dbpedia-owl:Person. ?item dbpedia-owl:country &lt;http://dbpedia.org/resource/United_States&gt;. ?item schema:genre ?genre. SERVICE dbpedia:label { dbpedia:serviceParam dbpedia:language \\"en\\". } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbprop: &lt;http://dbpedia.org/property/&gt; PREFIX db: &lt;http://dbpedia.org/resource/&gt; SELECT ?birthPlace WHERE { db:Frank_Sinatra dbprop:birthPlace ?birthPlace }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX db: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; SELECT ?city (MIN(?population) as ?minPopulation) WHERE { ?city a db:City . ?city dbpprop:populationTotal ?population . GROUP BY ?city } ORDER BY ?minPopulation LIMIT 1</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Token \\"GROUP BY\\": missing \'}\' at \'GROUP BY\'",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 205,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX db: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; SELECT ?city (MIN(?population) as ?minPopulation) WHERE { ?city a db:City . ?city dbpprop:populationTotal ?population . GROUP BY ?city } ORDER BY ?minPopulation LIMIT 1",\n        "startIndex": 539,\n        "stopIndex": 546\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX db: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; SELECT ?city (MIN(?population) as ?minPopulation) WHERE { ?city a db:City . ?city dbpprop:populationTotal ?population . GROUP BY ?city } ORDER BY ?minPopulation LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?s WHERE { ?s dbo:tvShow true. ?s dbo:creator dbr:Walt_Disney. SERVICE wikibase:label { BIND(STR(?s) AS @label) } }</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Token \\"&lt;\\": no viable alternative at input \'PREFIXrdf:&lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;PREFIXdbp:&lt;http://dbpedia.org/property/&gt;PREFIXskos:&lt;http://www.w3.org/2004/02/skos/core#&gt;PREFIXyago:&lt;http://dbpedia.org/class/yago/&gt;PREFIXdbc:&lt;http://dbpedia.org/resource/Category:&gt;PREFIXdct:&lt;http://purl.org/dc/terms/&gt;PREFIXdbo:&lt;http://dbpedia.org/ontology/&gt;PREFIXrdfs:&lt;\'",\n    "metadata": {\n        "line": 7,\n        "positionInLine": 56,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?s WHERE { ?s dbo:tvShow true. ?s dbo:creator dbr:Walt_Disney. SERVICE wikibase:label { BIND(STR(?s) AS @label) } }",\n        "startIndex": 347,\n        "stopIndex": 347\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?s WHERE { ?s dbo:tvShow true. ?s dbo:creator dbr:Walt_Disney. SERVICE wikibase:label { BIND(STR(?s) AS @label) } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX schema: &lt;http://schema.org/&gt; SELECT ?holidayName WHERE { ?holiday a dbpedia-owl:Event ; dbpedia-owl:location dbr:Sweden ; schema:name ?holidayName . FILTER (regex(?holidayName, "New Year|Christmas|Easter", "i")) . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT ?item ?itemLabel ?netIncome WHERE { ?item wdt:P31 wd:Q83. ?item wdt:P1082 ?netIncome. SERVICE wikibase:label { bd:serviceParam wikibase:language "en". } }</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 49,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nSELECT ?item ?itemLabel ?netIncome WHERE { ?item wdt:P31 wd:Q83. ?item wdt:P1082 ?netIncome. SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". } }",\n        "startIndex": 426,\n        "stopIndex": 432\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nSELECT ?item ?itemLabel ?netIncome WHERE { ?item wdt:P31 wd:Q83. ?item wdt:P1082 ?netIncome. SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX db: &lt;http://dbpedia.org/ontology/&gt; SELECT ?location WHERE { db:Abraham_Lincoln db:deathPlace ?location . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT ?country ?capital WHERE { ?country wdt:P31 wd:Q11196. ?country wdt:P17 ?location. ?location wdt:P30 ?country2. ?country2 wdt:P36 ?capital. FILTER (?capital != wd:Q2129) }</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 42,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nSELECT ?country ?capital WHERE { ?country wdt:P31 wd:Q11196. ?country wdt:P17 ?location. ?location wdt:P30 ?country2. ?country2 wdt:P36 ?capital. FILTER (?capital != wd:Q2129) }",\n        "startIndex": 419,\n        "stopIndex": 425\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nSELECT ?country ?capital WHERE { ?country wdt:P31 wd:Q11196. ?country wdt:P17 ?location. ?location wdt:P30 ?country2. ?country2 wdt:P36 ?capital. FILTER (?capital != wd:Q2129) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/property/&gt; SELECT ?lake ?country WHERE { ?lake a dbpedia-owl:BodyOfWater. ?lake dbpedia2:locationOfSituation ?location. ?location a dbpedia-owl:Place. ?location dbpedia2:country ?country. SERVICE wikibase:attribution { BIND(wikibase:labelService() AS @label) } FILTER (regex(?lake, &lt;http://dbpedia.org/page/Limerick_Lake&gt;)) }</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Token \\"@label\\": mismatched input \'@label\' expecting {VAR1, VAR2}",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 339,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/property/&gt; SELECT ?lake ?country WHERE { ?lake a dbpedia-owl:BodyOfWater. ?lake dbpedia2:locationOfSituation ?location. ?location a dbpedia-owl:Place. ?location dbpedia2:country ?country. SERVICE wikibase:attribution { BIND(wikibase:labelService() AS @label) } FILTER (regex(?lake, &lt;http://dbpedia.org/page/Limerick_Lake&gt;)) }",\n        "startIndex": 716,\n        "stopIndex": 721\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/property/&gt; SELECT ?lake ?country WHERE { ?lake a dbpedia-owl:BodyOfWater. ?lake dbpedia2:locationOfSituation ?location. ?location a dbpedia-owl:Place. ?location dbpedia2:country ?country. SERVICE wikibase:attribution { BIND(wikibase:labelService() AS @label) } FILTER (regex(?lake, &lt;http://dbpedia.org/page/Limerick_Lake&gt;)) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT ?height WHERE { wd:Michael_Jordan dbpedia-owl:height ?height. }</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 23,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nSELECT ?height WHERE { wd:Michael_Jordan dbpedia-owl:height ?height. }",\n        "startIndex": 400,\n        "stopIndex": 416\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nSELECT ?height WHERE { wd:Michael_Jordan dbpedia-owl:height ?height. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt; SELECT ?film WHERE { ?film dbo:director dbp:Clint_Eastwood . ?film dbo:director ?person . FILTER (?person = dbp:Clint_Eastwood) FILTER (?film dbo:directorType dbo:FilmDirector) . SERVICE &lt;http://dbpedia.org/sparql&gt; { ?film rdfs:seeAlso ?filmId . ?filmId dbo:wikiPageID ?id . BIND (strafter(?id, "page/") as ?filmId) } }</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Token \\"dbo:directorType\\": missing \')\' at \'dbo:directorType\'",\n    "metadata": {\n        "line": 7,\n        "positionInLine": 270,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt; SELECT ?film WHERE { ?film dbo:director dbp:Clint_Eastwood . ?film dbo:director ?person . FILTER (?person = dbp:Clint_Eastwood) FILTER (?film dbo:directorType dbo:FilmDirector) . SERVICE &lt;http://dbpedia.org/sparql&gt; { ?film rdfs:seeAlso ?filmId . ?filmId dbo:wikiPageID ?id . BIND (strafter(?id, \\"page/\\") as ?filmId) } }",\n        "startIndex": 561,\n        "stopIndex": 576\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt; SELECT ?film WHERE { ?film dbo:director dbp:Clint_Eastwood . ?film dbo:director ?person . FILTER (?person = dbp:Clint_Eastwood) FILTER (?film dbo:directorType dbo:FilmDirector) . SERVICE &lt;http://dbpedia.org/sparql&gt; { ?film rdfs:seeAlso ?filmId . ?filmId dbo:wikiPageID ?id . BIND (strafter(?id, \\"page/\\") as ?filmId) } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?country WHERE { ?country dbpedia-owl:currency db:West African CFA franc. }</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Token \\"African\\": mismatched input \'African\' expecting \'}\'",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 113,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?country WHERE { ?country dbpedia-owl:currency db:West African CFA franc. }",\n        "startIndex": 490,\n        "stopIndex": 496\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?country WHERE { ?country dbpedia-owl:currency db:West African CFA franc. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT ?population WHERE { dbpedia:Iraq dbpedia-owl:populationTotal ?population . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; SELECT ?holiday ?holidayLabel WHERE { ?holiday a dbo:Holiday. ?holiday dbp:isPartOf ?country. SERVICE wikibase:label { bd:serviceParam wikibase:language "en". } }</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Prefix wikibase was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 7,\n        "positionInLine": 188,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; SELECT ?holiday ?holidayLabel WHERE { ?holiday a dbo:Holiday. ?holiday dbp:isPartOf ?country. SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". } }",\n        "startIndex": 479,\n        "stopIndex": 492\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; SELECT ?holiday ?holidayLabel WHERE { ?holiday a dbo:Holiday. ?holiday dbp:isPartOf ?country. SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?party WHERE { ?party a dbo:PoliticalParty. ?party dbo:country "Greece". FILTER regex(?party, "pro-European", "i"). }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?actor ?actorLabel ?birthday WHERE { ?episode dbo:actor ?actor. ?actor dbo:birthDate ?birthday. ?actor dbo:wikiPageID ?wikiPageID. SERVICE &lt;http://dbpedia.org/sparql&gt; { ?actor rdfs:label ?actorLabel. FILTER (lang(?actorLabel) = 'en'). } FILTER (STRSTARTS(str(?episode), "Charmed")). }</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Prefix rdfs was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 7,\n        "positionInLine": 269,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?actor ?actorLabel ?birthday WHERE { ?episode dbo:actor ?actor. ?actor dbo:birthDate ?birthday. ?actor dbo:wikiPageID ?wikiPageID. SERVICE &lt;http://dbpedia.org/sparql&gt; { ?actor rdfs:label ?actorLabel. FILTER (lang(?actorLabel) = \'en\'). } FILTER (STRSTARTS(str(?episode), \\"Charmed\\")). }",\n        "startIndex": 560,\n        "stopIndex": 569\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?actor ?actorLabel ?birthday WHERE { ?episode dbo:actor ?actor. ?actor dbo:birthDate ?birthday. ?actor dbo:wikiPageID ?wikiPageID. SERVICE &lt;http://dbpedia.org/sparql&gt; { ?actor rdfs:label ?actorLabel. FILTER (lang(?actorLabel) = \'en\'). } FILTER (STRSTARTS(str(?episode), \\"Charmed\\")). }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/property/&gt; SELECT ?movement WHERE { &lt;http://dbpedia.org/resource/The_Three_Dancers&gt; dbpedia2:artist &lt;http://dbpedia.org/resource/Painter_Name&gt; . &lt;http://dbpedia.org/resource/Painter_Name&gt; dbpedia-owl:influencedBy ?movement . }</t>
   </si>
   <si>
     <t>EndPointInternalError: The endpoint returned the HTTP status code 500. 
 Response:
-b'{\n    "exception": "Triples should have at least one variable. Not the case in: {s: &lt;http://dbpedia.org/resource/The_Three_Dancers&gt;, p: &lt;http://dbpedia.org/property/artist&gt;, o: &lt;http://dbpedia.org/resource/Painter_Name&gt;}. In file \\"/app/src/engine/QueryPlanner.cpp \\" at line 677",\n    "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/property/&gt; SELECT ?movement WHERE { &lt;http://dbpedia.org/resource/The_Three_Dancers&gt; dbpedia2:artist &lt;http://dbpedia.org/resource/Painter_Name&gt; . &lt;http://dbpedia.org/resource/Painter_Name&gt; dbpedia-owl:influencedBy ?movement . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix dbr was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 31,\n        "query": "SELECT ?actor WHERE { ?actor a dbr:Actor. ?actor dbo:countryOfOrigin dbr:Germany. }",\n        "startIndex": 31,\n        "stopIndex": 39\n    },\n    "query": "SELECT ?actor WHERE { ?actor a dbr:Actor. ?actor dbo:countryOfOrigin dbr:Germany. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"&lt;\\": no viable alternative at input \'PREFIXdbpedia-owl:&lt;http://dbpedia.org/ontology/&gt;PREFIXrdfs:&lt;\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 64,\n        "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema SELECT ?designer WHERE { ?bridge dbpedia-owl:name \\"Brooklyn Bridge\\"@en ; dbpedia-owl:designer ?designer . FILTER (lang(?bridge) = \\"en\\") }",\n        "startIndex": 64,\n        "stopIndex": 64\n    },\n    "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema SELECT ?designer WHERE { ?bridge dbpedia-owl:name \\"Brooklyn Bridge\\"@en ; dbpedia-owl:designer ?designer . FILTER (lang(?bridge) = \\"en\\") }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix dbo was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 31,\n        "query": "SELECT ?composer WHERE { ?book dbo:themeMusic ?composition . ?composition dbo:creator ?composer . ?book dbo:wikiPageID \\"Game_of_Thrones\\" . ?book dbo:abstract \\"Game of Thrones\\" . FILTER (lang(?abstract) = \\"en\\") }",\n        "startIndex": 31,\n        "stopIndex": 44\n    },\n    "query": "SELECT ?composer WHERE { ?book dbo:themeMusic ?composition . ?composition dbo:creator ?composer . ?book dbo:wikiPageID \\"Game_of_Thrones\\" . ?book dbo:abstract \\"Game of Thrones\\" . FILTER (lang(?abstract) = \\"en\\") }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Built-in function \\"notexists{?artistdbpedia-owl:birthname?birthname}\\"  not yet implemented; if you need it, just add it to SparqlQleverVisitor.cpp::visitTypesafe(Parser::BuiltInCallContext following the already implemented functions there",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 275,\n        "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt; SELECT ?givenname WHERE { ?artist a dbpedia-owl:Person . ?artist foaf:name \'Adele\' . ?artist foaf:givenname ?givenname . OPTIONAL { ?artist dbpedia-owl:birthName ?birthName } FILTER NOT EXISTS { ?artist dbpedia-owl:birthName ?birthName } }",\n        "startIndex": 275,\n        "stopIndex": 329\n    },\n    "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt; SELECT ?givenname WHERE { ?artist a dbpedia-owl:Person . ?artist foaf:name \'Adele\' . ?artist foaf:givenname ?givenname . OPTIONAL { ?artist dbpedia-owl:birthName ?birthName } FILTER NOT EXISTS { ?artist dbpedia-owl:birthName ?birthName } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix dbpedia was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 127,\n        "query": "PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dcterms: &lt;http://purl.org/dc/terms/&gt; SELECT ?item ?itemLabel WHERE { SERVICE dbpedia:label { dbr:serviceParam dbpedia:language \\"en\\". } ?item dbr:band \\"Queen\\" . ?item dbr:album ?album . ?item dbr:releaseOrder ?releaseOrder . FILTER (lang(?itemLabel) = \\"en\\" &amp;&amp; ?releaseOrder = 1) }",\n        "startIndex": 127,\n        "stopIndex": 139\n    },\n    "query": "PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dcterms: &lt;http://purl.org/dc/terms/&gt; SELECT ?item ?itemLabel WHERE { SERVICE dbpedia:label { dbr:serviceParam dbpedia:language \\"en\\". } ?item dbr:band \\"Queen\\" . ?item dbr:album ?album . ?item dbr:releaseOrder ?releaseOrder . FILTER (lang(?itemLabel) = \\"en\\" &amp;&amp; ?releaseOrder = 1) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix dbpedia-lookups was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 257,\n        "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/property/&gt; SELECT ?item ?itemLabel ?currency WHERE { ?item a dbpedia-owl:Country . ?item dbpedia2:currencies ?currency . FILTER regex(?item, \\"Czech Republic\\") . SERVICE dbpedia-lookups:labels { ?item rdfs:label ?itemLabel. } }",\n        "startIndex": 257,\n        "stopIndex": 278\n    },\n    "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/property/&gt; SELECT ?item ?itemLabel ?currency WHERE { ?item a dbpedia-owl:Country . ?item dbpedia2:currencies ?currency . FILTER regex(?item, \\"Czech Republic\\") . SERVICE dbpedia-lookups:labels { ?item rdfs:label ?itemLabel. } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"&lt;\\": no viable alternative at input \'PREFIXdbpedia2:&lt;http://dbpedia.org/ontology/&gt;PREFIXrdfs:&lt;\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 61,\n        "query": "PREFIX dbpedia2: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt; SELECT ?person WHERE { ?person foaf:birthPlace &lt;http://dbpedia.org/resource/Vienna&gt; . ?person foaf:deathPlace &lt;http://dbpedia.org/resource/Berlin&gt; . FILTER (isLiteral(?person)) }",\n        "startIndex": 61,\n        "stopIndex": 61\n    },\n    "query": "PREFIX dbpedia2: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt; SELECT ?person WHERE { ?person foaf:birthPlace &lt;http://dbpedia.org/resource/Vienna&gt; . ?person foaf:deathPlace &lt;http://dbpedia.org/resource/Berlin&gt; . FILTER (isLiteral(?person)) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\".\\": mismatched input \'.\' expecting {\'(\', \'[\', \'true\', \'false\', IRI_REF, PNAME_NS, PNAME_LN, BLANK_NODE_LABEL, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2, NIL, ANON}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 93,\n        "query": "SELECT ?bridge WHERE { ?bridge a dbo:Bridge. ?bridge dbo:crosses ?river. ?river dbpedia:Seine. }",\n        "startIndex": 93,\n        "stopIndex": 93\n    },\n    "query": "SELECT ?bridge WHERE { ?bridge a dbo:Bridge. ?bridge dbo:crosses ?river. ?river dbpedia:Seine. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"*\\": mismatched input \'*\' expecting {&lt;EOF&gt;, BASE, PREFIX, SELECT, CONSTRUCT, DESCRIBE, ASK, LOAD, CLEAR, DROP, CREATE, ADD, MOVE, COPY, INSERT, DELETE, WITH}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 0,\n        "query": "** PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/property/&gt; SELECT ?musician ?bookCount WHERE { ?musician a dbpedia-owl:MusicalArtist. ?musician dbpedia2:bookCount ?bookCount. FILTER (?bookCount &gt; 0). GROUP BY ?musician ORDER BY DESC(?bookCount) LIMIT 1 } **",\n        "startIndex": 0,\n        "stopIndex": 0\n    },\n    "query": "** PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/property/&gt; SELECT ?musician ?bookCount WHERE { ?musician a dbpedia-owl:MusicalArtist. ?musician dbpedia2:bookCount ?bookCount. FILTER (?bookCount &gt; 0). GROUP BY ?musician ORDER BY DESC(?bookCount) LIMIT 1 } **",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"&lt;\\": extraneous input \'&lt;\' expecting {&lt;EOF&gt;, BASE, PREFIX, SELECT, CONSTRUCT, DESCRIBE, ASK, LOAD, CLEAR, DROP, CREATE, ADD, MOVE, COPY, INSERT, DELETE, WITH}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 0,\n        "query": "&lt;select distinct ?writer&gt; { ?writer foaf:makerOf ?prize. ?prize a dbpedia-owl:NobelPrize. ?prize dcterms:subject dbpedia:category:Literature. SERVICE dbpedia:service { ?prize dcterms:date ?date. } ?writer dbpedia-owl:award ?prize. ?prize rdfs:label ?awardLabel. FILTER(LANG(?awardLabel) = \'en\'). BIND(STRLANG(?awardLabel, \'en\') AS ?awardLabel) } GROUP BY ?writer ORDER BY ?writer",\n        "startIndex": 0,\n        "stopIndex": 0\n    },\n    "query": "&lt;select distinct ?writer&gt; { ?writer foaf:makerOf ?prize. ?prize a dbpedia-owl:NobelPrize. ?prize dcterms:subject dbpedia:category:Literature. SERVICE dbpedia:service { ?prize dcterms:date ?date. } ?writer dbpedia-owl:award ?prize. ?prize rdfs:label ?awardLabel. FILTER(LANG(?awardLabel) = \'en\'). BIND(STRLANG(?awardLabel, \'en\') AS ?awardLabel) } GROUP BY ?writer ORDER BY ?writer",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"/\\": mismatched input \'/\' expecting {\'(\', \'+\', \'!\', \'-\', \'true\', \'false\', GROUP_CONCAT, NOT, STR, LANG, LANGMATCHES, DATATYPE, BOUND, IRI, URI, BNODE, RAND, ABS, CEIL, FLOOR, ROUND, CONCAT, STRLEN, UCASE, LCASE, ENCODE_FOR_URI, CONTAINS, STRSTARTS, STRENDS, STRBEFORE, STRAFTER, YEAR, MONTH, DAY, HOURS, MINUTES, SECONDS, TIMEZONE, TZ, NOW, UUID, STRUUID, SHA1, SHA256, SHA384, SHA512, MD5, COALESCE, IF, STRLANG, STRDT, SAMETERM, ISIRI, ISURI, ISBLANK, ISLITERAL, ISNUMERIC, REGEX, SUBSTR, REPLACE, EXISTS, COUNT, SUM, MIN, MAX, AVG, SAMPLE, IRI_REF, PNAME_NS, PNAME_LN, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 115,\n        "query": "SELECT ?discoverer WHERE { &lt;http://dbpedia.org/resource/1_Ceres&gt; ?property ?discoverer. FILTER ( ?property = http://dbpedia.org/ontology/discoveryBy ) }",\n        "startIndex": 115,\n        "stopIndex": 115\n    },\n    "query": "SELECT ?discoverer WHERE { &lt;http://dbpedia.org/resource/1_Ceres&gt; ?property ?discoverer. FILTER ( ?property = http://dbpedia.org/ontology/discoveryBy ) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Unexpected end of input: missing \'}\' at \'&lt;EOF&gt;\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 334,\n        "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/property/&gt; SELECT ?leader ?leaderLabel ?instrument WHERE { ?leader a dbpedia-owl:BandLeader. ?leader dbpedia2:instrument ?instrument. ?instrument dbpedia2:instrumentType ?trumpet. SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". }",\n        "startIndex": 334,\n        "stopIndex": 333\n    },\n    "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/property/&gt; SELECT ?leader ?leaderLabel ?instrument WHERE { ?leader a dbpedia-owl:BandLeader. ?leader dbpedia2:instrument ?instrument. ?instrument dbpedia2:instrumentType ?trumpet. SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"&lt;\\": no viable alternative at input \'PREFIXrdfs:&lt;\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 13,\n        "query": "PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?player WHERE { ?player a dbo:Person . ?player dbo:sport ?sport . ?player dbo:height ?height . FILTER (lang(?height) = \'en\' &amp;&amp; STRDT(?height, xsd:decimal) &gt; 2) FILTER (str(?sport) = \\"Basketball\\") }",\n        "startIndex": 13,\n        "stopIndex": 13\n    },\n    "query": "PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?player WHERE { ?player a dbo:Person . ?player dbo:sport ?sport . ?player dbo:height ?height . FILTER (lang(?height) = \'en\' &amp;&amp; STRDT(?height, xsd:decimal) &gt; 2) FILTER (str(?sport) = \\"Basketball\\") }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix rdfs was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 156,\n        "query": "PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?city WHERE { ?country a dbpedia:Country. ?country rdfs:seeAlso &lt;http://dbpedia.org/resource/Canada&gt;. ?city a dbpedia:Location. ?city dbpedia-owl:capital ?country. FILTER (lang(?city) = \\"en\\"). FILTER (regex(?city, \\"Canad.*\\", \\"i\\")). }",\n        "startIndex": 156,\n        "stopIndex": 167\n    },\n    "query": "PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?city WHERE { ?country a dbpedia:Country. ?country rdfs:seeAlso &lt;http://dbpedia.org/resource/Canada&gt;. ?city a dbpedia:Location. ?city dbpedia-owl:capital ?country. FILTER (lang(?city) = \\"en\\"). FILTER (regex(?city, \\"Canad.*\\", \\"i\\")). }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"&lt;\\": no viable alternative at input \'PREFIXdbpedia-owl:&lt;http://dbpedia.org/ontology/&gt;PREFIXdbpedia2:&lt;http://dbpedia.org/property/&gt;PREFIXrdfs:&lt;\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 112,\n        "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/property/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX owl: &lt;http://www.w3.org/2002/07/owl SELECT ?player ?playerLabel WHERE { ?player a dbo:SoccerPlayer. ?player dbpedia2:birthPlace ?birthPlace. ?birthPlace rdfs:label ?birthPlaceLabel. FILTER (lower(?birthPlaceLabel) = \\"malta\\"). SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". } ?player rdfs:label ?playerLabel. }",\n        "startIndex": 112,\n        "stopIndex": 112\n    },\n    "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/property/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX owl: &lt;http://www.w3.org/2002/07/owl SELECT ?player ?playerLabel WHERE { ?player a dbo:SoccerPlayer. ?player dbpedia2:birthPlace ?birthPlace. ?birthPlace rdfs:label ?birthPlaceLabel. FILTER (lower(?birthPlaceLabel) = \\"malta\\"). SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". } ?player rdfs:label ?playerLabel. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 179,\n        "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt; PREFIX wikidata: &lt;http://www.wikidata.org/entity/&gt; SELECT ?item WHERE { ?wikidataItem wdt:P31 ?class. FILTER (strstarts(str(?class), \\"Q\\")) ?item foaf:isPrimaryTopicOf ?wikidataItem. FILTER (regex(str(?item), \\"dbpedia.org\\")) }",\n        "startIndex": 179,\n        "stopIndex": 185\n    },\n    "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt; PREFIX wikidata: &lt;http://www.wikidata.org/entity/&gt; SELECT ?item WHERE { ?wikidataItem wdt:P31 ?class. FILTER (strstarts(str(?class), \\"Q\\")) ?item foaf:isPrimaryTopicOf ?wikidataItem. FILTER (regex(str(?item), \\"dbpedia.org\\")) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"=\\": mismatched input \'=\' expecting \'}\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 194,\n        "query": "SELECT ?city ?cityPopulation WHERE { VALUES ?country { &lt;http://dbpedia.org/resource/Australia&gt; } ?city dbo:capitalOf ?country. ?city dbo:population ?cityPopulation. FILTER lang(?cityPopulation) = \'en\'. }",\n        "startIndex": 194,\n        "stopIndex": 194\n    },\n    "query": "SELECT ?city ?cityPopulation WHERE { VALUES ?country { &lt;http://dbpedia.org/resource/Australia&gt; } ?city dbo:capitalOf ?country. ?city dbo:population ?cityPopulation. FILTER lang(?cityPopulation) = \'en\'. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix rdfs was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 233,\n        "query": "PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt; PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/property/&gt; SELECT (COUNT(?employee) AS ?numEmployees) WHERE { ?company a dbpedia-owl:Company. ?company rdfs:label \\"IBM\\"@en. ?employee dbpedia2:employer ?company. }",\n        "startIndex": 233,\n        "stopIndex": 242\n    },\n    "query": "PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt; PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/property/&gt; SELECT (COUNT(?employee) AS ?numEmployees) WHERE { ?company a dbpedia-owl:Company. ?company rdfs:label \\"IBM\\"@en. ?employee dbpedia2:employer ?company. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"1994_film\\": mismatched input \'1994_film\' expecting {\'(\', \'a\', \'^\', \'!\', IRI_REF, PNAME_NS, PNAME_LN, PREFIX_LANGTAG}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 137,\n        "query": "PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?productionBudget WHERE { dbr:Pulp_Fiction_(1994_film) dbp:productionBudget ?productionBudget . }",\n        "startIndex": 137,\n        "stopIndex": 145\n    },\n    "query": "PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?productionBudget WHERE { dbr:Pulp_Fiction_(1994_film) dbp:productionBudget ?productionBudget . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix foaf was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 195,\n        "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/property/&gt; SELECT ?movie WHERE { ?movie dbpedia-owl:wikiPageID ?pgid. ?movie dbpedia2:actor ?actor. ?actor foaf:name \\"Jesse Eisenberg\\" . }",\n        "startIndex": 195,\n        "stopIndex": 203\n    },\n    "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/property/&gt; SELECT ?movie WHERE { ?movie dbpedia-owl:wikiPageID ?pgid. ?movie dbpedia2:actor ?actor. ?actor foaf:name \\"Jesse Eisenberg\\" . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"/\\": mismatched input \'/\' expecting \'}\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 135,\n        "query": "SELECT ?item ?itemLabel FROM &lt;http://dbpedia.org&gt; WHERE { ?item a &lt;http://dbpedia.org/ontology/Movie&gt; . ?item dbpedia-owl:country http://dbpedia.org/resource/Denmark . SERVICE wikibase:language { bd:serviceParam wikibase:language \\"en\\". } SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". } FILTER (lang(?itemLabel) = \\"en\\"). }",\n        "startIndex": 135,\n        "stopIndex": 135\n    },\n    "query": "SELECT ?item ?itemLabel FROM &lt;http://dbpedia.org&gt; WHERE { ?item a &lt;http://dbpedia.org/ontology/Movie&gt; . ?item dbpedia-owl:country http://dbpedia.org/resource/Denmark . SERVICE wikibase:language { bd:serviceParam wikibase:language \\"en\\". } SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". } FILTER (lang(?itemLabel) = \\"en\\"). }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"&lt;\\": no viable alternative at input \'PREFIXdbo:&lt;http://dbpedia.org/ontology/&gt;PREFIXrdfs:&lt;\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 56,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema PREFIX yago: &lt;http://dbpedia.org/ontology/&gt; SELECT ?country WHERE { ?himalayanMountain yago:borderingCountry ?country. ?himalayanMountain rdfs:label \\"Himalayan or Himalayas\\"@en. }",\n        "startIndex": 56,\n        "stopIndex": 56\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema PREFIX yago: &lt;http://dbpedia.org/ontology/&gt; SELECT ?country WHERE { ?himalayanMountain yago:borderingCountry ?country. ?himalayanMountain rdfs:label \\"Himalayan or Himalayas\\"@en. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix dbpedia was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 182,\n        "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/resource/&gt; SELECT ?item ?itemLabel WHERE { ?item dbpedia-owl:country dbpedia2:Russia. SERVICE dbpedia:label { dbpedia:serviceParam dbpedia:language \\"en\\". } }",\n        "startIndex": 182,\n        "stopIndex": 194\n    },\n    "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/resource/&gt; SELECT ?item ?itemLabel WHERE { ?item dbpedia-owl:country dbpedia2:Russia. SERVICE dbpedia:label { dbpedia:serviceParam dbpedia:language \\"en\\". } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: token recognition error at: \'`\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 43,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; ` `PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema `SELECT ?university ` `WHERE { ` `Angela Merkel dbo:almaMater ?university . ` `SERVICE wikibase:serviceLink { BDWS SERVICE }",\n        "startIndex": 43,\n        "stopIndex": 43\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; ` `PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema `SELECT ?university ` `WHERE { ` `Angela Merkel dbo:almaMater ?university . ` `SERVICE wikibase:serviceLink { BDWS SERVICE }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix rdfs was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 111,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?creator WHERE { ?character dbo:creator ?creator. ?character rdfs:label \\"Goofy\\"@en. }",\n        "startIndex": 111,\n        "stopIndex": 120\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?creator WHERE { ?character dbo:creator ?creator. ?character rdfs:label \\"Goofy\\"@en. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>Query Bad Formed</t>
-  </si>
-  <si>
-    <t>Resource treated as Ontology</t>
-  </si>
-  <si>
-    <t>Unadapted Dataset Patterns</t>
-  </si>
-  <si>
-    <t>Structural Error</t>
-  </si>
-  <si>
-    <t>Ontology treated as Resource</t>
-  </si>
-  <si>
-    <t>Missing rdf:type</t>
-  </si>
-  <si>
-    <t>Wrong Ontology</t>
+b'{\n    "exception": "Triples should have at least one variable. Not the case in: {s: &lt;http://dbpedia.org/resource/The_Three_Dancers&gt;, p: &lt;http://dbpedia.org/property/artist&gt;, o: &lt;http://dbpedia.org/resource/Painter_Name&gt;}. In file \\"/app/src/engine/QueryPlanner.cpp \\" at line 677",\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/property/&gt; SELECT ?movement WHERE { &lt;http://dbpedia.org/resource/The_Three_Dancers&gt; dbpedia2:artist &lt;http://dbpedia.org/resource/Painter_Name&gt; . &lt;http://dbpedia.org/resource/Painter_Name&gt; dbpedia-owl:influencedBy ?movement . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT ?actor WHERE { ?actor a dbr:Actor. ?actor dbo:countryOfOrigin dbr:Germany. }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema SELECT ?designer WHERE { ?bridge dbpedia-owl:name "Brooklyn Bridge"@en ; dbpedia-owl:designer ?designer . FILTER (lang(?bridge) = "en") }</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Token \\"&lt;\\": no viable alternative at input \'PREFIXrdf:&lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;PREFIXdbo:&lt;http://dbpedia.org/ontology/&gt;PREFIXdbr:&lt;http://dbpedia.org/resource/&gt;PREFIXdbp:&lt;http://dbpedia.org/property/&gt;PREFIXskos:&lt;http://www.w3.org/2004/02/skos/core#&gt;PREFIXyago:&lt;http://dbpedia.org/class/yago/&gt;PREFIXdbc:&lt;http://dbpedia.org/resource/Category:&gt;PREFIXdct:&lt;http://purl.org/dc/terms/&gt;PREFIXdbpedia-owl:&lt;http://dbpedia.org/ontology/&gt;PREFIXrdfs:&lt;\'",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 64,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema SELECT ?designer WHERE { ?bridge dbpedia-owl:name \\"Brooklyn Bridge\\"@en ; dbpedia-owl:designer ?designer . FILTER (lang(?bridge) = \\"en\\") }",\n        "startIndex": 441,\n        "stopIndex": 441\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema SELECT ?designer WHERE { ?bridge dbpedia-owl:name \\"Brooklyn Bridge\\"@en ; dbpedia-owl:designer ?designer . FILTER (lang(?bridge) = \\"en\\") }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT ?composer WHERE { ?book dbo:themeMusic ?composition . ?composition dbo:creator ?composer . ?book dbo:wikiPageID "Game_of_Thrones" . ?book dbo:abstract "Game of Thrones" . FILTER (lang(?abstract) = "en") }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?movie WHERE { ?movie dbr:Director ?director. ?director dbr:Name "Francis Ford Coppola". FILTER (lang(?director) = "en"). FILTER (lang(?movie) = "en"). }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt; SELECT ?givenname WHERE { ?artist a dbpedia-owl:Person . ?artist foaf:name 'Adele' . ?artist foaf:givenname ?givenname . OPTIONAL { ?artist dbpedia-owl:birthName ?birthName } FILTER NOT EXISTS { ?artist dbpedia-owl:birthName ?birthName } }</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Built-in function \\"notexists{?artistdbpedia-owl:birthname?birthname}\\"  not yet implemented; if you need it, just add it to SparqlQleverVisitor.cpp::visitTypesafe(Parser::BuiltInCallContext following the already implemented functions there",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 275,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt; SELECT ?givenname WHERE { ?artist a dbpedia-owl:Person . ?artist foaf:name \'Adele\' . ?artist foaf:givenname ?givenname . OPTIONAL { ?artist dbpedia-owl:birthName ?birthName } FILTER NOT EXISTS { ?artist dbpedia-owl:birthName ?birthName } }",\n        "startIndex": 652,\n        "stopIndex": 706\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt; SELECT ?givenname WHERE { ?artist a dbpedia-owl:Person . ?artist foaf:name \'Adele\' . ?artist foaf:givenname ?givenname . OPTIONAL { ?artist dbpedia-owl:birthName ?birthName } FILTER NOT EXISTS { ?artist dbpedia-owl:birthName ?birthName } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dcterms: &lt;http://purl.org/dc/terms/&gt; SELECT ?item ?itemLabel WHERE { SERVICE dbpedia:label { dbr:serviceParam dbpedia:language "en". } ?item dbr:band "Queen" . ?item dbr:album ?album . ?item dbr:releaseOrder ?releaseOrder . FILTER (lang(?itemLabel) = "en" &amp;&amp; ?releaseOrder = 1) }</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Prefix dbpedia was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 127,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dcterms: &lt;http://purl.org/dc/terms/&gt; SELECT ?item ?itemLabel WHERE { SERVICE dbpedia:label { dbr:serviceParam dbpedia:language \\"en\\". } ?item dbr:band \\"Queen\\" . ?item dbr:album ?album . ?item dbr:releaseOrder ?releaseOrder . FILTER (lang(?itemLabel) = \\"en\\" &amp;&amp; ?releaseOrder = 1) }",\n        "startIndex": 461,\n        "stopIndex": 473\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dcterms: &lt;http://purl.org/dc/terms/&gt; SELECT ?item ?itemLabel WHERE { SERVICE dbpedia:label { dbr:serviceParam dbpedia:language \\"en\\". } ?item dbr:band \\"Queen\\" . ?item dbr:album ?album . ?item dbr:releaseOrder ?releaseOrder . FILTER (lang(?itemLabel) = \\"en\\" &amp;&amp; ?releaseOrder = 1) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/property/&gt; SELECT ?item ?itemLabel ?currency WHERE { ?item a dbpedia-owl:Country . ?item dbpedia2:currencies ?currency . FILTER regex(?item, "Czech Republic") . SERVICE dbpedia-lookups:labels { ?item rdfs:label ?itemLabel. } }</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Prefix dbpedia-lookups was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 257,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/property/&gt; SELECT ?item ?itemLabel ?currency WHERE { ?item a dbpedia-owl:Country . ?item dbpedia2:currencies ?currency . FILTER regex(?item, \\"Czech Republic\\") . SERVICE dbpedia-lookups:labels { ?item rdfs:label ?itemLabel. } }",\n        "startIndex": 634,\n        "stopIndex": 655\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/property/&gt; SELECT ?item ?itemLabel ?currency WHERE { ?item a dbpedia-owl:Country . ?item dbpedia2:currencies ?currency . FILTER regex(?item, \\"Czech Republic\\") . SERVICE dbpedia-lookups:labels { ?item rdfs:label ?itemLabel. } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia2: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt; SELECT ?person WHERE { ?person foaf:birthPlace &lt;http://dbpedia.org/resource/Vienna&gt; . ?person foaf:deathPlace &lt;http://dbpedia.org/resource/Berlin&gt; . FILTER (isLiteral(?person)) }</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Token \\"&lt;\\": no viable alternative at input \'PREFIXrdf:&lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;PREFIXdbo:&lt;http://dbpedia.org/ontology/&gt;PREFIXdbr:&lt;http://dbpedia.org/resource/&gt;PREFIXdbp:&lt;http://dbpedia.org/property/&gt;PREFIXskos:&lt;http://www.w3.org/2004/02/skos/core#&gt;PREFIXyago:&lt;http://dbpedia.org/class/yago/&gt;PREFIXdbc:&lt;http://dbpedia.org/resource/Category:&gt;PREFIXdct:&lt;http://purl.org/dc/terms/&gt;PREFIXdbpedia2:&lt;http://dbpedia.org/ontology/&gt;PREFIXrdfs:&lt;\'",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 61,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia2: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt; SELECT ?person WHERE { ?person foaf:birthPlace &lt;http://dbpedia.org/resource/Vienna&gt; . ?person foaf:deathPlace &lt;http://dbpedia.org/resource/Berlin&gt; . FILTER (isLiteral(?person)) }",\n        "startIndex": 438,\n        "stopIndex": 438\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia2: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt; SELECT ?person WHERE { ?person foaf:birthPlace &lt;http://dbpedia.org/resource/Vienna&gt; . ?person foaf:deathPlace &lt;http://dbpedia.org/resource/Berlin&gt; . FILTER (isLiteral(?person)) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT ?bridge WHERE { ?bridge a dbo:Bridge. ?bridge dbo:crosses ?river. ?river dbpedia:Seine. }</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Token \\".\\": mismatched input \'.\' expecting {\'(\', \'[\', \'true\', \'false\', IRI_REF, PNAME_NS, PNAME_LN, BLANK_NODE_LABEL, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2, NIL, ANON}",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 93,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nSELECT ?bridge WHERE { ?bridge a dbo:Bridge. ?bridge dbo:crosses ?river. ?river dbpedia:Seine. }",\n        "startIndex": 470,\n        "stopIndex": 470\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nSELECT ?bridge WHERE { ?bridge a dbo:Bridge. ?bridge dbo:crosses ?river. ?river dbpedia:Seine. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+** PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/property/&gt; SELECT ?musician ?bookCount WHERE { ?musician a dbpedia-owl:MusicalArtist. ?musician dbpedia2:bookCount ?bookCount. FILTER (?bookCount &gt; 0). GROUP BY ?musician ORDER BY DESC(?bookCount) LIMIT 1 } **</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Token \\"*\\": no viable alternative at input \'PREFIXrdf:&lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;PREFIXdbo:&lt;http://dbpedia.org/ontology/&gt;PREFIXdbr:&lt;http://dbpedia.org/resource/&gt;PREFIXdbp:&lt;http://dbpedia.org/property/&gt;PREFIXskos:&lt;http://www.w3.org/2004/02/skos/core#&gt;PREFIXyago:&lt;http://dbpedia.org/class/yago/&gt;PREFIXdbc:&lt;http://dbpedia.org/resource/Category:&gt;PREFIXdct:&lt;http://purl.org/dc/terms/&gt;*\'",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 0,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\n** PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/property/&gt; SELECT ?musician ?bookCount WHERE { ?musician a dbpedia-owl:MusicalArtist. ?musician dbpedia2:bookCount ?bookCount. FILTER (?bookCount &gt; 0). GROUP BY ?musician ORDER BY DESC(?bookCount) LIMIT 1 } **",\n        "startIndex": 377,\n        "stopIndex": 377\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\n** PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/property/&gt; SELECT ?musician ?bookCount WHERE { ?musician a dbpedia-owl:MusicalArtist. ?musician dbpedia2:bookCount ?bookCount. FILTER (?bookCount &gt; 0). GROUP BY ?musician ORDER BY DESC(?bookCount) LIMIT 1 } **",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; PREFIX dbprop: &lt;http://dbpedia.org/property/&gt; PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt; SELECT ?tvshow WHERE { ?tvshow a dbpedia-owl:WorkType ; dbpedia-owl:creator ?creator . ?creator dbpedia-owl:name "John Cleese"@en . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+&lt;select distinct ?writer&gt; { ?writer foaf:makerOf ?prize. ?prize a dbpedia-owl:NobelPrize. ?prize dcterms:subject dbpedia:category:Literature. SERVICE dbpedia:service { ?prize dcterms:date ?date. } ?writer dbpedia-owl:award ?prize. ?prize rdfs:label ?awardLabel. FILTER(LANG(?awardLabel) = 'en'). BIND(STRLANG(?awardLabel, 'en') AS ?awardLabel) } GROUP BY ?writer ORDER BY ?writer</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Token \\"&lt;\\": no viable alternative at input \'PREFIXrdf:&lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;PREFIXdbo:&lt;http://dbpedia.org/ontology/&gt;PREFIXdbr:&lt;http://dbpedia.org/resource/&gt;PREFIXdbp:&lt;http://dbpedia.org/property/&gt;PREFIXskos:&lt;http://www.w3.org/2004/02/skos/core#&gt;PREFIXyago:&lt;http://dbpedia.org/class/yago/&gt;PREFIXdbc:&lt;http://dbpedia.org/resource/Category:&gt;PREFIXdct:&lt;http://purl.org/dc/terms/&gt;&lt;\'",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 0,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\n&lt;select distinct ?writer&gt; { ?writer foaf:makerOf ?prize. ?prize a dbpedia-owl:NobelPrize. ?prize dcterms:subject dbpedia:category:Literature. SERVICE dbpedia:service { ?prize dcterms:date ?date. } ?writer dbpedia-owl:award ?prize. ?prize rdfs:label ?awardLabel. FILTER(LANG(?awardLabel) = \'en\'). BIND(STRLANG(?awardLabel, \'en\') AS ?awardLabel) } GROUP BY ?writer ORDER BY ?writer",\n        "startIndex": 377,\n        "stopIndex": 377\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\n&lt;select distinct ?writer&gt; { ?writer foaf:makerOf ?prize. ?prize a dbpedia-owl:NobelPrize. ?prize dcterms:subject dbpedia:category:Literature. SERVICE dbpedia:service { ?prize dcterms:date ?date. } ?writer dbpedia-owl:award ?prize. ?prize rdfs:label ?awardLabel. FILTER(LANG(?awardLabel) = \'en\'). BIND(STRLANG(?awardLabel, \'en\') AS ?awardLabel) } GROUP BY ?writer ORDER BY ?writer",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT ?discoverer WHERE { &lt;http://dbpedia.org/resource/1_Ceres&gt; ?property ?discoverer. FILTER ( ?property = http://dbpedia.org/ontology/discoveryBy ) }</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Token \\"/\\": mismatched input \'/\' expecting {\'(\', \'+\', \'!\', \'-\', \'true\', \'false\', GROUP_CONCAT, NOT, STR, LANG, LANGMATCHES, DATATYPE, BOUND, IRI, URI, BNODE, RAND, ABS, CEIL, FLOOR, ROUND, CONCAT, STRLEN, UCASE, LCASE, ENCODE_FOR_URI, CONTAINS, STRSTARTS, STRENDS, STRBEFORE, STRAFTER, YEAR, MONTH, DAY, HOURS, MINUTES, SECONDS, TIMEZONE, TZ, NOW, UUID, STRUUID, SHA1, SHA256, SHA384, SHA512, MD5, COALESCE, IF, STRLANG, STRDT, SAMETERM, ISIRI, ISURI, ISBLANK, ISLITERAL, ISNUMERIC, REGEX, SUBSTR, REPLACE, EXISTS, COUNT, SUM, MIN, MAX, AVG, SAMPLE, IRI_REF, PNAME_NS, PNAME_LN, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2}",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 115,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nSELECT ?discoverer WHERE { &lt;http://dbpedia.org/resource/1_Ceres&gt; ?property ?discoverer. FILTER ( ?property = http://dbpedia.org/ontology/discoveryBy ) }",\n        "startIndex": 492,\n        "stopIndex": 492\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nSELECT ?discoverer WHERE { &lt;http://dbpedia.org/resource/1_Ceres&gt; ?property ?discoverer. FILTER ( ?property = http://dbpedia.org/ontology/discoveryBy ) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/property/&gt; SELECT ?leader ?leaderLabel ?instrument WHERE { ?leader a dbpedia-owl:BandLeader. ?leader dbpedia2:instrument ?instrument. ?instrument dbpedia2:instrumentType ?trumpet. SERVICE wikibase:label { bd:serviceParam wikibase:language "en". }</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Unexpected end of input: missing \'}\' at \'&lt;EOF&gt;\'",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 334,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/property/&gt; SELECT ?leader ?leaderLabel ?instrument WHERE { ?leader a dbpedia-owl:BandLeader. ?leader dbpedia2:instrument ?instrument. ?instrument dbpedia2:instrumentType ?trumpet. SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". }",\n        "startIndex": 711,\n        "stopIndex": 710\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/property/&gt; SELECT ?leader ?leaderLabel ?instrument WHERE { ?leader a dbpedia-owl:BandLeader. ?leader dbpedia2:instrument ?instrument. ?instrument dbpedia2:instrumentType ?trumpet. SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?player WHERE { ?player a dbo:Person . ?player dbo:sport ?sport . ?player dbo:height ?height . FILTER (lang(?height) = 'en' &amp;&amp; STRDT(?height, xsd:decimal) &gt; 2) FILTER (str(?sport) = "Basketball") }</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Token \\"&lt;\\": no viable alternative at input \'PREFIXrdf:&lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;PREFIXdbr:&lt;http://dbpedia.org/resource/&gt;PREFIXdbp:&lt;http://dbpedia.org/property/&gt;PREFIXskos:&lt;http://www.w3.org/2004/02/skos/core#&gt;PREFIXyago:&lt;http://dbpedia.org/class/yago/&gt;PREFIXdbc:&lt;http://dbpedia.org/resource/Category:&gt;PREFIXdct:&lt;http://purl.org/dc/terms/&gt;PREFIXrdfs:&lt;\'",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 13,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?player WHERE { ?player a dbo:Person . ?player dbo:sport ?sport . ?player dbo:height ?height . FILTER (lang(?height) = \'en\' &amp;&amp; STRDT(?height, xsd:decimal) &gt; 2) FILTER (str(?sport) = \\"Basketball\\") }",\n        "startIndex": 347,\n        "stopIndex": 347\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?player WHERE { ?player a dbo:Person . ?player dbo:sport ?sport . ?player dbo:height ?height . FILTER (lang(?height) = \'en\' &amp;&amp; STRDT(?height, xsd:decimal) &gt; 2) FILTER (str(?sport) = \\"Basketball\\") }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT ?film WHERE { &lt;http://dbpedia.org/resource/Julia_Roberts&gt; &lt;http://dbpedia.org/ontology/actor&gt; ?film. ?film &lt;http://dbpedia.org/ontology/actor&gt; &lt;http://dbpedia.org/resource/Richard_Gere&gt;. }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?city WHERE { ?country a dbpedia:Country. ?country rdfs:seeAlso &lt;http://dbpedia.org/resource/Canada&gt;. ?city a dbpedia:Location. ?city dbpedia-owl:capital ?country. FILTER (lang(?city) = "en"). FILTER (regex(?city, "Canad.*", "i")). }</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Prefix rdfs was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 156,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?city WHERE { ?country a dbpedia:Country. ?country rdfs:seeAlso &lt;http://dbpedia.org/resource/Canada&gt;. ?city a dbpedia:Location. ?city dbpedia-owl:capital ?country. FILTER (lang(?city) = \\"en\\"). FILTER (regex(?city, \\"Canad.*\\", \\"i\\")). }",\n        "startIndex": 533,\n        "stopIndex": 544\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?city WHERE { ?country a dbpedia:Country. ?country rdfs:seeAlso &lt;http://dbpedia.org/resource/Canada&gt;. ?city a dbpedia:Location. ?city dbpedia-owl:capital ?country. FILTER (lang(?city) = \\"en\\"). FILTER (regex(?city, \\"Canad.*\\", \\"i\\")). }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/property/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX owl: &lt;http://www.w3.org/2002/07/owl SELECT ?player ?playerLabel WHERE { ?player a dbo:SoccerPlayer. ?player dbpedia2:birthPlace ?birthPlace. ?birthPlace rdfs:label ?birthPlaceLabel. FILTER (lower(?birthPlaceLabel) = "malta"). SERVICE wikibase:label { bd:serviceParam wikibase:language "en". } ?player rdfs:label ?playerLabel. }</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Token \\"&lt;\\": no viable alternative at input \'PREFIXrdf:&lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;PREFIXdbr:&lt;http://dbpedia.org/resource/&gt;PREFIXdbp:&lt;http://dbpedia.org/property/&gt;PREFIXskos:&lt;http://www.w3.org/2004/02/skos/core#&gt;PREFIXyago:&lt;http://dbpedia.org/class/yago/&gt;PREFIXdbc:&lt;http://dbpedia.org/resource/Category:&gt;PREFIXdct:&lt;http://purl.org/dc/terms/&gt;PREFIXdbpedia-owl:&lt;http://dbpedia.org/ontology/&gt;PREFIXdbpedia2:&lt;http://dbpedia.org/property/&gt;PREFIXrdfs:&lt;\'",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 112,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/property/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX owl: &lt;http://www.w3.org/2002/07/owl SELECT ?player ?playerLabel WHERE { ?player a dbo:SoccerPlayer. ?player dbpedia2:birthPlace ?birthPlace. ?birthPlace rdfs:label ?birthPlaceLabel. FILTER (lower(?birthPlaceLabel) = \\"malta\\"). SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". } ?player rdfs:label ?playerLabel. }",\n        "startIndex": 446,\n        "stopIndex": 446\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/property/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX owl: &lt;http://www.w3.org/2002/07/owl SELECT ?player ?playerLabel WHERE { ?player a dbo:SoccerPlayer. ?player dbpedia2:birthPlace ?birthPlace. ?birthPlace rdfs:label ?birthPlaceLabel. FILTER (lower(?birthPlaceLabel) = \\"malta\\"). SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". } ?player rdfs:label ?playerLabel. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; SELECT ?capital WHERE { dbr:Cameroon dbp:capital ?capital }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dct: &lt;http://purl.org/dc/terms/&gt; SELECT (COUNT(?language) AS ?total_languages) WHERE { ?language a dbpedia-owl:ProgrammingLanguage . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt; PREFIX wikidata: &lt;http://www.wikidata.org/entity/&gt; SELECT ?item WHERE { ?wikidataItem wdt:P31 ?class. FILTER (strstarts(str(?class), "Q")) ?item foaf:isPrimaryTopicOf ?wikidataItem. FILTER (regex(str(?item), "dbpedia.org")) }</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 179,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt; PREFIX wikidata: &lt;http://www.wikidata.org/entity/&gt; SELECT ?item WHERE { ?wikidataItem wdt:P31 ?class. FILTER (strstarts(str(?class), \\"Q\\")) ?item foaf:isPrimaryTopicOf ?wikidataItem. FILTER (regex(str(?item), \\"dbpedia.org\\")) }",\n        "startIndex": 556,\n        "stopIndex": 562\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt; PREFIX wikidata: &lt;http://www.wikidata.org/entity/&gt; SELECT ?item WHERE { ?wikidataItem wdt:P31 ?class. FILTER (strstarts(str(?class), \\"Q\\")) ?item foaf:isPrimaryTopicOf ?wikidataItem. FILTER (regex(str(?item), \\"dbpedia.org\\")) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT ?creator WHERE { ?familyGuy a dbo:TelevisionSeries. ?familyGuy dbo:creator ?creator. FILTER (regex(?familyGuy, "Family Guy")). }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?population WHERE { ?city a dbpedia-owl:City . ?city dbpedia-owl:population ?population . FILTER regex(?city, "Mexico City") }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT ?s WHERE { ?s a &lt;http://dbpedia.org/ontology/Person&gt; ; &lt;http://dbpedia.org/ontology/creator&gt; ?o . FILTER (lang(?o) = 'en') . FILTER regex(?o, "Batman") . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT ?city ?cityPopulation WHERE { VALUES ?country { &lt;http://dbpedia.org/resource/Australia&gt; } ?city dbo:capitalOf ?country. ?city dbo:population ?cityPopulation. FILTER lang(?cityPopulation) = 'en'. }</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Token \\"=\\": mismatched input \'=\' expecting \'}\'",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 194,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nSELECT ?city ?cityPopulation WHERE { VALUES ?country { &lt;http://dbpedia.org/resource/Australia&gt; } ?city dbo:capitalOf ?country. ?city dbo:population ?cityPopulation. FILTER lang(?cityPopulation) = \'en\'. }",\n        "startIndex": 571,\n        "stopIndex": 571\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nSELECT ?city ?cityPopulation WHERE { VALUES ?country { &lt;http://dbpedia.org/resource/Australia&gt; } ?city dbo:capitalOf ?country. ?city dbo:population ?cityPopulation. FILTER lang(?cityPopulation) = \'en\'. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; SELECT ?area WHERE { dbr:North_Rhine-Westphalia dbp:area ?area }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt; PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/property/&gt; SELECT (COUNT(?employee) AS ?numEmployees) WHERE { ?company a dbpedia-owl:Company. ?company rdfs:label "IBM"@en. ?employee dbpedia2:employer ?company. }</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Prefix rdfs was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 233,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt; PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/property/&gt; SELECT (COUNT(?employee) AS ?numEmployees) WHERE { ?company a dbpedia-owl:Company. ?company rdfs:label \\"IBM\\"@en. ?employee dbpedia2:employer ?company. }",\n        "startIndex": 610,\n        "stopIndex": 619\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt; PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/property/&gt; SELECT (COUNT(?employee) AS ?numEmployees) WHERE { ?company a dbpedia-owl:Company. ?company rdfs:label \\"IBM\\"@en. ?employee dbpedia2:employer ?company. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?productionBudget WHERE { dbr:Pulp_Fiction_(1994_film) dbp:productionBudget ?productionBudget . }</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Token \\"1994_film\\": mismatched input \'1994_film\' expecting {\'(\', \'a\', \'^\', \'!\', IRI_REF, PNAME_NS, PNAME_LN, PREFIX_LANGTAG}",\n    "metadata": {\n        "line": 7,\n        "positionInLine": 137,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?productionBudget WHERE { dbr:Pulp_Fiction_(1994_film) dbp:productionBudget ?productionBudget . }",\n        "startIndex": 428,\n        "stopIndex": 436\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?productionBudget WHERE { dbr:Pulp_Fiction_(1994_film) dbp:productionBudget ?productionBudget . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/property/&gt; SELECT ?movie WHERE { ?movie dbpedia-owl:wikiPageID ?pgid. ?movie dbpedia2:actor ?actor. ?actor foaf:name "Jesse Eisenberg" . }</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Prefix foaf was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 195,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/property/&gt; SELECT ?movie WHERE { ?movie dbpedia-owl:wikiPageID ?pgid. ?movie dbpedia2:actor ?actor. ?actor foaf:name \\"Jesse Eisenberg\\" . }",\n        "startIndex": 572,\n        "stopIndex": 580\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/property/&gt; SELECT ?movie WHERE { ?movie dbpedia-owl:wikiPageID ?pgid. ?movie dbpedia2:actor ?actor. ?actor foaf:name \\"Jesse Eisenberg\\" . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT ?item ?itemLabel FROM &lt;http://dbpedia.org&gt; WHERE { ?item a &lt;http://dbpedia.org/ontology/Movie&gt; . ?item dbpedia-owl:country http://dbpedia.org/resource/Denmark . SERVICE wikibase:language { bd:serviceParam wikibase:language "en". } SERVICE wikibase:label { bd:serviceParam wikibase:language "en". } FILTER (lang(?itemLabel) = "en"). }</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Token \\"/\\": mismatched input \'/\' expecting \'}\'",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 135,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nSELECT ?item ?itemLabel FROM &lt;http://dbpedia.org&gt; WHERE { ?item a &lt;http://dbpedia.org/ontology/Movie&gt; . ?item dbpedia-owl:country http://dbpedia.org/resource/Denmark . SERVICE wikibase:language { bd:serviceParam wikibase:language \\"en\\". } SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". } FILTER (lang(?itemLabel) = \\"en\\"). }",\n        "startIndex": 512,\n        "stopIndex": 512\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nSELECT ?item ?itemLabel FROM &lt;http://dbpedia.org&gt; WHERE { ?item a &lt;http://dbpedia.org/ontology/Movie&gt; . ?item dbpedia-owl:country http://dbpedia.org/resource/Denmark . SERVICE wikibase:language { bd:serviceParam wikibase:language \\"en\\". } SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". } FILTER (lang(?itemLabel) = \\"en\\"). }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema PREFIX yago: &lt;http://dbpedia.org/ontology/&gt; SELECT ?country WHERE { ?himalayanMountain yago:borderingCountry ?country. ?himalayanMountain rdfs:label "Himalayan or Himalayas"@en. }</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Token \\"&lt;\\": no viable alternative at input \'PREFIXrdf:&lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;PREFIXdbr:&lt;http://dbpedia.org/resource/&gt;PREFIXdbp:&lt;http://dbpedia.org/property/&gt;PREFIXskos:&lt;http://www.w3.org/2004/02/skos/core#&gt;PREFIXyago:&lt;http://dbpedia.org/class/yago/&gt;PREFIXdbc:&lt;http://dbpedia.org/resource/Category:&gt;PREFIXdct:&lt;http://purl.org/dc/terms/&gt;PREFIXdbo:&lt;http://dbpedia.org/ontology/&gt;PREFIXrdfs:&lt;\'",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 56,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema PREFIX yago: &lt;http://dbpedia.org/ontology/&gt; SELECT ?country WHERE { ?himalayanMountain yago:borderingCountry ?country. ?himalayanMountain rdfs:label \\"Himalayan or Himalayas\\"@en. }",\n        "startIndex": 390,\n        "stopIndex": 390\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema PREFIX yago: &lt;http://dbpedia.org/ontology/&gt; SELECT ?country WHERE { ?himalayanMountain yago:borderingCountry ?country. ?himalayanMountain rdfs:label \\"Himalayan or Himalayas\\"@en. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/resource/&gt; SELECT ?item ?itemLabel WHERE { ?item dbpedia-owl:country dbpedia2:Russia. SERVICE dbpedia:label { dbpedia:serviceParam dbpedia:language "en". } }</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Prefix dbpedia was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 182,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/resource/&gt; SELECT ?item ?itemLabel WHERE { ?item dbpedia-owl:country dbpedia2:Russia. SERVICE dbpedia:label { dbpedia:serviceParam dbpedia:language \\"en\\". } }",\n        "startIndex": 559,\n        "stopIndex": 571\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/resource/&gt; SELECT ?item ?itemLabel WHERE { ?item dbpedia-owl:country dbpedia2:Russia. SERVICE dbpedia:label { dbpedia:serviceParam dbpedia:language \\"en\\". } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; ` `PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema `SELECT ?university ` `WHERE { ` `Angela Merkel dbo:almaMater ?university . ` `SERVICE wikibase:serviceLink { BDWS SERVICE }</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: token recognition error at: \'`\'",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 43,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; ` `PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema `SELECT ?university ` `WHERE { ` `Angela Merkel dbo:almaMater ?university . ` `SERVICE wikibase:serviceLink { BDWS SERVICE }",\n        "startIndex": 377,\n        "stopIndex": 377\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; ` `PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema `SELECT ?university ` `WHERE { ` `Angela Merkel dbo:almaMater ?university . ` `SERVICE wikibase:serviceLink { BDWS SERVICE }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?creator WHERE { ?character dbo:creator ?creator. ?character rdfs:label "Goofy"@en. }</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Prefix rdfs was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 111,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?creator WHERE { ?character dbo:creator ?creator. ?character rdfs:label \\"Goofy\\"@en. }",\n        "startIndex": 445,\n        "stopIndex": 454\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?creator WHERE { ?character dbo:creator ?creator. ?character rdfs:label \\"Goofy\\"@en. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
   </si>
 </sst>
 </file>
@@ -2012,13 +2766,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2043,1143 +2797,1377 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C2" t="s">
         <v>108</v>
       </c>
-      <c r="C2" t="s">
-        <v>208</v>
-      </c>
       <c r="D2" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E2" t="s">
-        <v>317</v>
+        <v>217</v>
       </c>
       <c r="F2" t="s">
-        <v>411</v>
+        <v>324</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+      <c r="I2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C3" t="s">
         <v>109</v>
       </c>
-      <c r="C3" t="s">
-        <v>209</v>
-      </c>
       <c r="D3" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E3" t="s">
-        <v>318</v>
+        <v>218</v>
       </c>
       <c r="F3" t="s">
-        <v>412</v>
+        <v>326</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+      <c r="I3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C4" t="s">
         <v>110</v>
       </c>
-      <c r="C4" t="s">
-        <v>210</v>
-      </c>
       <c r="D4" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E4" t="s">
-        <v>319</v>
+        <v>219</v>
       </c>
       <c r="F4" t="s">
-        <v>413</v>
+        <v>328</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+      <c r="I4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
+        <v>329</v>
+      </c>
+      <c r="C5" t="s">
         <v>111</v>
       </c>
-      <c r="C5" t="s">
-        <v>211</v>
-      </c>
       <c r="D5" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E5" t="s">
-        <v>320</v>
+        <v>220</v>
       </c>
       <c r="F5" t="s">
-        <v>414</v>
+        <v>330</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+      <c r="I5" t="s">
+        <v>318</v>
+      </c>
+      <c r="J5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6" t="s">
+        <v>331</v>
+      </c>
+      <c r="C6" t="s">
         <v>112</v>
       </c>
-      <c r="C6" t="s">
-        <v>212</v>
-      </c>
       <c r="D6" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E6" t="s">
-        <v>321</v>
+        <v>221</v>
       </c>
       <c r="F6" t="s">
-        <v>415</v>
+        <v>332</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+      <c r="I6" t="s">
+        <v>315</v>
+      </c>
+      <c r="J6" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
       <c r="B7" t="s">
+        <v>333</v>
+      </c>
+      <c r="C7" t="s">
         <v>113</v>
       </c>
-      <c r="C7" t="s">
-        <v>213</v>
-      </c>
       <c r="D7" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E7" t="s">
-        <v>322</v>
+        <v>222</v>
       </c>
       <c r="F7" t="s">
-        <v>416</v>
+        <v>334</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+      <c r="I7" t="s">
+        <v>318</v>
+      </c>
+      <c r="J7" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
       <c r="B8" t="s">
+        <v>335</v>
+      </c>
+      <c r="C8" t="s">
         <v>114</v>
       </c>
-      <c r="C8" t="s">
-        <v>214</v>
-      </c>
       <c r="D8" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E8" t="s">
-        <v>323</v>
+        <v>223</v>
       </c>
       <c r="F8" t="s">
-        <v>417</v>
+        <v>336</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+      <c r="I8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
       <c r="B9" t="s">
+        <v>337</v>
+      </c>
+      <c r="C9" t="s">
         <v>115</v>
       </c>
-      <c r="C9" t="s">
-        <v>215</v>
-      </c>
       <c r="D9" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E9" t="s">
-        <v>324</v>
+        <v>224</v>
       </c>
       <c r="F9" t="s">
-        <v>418</v>
+        <v>338</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+      <c r="I9" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
+        <v>339</v>
+      </c>
+      <c r="C10" t="s">
         <v>116</v>
       </c>
-      <c r="C10" t="s">
-        <v>216</v>
-      </c>
       <c r="D10" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E10" t="s">
-        <v>325</v>
+        <v>225</v>
       </c>
       <c r="F10" t="s">
-        <v>419</v>
+        <v>340</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+      <c r="I10" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
       <c r="B11" t="s">
+        <v>341</v>
+      </c>
+      <c r="C11" t="s">
         <v>117</v>
       </c>
-      <c r="C11" t="s">
-        <v>217</v>
-      </c>
       <c r="D11" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E11" t="s">
-        <v>326</v>
+        <v>226</v>
       </c>
       <c r="F11" t="s">
-        <v>420</v>
+        <v>311</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+      <c r="I11" t="s">
+        <v>318</v>
+      </c>
+      <c r="J11" t="s">
+        <v>322</v>
+      </c>
+      <c r="K11" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
       <c r="B12" t="s">
+        <v>342</v>
+      </c>
+      <c r="C12" t="s">
         <v>118</v>
       </c>
-      <c r="C12" t="s">
-        <v>218</v>
-      </c>
       <c r="D12" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E12" t="s">
-        <v>327</v>
+        <v>227</v>
       </c>
       <c r="F12" t="s">
-        <v>421</v>
+        <v>343</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+      <c r="I12" t="s">
+        <v>318</v>
+      </c>
+      <c r="J12" t="s">
+        <v>322</v>
+      </c>
+      <c r="K12" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>19</v>
       </c>
       <c r="B13" t="s">
+        <v>344</v>
+      </c>
+      <c r="C13" t="s">
         <v>119</v>
       </c>
-      <c r="C13" t="s">
-        <v>219</v>
-      </c>
       <c r="D13" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E13" t="s">
-        <v>328</v>
+        <v>228</v>
       </c>
       <c r="F13" t="s">
-        <v>420</v>
+        <v>311</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+      <c r="I13" t="s">
+        <v>315</v>
+      </c>
+      <c r="J13" t="s">
+        <v>318</v>
+      </c>
+      <c r="K13" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
       <c r="B14" t="s">
+        <v>345</v>
+      </c>
+      <c r="C14" t="s">
         <v>120</v>
       </c>
-      <c r="C14" t="s">
-        <v>220</v>
-      </c>
       <c r="D14" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E14" t="s">
-        <v>329</v>
+        <v>229</v>
       </c>
       <c r="F14" t="s">
-        <v>422</v>
+        <v>346</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+      <c r="I14" t="s">
+        <v>315</v>
+      </c>
+      <c r="J14" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
       <c r="B15" t="s">
+        <v>347</v>
+      </c>
+      <c r="C15" t="s">
         <v>121</v>
       </c>
-      <c r="C15" t="s">
-        <v>221</v>
-      </c>
       <c r="D15" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E15" t="s">
-        <v>330</v>
+        <v>230</v>
       </c>
       <c r="F15" t="s">
-        <v>423</v>
+        <v>348</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>349</v>
+      </c>
+      <c r="C16" t="s">
         <v>122</v>
       </c>
-      <c r="C16" t="s">
-        <v>222</v>
-      </c>
       <c r="D16" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E16" t="s">
-        <v>331</v>
+        <v>231</v>
       </c>
       <c r="F16" t="s">
-        <v>424</v>
+        <v>350</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+      <c r="I16" t="s">
+        <v>313</v>
+      </c>
+      <c r="J16" t="s">
+        <v>315</v>
+      </c>
+      <c r="K16" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>23</v>
       </c>
       <c r="B17" t="s">
+        <v>351</v>
+      </c>
+      <c r="C17" t="s">
         <v>123</v>
       </c>
-      <c r="C17" t="s">
-        <v>223</v>
-      </c>
       <c r="D17" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E17" t="s">
-        <v>332</v>
+        <v>232</v>
       </c>
       <c r="F17" t="s">
-        <v>420</v>
+        <v>311</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+      <c r="I17" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>24</v>
       </c>
       <c r="B18" t="s">
+        <v>352</v>
+      </c>
+      <c r="C18" t="s">
         <v>124</v>
       </c>
-      <c r="C18" t="s">
-        <v>224</v>
-      </c>
       <c r="D18" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E18" t="s">
-        <v>333</v>
+        <v>233</v>
       </c>
       <c r="F18" t="s">
-        <v>420</v>
+        <v>311</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+      <c r="I18" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>25</v>
       </c>
       <c r="B19" t="s">
+        <v>353</v>
+      </c>
+      <c r="C19" t="s">
         <v>125</v>
       </c>
-      <c r="C19" t="s">
-        <v>225</v>
-      </c>
       <c r="D19" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E19" t="s">
-        <v>334</v>
+        <v>234</v>
       </c>
       <c r="F19" t="s">
-        <v>425</v>
+        <v>354</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+      <c r="I19" t="s">
+        <v>315</v>
+      </c>
+      <c r="J19" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>26</v>
       </c>
       <c r="B20" t="s">
+        <v>355</v>
+      </c>
+      <c r="C20" t="s">
         <v>126</v>
       </c>
-      <c r="C20" t="s">
-        <v>226</v>
-      </c>
       <c r="D20" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E20" t="s">
-        <v>335</v>
+        <v>235</v>
       </c>
       <c r="F20" t="s">
-        <v>420</v>
+        <v>311</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+      <c r="I20" t="s">
+        <v>318</v>
+      </c>
+      <c r="J20" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>27</v>
       </c>
       <c r="B21" t="s">
+        <v>356</v>
+      </c>
+      <c r="C21" t="s">
         <v>127</v>
       </c>
-      <c r="C21" t="s">
-        <v>227</v>
-      </c>
       <c r="D21" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E21" t="s">
-        <v>336</v>
+        <v>236</v>
       </c>
       <c r="F21" t="s">
-        <v>426</v>
+        <v>357</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+      <c r="I21" t="s">
+        <v>318</v>
+      </c>
+      <c r="J21" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>28</v>
       </c>
       <c r="B22" t="s">
+        <v>358</v>
+      </c>
+      <c r="C22" t="s">
         <v>128</v>
       </c>
-      <c r="C22" t="s">
-        <v>228</v>
-      </c>
       <c r="D22" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E22" t="s">
-        <v>337</v>
+        <v>237</v>
       </c>
       <c r="F22" t="s">
-        <v>420</v>
+        <v>311</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+      <c r="I22" t="s">
+        <v>318</v>
+      </c>
+      <c r="J22" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>29</v>
       </c>
       <c r="B23" t="s">
+        <v>359</v>
+      </c>
+      <c r="C23" t="s">
         <v>129</v>
       </c>
-      <c r="C23" t="s">
-        <v>229</v>
-      </c>
       <c r="D23" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E23" t="s">
-        <v>338</v>
+        <v>238</v>
       </c>
       <c r="F23" t="s">
-        <v>420</v>
+        <v>311</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+      <c r="I23" t="s">
+        <v>318</v>
+      </c>
+      <c r="J23" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>30</v>
       </c>
       <c r="B24" t="s">
+        <v>360</v>
+      </c>
+      <c r="C24" t="s">
         <v>130</v>
       </c>
-      <c r="C24" t="s">
-        <v>230</v>
-      </c>
       <c r="D24" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E24" t="s">
-        <v>339</v>
+        <v>239</v>
       </c>
       <c r="F24" t="s">
-        <v>427</v>
+        <v>361</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+      <c r="I24" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>31</v>
       </c>
       <c r="B25" t="s">
+        <v>362</v>
+      </c>
+      <c r="C25" t="s">
         <v>131</v>
       </c>
-      <c r="C25" t="s">
-        <v>231</v>
-      </c>
       <c r="D25" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E25" t="s">
-        <v>340</v>
+        <v>240</v>
       </c>
       <c r="F25" t="s">
-        <v>428</v>
+        <v>363</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+      <c r="I25" t="s">
+        <v>318</v>
+      </c>
+      <c r="J25" t="s">
+        <v>322</v>
+      </c>
+      <c r="K25" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>32</v>
       </c>
       <c r="B26" t="s">
+        <v>364</v>
+      </c>
+      <c r="C26" t="s">
         <v>132</v>
       </c>
-      <c r="C26" t="s">
-        <v>232</v>
-      </c>
       <c r="D26" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E26" t="s">
-        <v>341</v>
+        <v>241</v>
       </c>
       <c r="F26" t="s">
-        <v>420</v>
+        <v>311</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+      <c r="I26" t="s">
+        <v>318</v>
+      </c>
+      <c r="J26" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>33</v>
       </c>
       <c r="B27" t="s">
+        <v>365</v>
+      </c>
+      <c r="C27" t="s">
         <v>133</v>
       </c>
-      <c r="C27" t="s">
-        <v>233</v>
-      </c>
       <c r="D27" t="s">
-        <v>308</v>
+        <v>242</v>
       </c>
       <c r="E27" t="s">
-        <v>342</v>
+        <v>242</v>
       </c>
       <c r="F27" t="s">
-        <v>429</v>
+        <v>311</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>34</v>
       </c>
       <c r="B28" t="s">
+        <v>366</v>
+      </c>
+      <c r="C28" t="s">
         <v>134</v>
       </c>
-      <c r="C28" t="s">
-        <v>234</v>
-      </c>
       <c r="D28" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E28" t="s">
-        <v>343</v>
+        <v>243</v>
       </c>
       <c r="F28" t="s">
-        <v>430</v>
+        <v>367</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+      <c r="I28" t="s">
+        <v>318</v>
+      </c>
+      <c r="J28" t="s">
+        <v>322</v>
+      </c>
+      <c r="K28" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>35</v>
       </c>
       <c r="B29" t="s">
+        <v>368</v>
+      </c>
+      <c r="C29" t="s">
         <v>135</v>
       </c>
-      <c r="C29" t="s">
-        <v>235</v>
-      </c>
       <c r="D29" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E29" t="s">
-        <v>344</v>
+        <v>244</v>
       </c>
       <c r="F29" t="s">
-        <v>420</v>
+        <v>311</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+      <c r="I29" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>36</v>
       </c>
       <c r="B30" t="s">
+        <v>369</v>
+      </c>
+      <c r="C30" t="s">
         <v>136</v>
       </c>
-      <c r="C30" t="s">
-        <v>236</v>
-      </c>
       <c r="D30" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E30" t="s">
-        <v>345</v>
+        <v>245</v>
       </c>
       <c r="F30" t="s">
-        <v>420</v>
+        <v>311</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>37</v>
       </c>
       <c r="B31" t="s">
+        <v>370</v>
+      </c>
+      <c r="C31" t="s">
         <v>137</v>
       </c>
-      <c r="C31" t="s">
-        <v>237</v>
-      </c>
       <c r="D31" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E31" t="s">
-        <v>346</v>
+        <v>246</v>
       </c>
       <c r="F31" t="s">
-        <v>431</v>
+        <v>371</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+      <c r="I31" t="s">
+        <v>318</v>
+      </c>
+      <c r="J31" t="s">
+        <v>322</v>
+      </c>
+      <c r="K31" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>38</v>
       </c>
       <c r="B32" t="s">
+        <v>372</v>
+      </c>
+      <c r="C32" t="s">
         <v>138</v>
       </c>
-      <c r="C32" t="s">
-        <v>238</v>
-      </c>
       <c r="D32" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E32" t="s">
-        <v>347</v>
+        <v>247</v>
       </c>
       <c r="F32" t="s">
-        <v>432</v>
+        <v>373</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+      <c r="I32" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>39</v>
       </c>
       <c r="B33" t="s">
+        <v>374</v>
+      </c>
+      <c r="C33" t="s">
         <v>139</v>
       </c>
-      <c r="C33" t="s">
-        <v>239</v>
-      </c>
       <c r="D33" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E33" t="s">
-        <v>348</v>
+        <v>248</v>
       </c>
       <c r="F33" t="s">
-        <v>433</v>
+        <v>375</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+      <c r="I33" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>40</v>
       </c>
       <c r="B34" t="s">
+        <v>376</v>
+      </c>
+      <c r="C34" t="s">
         <v>140</v>
       </c>
-      <c r="C34" t="s">
-        <v>240</v>
-      </c>
       <c r="D34" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E34" t="s">
-        <v>349</v>
+        <v>249</v>
       </c>
       <c r="F34" t="s">
-        <v>434</v>
+        <v>377</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+      <c r="I34" t="s">
+        <v>318</v>
+      </c>
+      <c r="J34" t="s">
+        <v>322</v>
+      </c>
+      <c r="K34" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>41</v>
       </c>
       <c r="B35" t="s">
+        <v>378</v>
+      </c>
+      <c r="C35" t="s">
         <v>141</v>
       </c>
-      <c r="C35" t="s">
-        <v>241</v>
-      </c>
       <c r="D35" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E35" t="s">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="F35" t="s">
-        <v>420</v>
+        <v>311</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+      <c r="I35" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>42</v>
       </c>
       <c r="B36" t="s">
+        <v>379</v>
+      </c>
+      <c r="C36" t="s">
         <v>142</v>
       </c>
-      <c r="C36" t="s">
-        <v>242</v>
-      </c>
       <c r="D36" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E36" t="s">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="F36" t="s">
-        <v>435</v>
+        <v>380</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+      <c r="I36" t="s">
+        <v>318</v>
+      </c>
+      <c r="J36" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>43</v>
       </c>
       <c r="B37" t="s">
+        <v>381</v>
+      </c>
+      <c r="C37" t="s">
         <v>143</v>
       </c>
-      <c r="C37" t="s">
-        <v>243</v>
-      </c>
       <c r="D37" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E37" t="s">
-        <v>352</v>
+        <v>252</v>
       </c>
       <c r="F37" t="s">
-        <v>436</v>
+        <v>382</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+      <c r="I37" t="s">
+        <v>318</v>
+      </c>
+      <c r="J37" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>44</v>
       </c>
       <c r="B38" t="s">
+        <v>383</v>
+      </c>
+      <c r="C38" t="s">
         <v>144</v>
       </c>
-      <c r="C38" t="s">
-        <v>244</v>
-      </c>
       <c r="D38" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E38" t="s">
-        <v>353</v>
+        <v>253</v>
       </c>
       <c r="F38" t="s">
-        <v>437</v>
+        <v>384</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+      <c r="I38" t="s">
+        <v>318</v>
+      </c>
+      <c r="J38" t="s">
+        <v>313</v>
+      </c>
+      <c r="K38" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>45</v>
       </c>
       <c r="B39" t="s">
+        <v>385</v>
+      </c>
+      <c r="C39" t="s">
         <v>145</v>
       </c>
-      <c r="C39" t="s">
-        <v>245</v>
-      </c>
       <c r="D39" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E39" t="s">
-        <v>354</v>
+        <v>254</v>
       </c>
       <c r="F39" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+      <c r="I39" t="s">
+        <v>318</v>
+      </c>
+      <c r="J39" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>46</v>
       </c>
       <c r="B40" t="s">
+        <v>387</v>
+      </c>
+      <c r="C40" t="s">
         <v>146</v>
       </c>
-      <c r="C40" t="s">
-        <v>246</v>
-      </c>
       <c r="D40" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E40" t="s">
-        <v>355</v>
+        <v>255</v>
       </c>
       <c r="F40" t="s">
-        <v>439</v>
+        <v>388</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+      <c r="I40" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>47</v>
       </c>
       <c r="B41" t="s">
+        <v>389</v>
+      </c>
+      <c r="C41" t="s">
         <v>147</v>
       </c>
-      <c r="C41" t="s">
-        <v>247</v>
-      </c>
       <c r="D41" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E41" t="s">
-        <v>356</v>
+        <v>256</v>
       </c>
       <c r="F41" t="s">
-        <v>440</v>
+        <v>390</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+      <c r="I41" t="s">
+        <v>322</v>
+      </c>
+      <c r="J41" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>48</v>
       </c>
       <c r="B42" t="s">
+        <v>391</v>
+      </c>
+      <c r="C42" t="s">
         <v>148</v>
       </c>
-      <c r="C42" t="s">
-        <v>248</v>
-      </c>
       <c r="D42" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E42" t="s">
-        <v>357</v>
+        <v>257</v>
       </c>
       <c r="F42" t="s">
-        <v>441</v>
+        <v>392</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+      <c r="I42" t="s">
+        <v>322</v>
+      </c>
+      <c r="J42" t="s">
+        <v>318</v>
+      </c>
+      <c r="K42" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>49</v>
       </c>
       <c r="B43" t="s">
+        <v>393</v>
+      </c>
+      <c r="C43" t="s">
         <v>149</v>
       </c>
-      <c r="C43" t="s">
-        <v>249</v>
-      </c>
       <c r="D43" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E43" t="s">
-        <v>358</v>
+        <v>258</v>
       </c>
       <c r="F43" t="s">
-        <v>442</v>
+        <v>394</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+      <c r="I43" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>50</v>
       </c>
       <c r="B44" t="s">
+        <v>395</v>
+      </c>
+      <c r="C44" t="s">
         <v>150</v>
       </c>
-      <c r="C44" t="s">
-        <v>250</v>
-      </c>
       <c r="D44" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E44" t="s">
-        <v>359</v>
+        <v>259</v>
       </c>
       <c r="F44" t="s">
-        <v>443</v>
+        <v>396</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+      <c r="I44" t="s">
+        <v>322</v>
+      </c>
+      <c r="J44" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>51</v>
       </c>
       <c r="B45" t="s">
+        <v>397</v>
+      </c>
+      <c r="C45" t="s">
         <v>151</v>
       </c>
-      <c r="C45" t="s">
-        <v>251</v>
-      </c>
       <c r="D45" t="s">
+        <v>211</v>
+      </c>
+      <c r="E45" t="s">
+        <v>211</v>
+      </c>
+      <c r="F45" t="s">
         <v>311</v>
-      </c>
-      <c r="E45" t="s">
-        <v>311</v>
-      </c>
-      <c r="F45" t="s">
-        <v>420</v>
       </c>
       <c r="G45" t="b">
         <v>1</v>
@@ -3188,466 +4176,526 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>52</v>
       </c>
       <c r="B46" t="s">
+        <v>398</v>
+      </c>
+      <c r="C46" t="s">
         <v>152</v>
       </c>
-      <c r="C46" t="s">
-        <v>252</v>
-      </c>
       <c r="D46" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E46" t="s">
-        <v>360</v>
+        <v>260</v>
       </c>
       <c r="F46" t="s">
-        <v>444</v>
+        <v>399</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+      <c r="I46" t="s">
+        <v>318</v>
+      </c>
+      <c r="J46" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>53</v>
       </c>
       <c r="B47" t="s">
+        <v>400</v>
+      </c>
+      <c r="C47" t="s">
         <v>153</v>
       </c>
-      <c r="C47" t="s">
-        <v>253</v>
-      </c>
       <c r="D47" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="E47" t="s">
-        <v>361</v>
+        <v>261</v>
       </c>
       <c r="F47" t="s">
-        <v>420</v>
+        <v>311</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+      <c r="I47" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>54</v>
       </c>
       <c r="B48" t="s">
+        <v>401</v>
+      </c>
+      <c r="C48" t="s">
         <v>154</v>
       </c>
-      <c r="C48" t="s">
-        <v>254</v>
-      </c>
       <c r="D48" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E48" t="s">
-        <v>362</v>
+        <v>262</v>
       </c>
       <c r="F48" t="s">
-        <v>445</v>
+        <v>402</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>55</v>
       </c>
       <c r="B49" t="s">
+        <v>403</v>
+      </c>
+      <c r="C49" t="s">
         <v>155</v>
       </c>
-      <c r="C49" t="s">
-        <v>255</v>
-      </c>
       <c r="D49" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E49" t="s">
-        <v>363</v>
+        <v>263</v>
       </c>
       <c r="F49" t="s">
-        <v>446</v>
+        <v>404</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+      <c r="I49" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>56</v>
       </c>
       <c r="B50" t="s">
+        <v>405</v>
+      </c>
+      <c r="C50" t="s">
         <v>156</v>
       </c>
-      <c r="C50" t="s">
-        <v>256</v>
-      </c>
       <c r="D50" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E50" t="s">
-        <v>364</v>
+        <v>264</v>
       </c>
       <c r="F50" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+      <c r="I50" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>57</v>
       </c>
       <c r="B51" t="s">
+        <v>407</v>
+      </c>
+      <c r="C51" t="s">
         <v>157</v>
       </c>
-      <c r="C51" t="s">
-        <v>257</v>
-      </c>
       <c r="D51" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E51" t="s">
-        <v>365</v>
+        <v>265</v>
       </c>
       <c r="F51" t="s">
-        <v>448</v>
+        <v>408</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+      <c r="I51" t="s">
+        <v>318</v>
+      </c>
+      <c r="J51" t="s">
+        <v>322</v>
+      </c>
+      <c r="K51" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>58</v>
       </c>
       <c r="B52" t="s">
+        <v>409</v>
+      </c>
+      <c r="C52" t="s">
         <v>158</v>
       </c>
-      <c r="C52" t="s">
-        <v>258</v>
-      </c>
       <c r="D52" t="s">
-        <v>313</v>
+        <v>213</v>
       </c>
       <c r="E52" t="s">
-        <v>366</v>
+        <v>266</v>
       </c>
       <c r="F52" t="s">
-        <v>420</v>
+        <v>311</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>59</v>
       </c>
       <c r="B53" t="s">
+        <v>410</v>
+      </c>
+      <c r="C53" t="s">
         <v>159</v>
       </c>
-      <c r="C53" t="s">
-        <v>259</v>
-      </c>
       <c r="D53" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E53" t="s">
-        <v>367</v>
+        <v>267</v>
       </c>
       <c r="F53" t="s">
-        <v>449</v>
+        <v>411</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+      <c r="I53" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>60</v>
       </c>
       <c r="B54" t="s">
+        <v>412</v>
+      </c>
+      <c r="C54" t="s">
         <v>160</v>
       </c>
-      <c r="C54" t="s">
-        <v>260</v>
-      </c>
       <c r="D54" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E54" t="s">
-        <v>368</v>
+        <v>268</v>
       </c>
       <c r="F54" t="s">
-        <v>450</v>
+        <v>413</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+      <c r="I54" t="s">
+        <v>318</v>
+      </c>
+      <c r="J54" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>61</v>
       </c>
       <c r="B55" t="s">
+        <v>414</v>
+      </c>
+      <c r="C55" t="s">
         <v>161</v>
       </c>
-      <c r="C55" t="s">
-        <v>261</v>
-      </c>
       <c r="D55" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E55" t="s">
-        <v>369</v>
+        <v>269</v>
       </c>
       <c r="F55" t="s">
-        <v>420</v>
+        <v>311</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+      <c r="I55" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>62</v>
       </c>
       <c r="B56" t="s">
+        <v>415</v>
+      </c>
+      <c r="C56" t="s">
         <v>162</v>
       </c>
-      <c r="C56" t="s">
-        <v>262</v>
-      </c>
       <c r="D56" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E56" t="s">
-        <v>370</v>
+        <v>270</v>
       </c>
       <c r="F56" t="s">
-        <v>451</v>
+        <v>416</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>63</v>
       </c>
       <c r="B57" t="s">
+        <v>417</v>
+      </c>
+      <c r="C57" t="s">
         <v>163</v>
       </c>
-      <c r="C57" t="s">
-        <v>263</v>
-      </c>
       <c r="D57" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E57" t="s">
-        <v>371</v>
+        <v>271</v>
       </c>
       <c r="F57" t="s">
-        <v>420</v>
+        <v>311</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+      <c r="I57" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>64</v>
       </c>
       <c r="B58" t="s">
+        <v>418</v>
+      </c>
+      <c r="C58" t="s">
         <v>164</v>
       </c>
-      <c r="C58" t="s">
-        <v>264</v>
-      </c>
       <c r="D58" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E58" t="s">
-        <v>372</v>
+        <v>272</v>
       </c>
       <c r="F58" t="s">
-        <v>452</v>
+        <v>419</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>65</v>
       </c>
       <c r="B59" t="s">
+        <v>420</v>
+      </c>
+      <c r="C59" t="s">
         <v>165</v>
       </c>
-      <c r="C59" t="s">
-        <v>265</v>
-      </c>
       <c r="D59" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E59" t="s">
-        <v>373</v>
+        <v>273</v>
       </c>
       <c r="F59" t="s">
-        <v>453</v>
+        <v>421</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+      <c r="I59" t="s">
+        <v>322</v>
+      </c>
+      <c r="J59" t="s">
+        <v>318</v>
+      </c>
+      <c r="K59" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>66</v>
       </c>
       <c r="B60" t="s">
+        <v>422</v>
+      </c>
+      <c r="C60" t="s">
         <v>166</v>
       </c>
-      <c r="C60" t="s">
-        <v>266</v>
-      </c>
       <c r="D60" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E60" t="s">
-        <v>374</v>
+        <v>274</v>
       </c>
       <c r="F60" t="s">
-        <v>454</v>
+        <v>423</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>67</v>
       </c>
       <c r="B61" t="s">
+        <v>424</v>
+      </c>
+      <c r="C61" t="s">
         <v>167</v>
       </c>
-      <c r="C61" t="s">
-        <v>267</v>
-      </c>
       <c r="D61" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E61" t="s">
-        <v>375</v>
+        <v>275</v>
       </c>
       <c r="F61" t="s">
-        <v>455</v>
+        <v>425</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+      <c r="I61" t="s">
+        <v>318</v>
+      </c>
+      <c r="J61" t="s">
+        <v>322</v>
+      </c>
+      <c r="K61" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>68</v>
       </c>
       <c r="B62" t="s">
+        <v>426</v>
+      </c>
+      <c r="C62" t="s">
         <v>168</v>
       </c>
-      <c r="C62" t="s">
-        <v>268</v>
-      </c>
       <c r="D62" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E62" t="s">
-        <v>376</v>
+        <v>276</v>
       </c>
       <c r="F62" t="s">
-        <v>456</v>
+        <v>427</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+      <c r="I62" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>69</v>
       </c>
       <c r="B63" t="s">
+        <v>428</v>
+      </c>
+      <c r="C63" t="s">
         <v>169</v>
       </c>
-      <c r="C63" t="s">
-        <v>269</v>
-      </c>
       <c r="D63" t="s">
-        <v>314</v>
+        <v>214</v>
       </c>
       <c r="E63" t="s">
-        <v>314</v>
+        <v>214</v>
       </c>
       <c r="F63" t="s">
-        <v>420</v>
+        <v>311</v>
       </c>
       <c r="G63" t="b">
         <v>1</v>
@@ -3656,596 +4704,743 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>70</v>
       </c>
       <c r="B64" t="s">
+        <v>429</v>
+      </c>
+      <c r="C64" t="s">
         <v>170</v>
       </c>
-      <c r="C64" t="s">
-        <v>270</v>
-      </c>
       <c r="D64" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E64" t="s">
-        <v>377</v>
+        <v>277</v>
       </c>
       <c r="F64" t="s">
-        <v>457</v>
+        <v>430</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+      <c r="I64" t="s">
+        <v>317</v>
+      </c>
+      <c r="J64" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>71</v>
       </c>
       <c r="B65" t="s">
+        <v>431</v>
+      </c>
+      <c r="C65" t="s">
         <v>171</v>
       </c>
-      <c r="C65" t="s">
-        <v>271</v>
-      </c>
       <c r="D65" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E65" t="s">
-        <v>378</v>
+        <v>278</v>
       </c>
       <c r="F65" t="s">
-        <v>420</v>
+        <v>311</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+      <c r="I65" t="s">
+        <v>318</v>
+      </c>
+      <c r="J65" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>72</v>
       </c>
       <c r="B66" t="s">
+        <v>432</v>
+      </c>
+      <c r="C66" t="s">
         <v>172</v>
       </c>
-      <c r="C66" t="s">
-        <v>272</v>
-      </c>
       <c r="D66" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E66" t="s">
-        <v>379</v>
+        <v>279</v>
       </c>
       <c r="F66" t="s">
-        <v>458</v>
+        <v>433</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+      <c r="I66" t="s">
+        <v>318</v>
+      </c>
+      <c r="J66" t="s">
+        <v>322</v>
+      </c>
+      <c r="K66" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>73</v>
       </c>
       <c r="B67" t="s">
+        <v>434</v>
+      </c>
+      <c r="C67" t="s">
         <v>173</v>
       </c>
-      <c r="C67" t="s">
-        <v>273</v>
-      </c>
       <c r="D67" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E67" t="s">
-        <v>380</v>
+        <v>280</v>
       </c>
       <c r="F67" t="s">
-        <v>459</v>
+        <v>435</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+      <c r="I67" t="s">
+        <v>318</v>
+      </c>
+      <c r="J67" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>74</v>
       </c>
       <c r="B68" t="s">
+        <v>436</v>
+      </c>
+      <c r="C68" t="s">
         <v>174</v>
       </c>
-      <c r="C68" t="s">
-        <v>274</v>
-      </c>
       <c r="D68" t="s">
-        <v>308</v>
+        <v>209</v>
       </c>
       <c r="E68" t="s">
-        <v>381</v>
+        <v>281</v>
       </c>
       <c r="F68" t="s">
-        <v>460</v>
+        <v>311</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+      <c r="I68" t="s">
+        <v>316</v>
+      </c>
+      <c r="J68" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>75</v>
       </c>
       <c r="B69" t="s">
+        <v>437</v>
+      </c>
+      <c r="C69" t="s">
         <v>175</v>
       </c>
-      <c r="C69" t="s">
-        <v>275</v>
-      </c>
       <c r="D69" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E69" t="s">
-        <v>382</v>
+        <v>282</v>
       </c>
       <c r="F69" t="s">
-        <v>461</v>
+        <v>438</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+      <c r="I69" t="s">
+        <v>318</v>
+      </c>
+      <c r="J69" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>76</v>
       </c>
       <c r="B70" t="s">
+        <v>439</v>
+      </c>
+      <c r="C70" t="s">
         <v>176</v>
       </c>
-      <c r="C70" t="s">
-        <v>276</v>
-      </c>
       <c r="D70" t="s">
-        <v>308</v>
+        <v>209</v>
       </c>
       <c r="E70" t="s">
-        <v>383</v>
+        <v>283</v>
       </c>
       <c r="F70" t="s">
-        <v>462</v>
+        <v>311</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+      <c r="I70" t="s">
+        <v>318</v>
+      </c>
+      <c r="J70" t="s">
+        <v>322</v>
+      </c>
+      <c r="K70" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>77</v>
       </c>
       <c r="B71" t="s">
+        <v>440</v>
+      </c>
+      <c r="C71" t="s">
         <v>177</v>
       </c>
-      <c r="C71" t="s">
-        <v>277</v>
-      </c>
       <c r="D71" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E71" t="s">
-        <v>384</v>
+        <v>284</v>
       </c>
       <c r="F71" t="s">
-        <v>420</v>
+        <v>311</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+      <c r="I71" t="s">
+        <v>322</v>
+      </c>
+      <c r="J71" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>78</v>
       </c>
       <c r="B72" t="s">
+        <v>441</v>
+      </c>
+      <c r="C72" t="s">
         <v>178</v>
       </c>
-      <c r="C72" t="s">
-        <v>278</v>
-      </c>
       <c r="D72" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E72" t="s">
-        <v>385</v>
+        <v>285</v>
       </c>
       <c r="F72" t="s">
-        <v>463</v>
+        <v>442</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+      <c r="I72" t="s">
+        <v>322</v>
+      </c>
+      <c r="J72" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>79</v>
       </c>
       <c r="B73" t="s">
+        <v>443</v>
+      </c>
+      <c r="C73" t="s">
         <v>179</v>
       </c>
-      <c r="C73" t="s">
-        <v>279</v>
-      </c>
       <c r="D73" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E73" t="s">
-        <v>386</v>
+        <v>286</v>
       </c>
       <c r="F73" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+      <c r="I73" t="s">
+        <v>322</v>
+      </c>
+      <c r="J73" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>80</v>
       </c>
       <c r="B74" t="s">
+        <v>445</v>
+      </c>
+      <c r="C74" t="s">
         <v>180</v>
       </c>
-      <c r="C74" t="s">
-        <v>280</v>
-      </c>
       <c r="D74" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E74" t="s">
-        <v>387</v>
+        <v>287</v>
       </c>
       <c r="F74" t="s">
-        <v>465</v>
+        <v>446</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+      <c r="I74" t="s">
+        <v>322</v>
+      </c>
+      <c r="J74" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>81</v>
       </c>
       <c r="B75" t="s">
+        <v>447</v>
+      </c>
+      <c r="C75" t="s">
         <v>181</v>
       </c>
-      <c r="C75" t="s">
-        <v>281</v>
-      </c>
       <c r="D75" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E75" t="s">
-        <v>388</v>
+        <v>288</v>
       </c>
       <c r="F75" t="s">
-        <v>466</v>
+        <v>448</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+      <c r="I75" t="s">
+        <v>318</v>
+      </c>
+      <c r="J75" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>82</v>
       </c>
       <c r="B76" t="s">
+        <v>449</v>
+      </c>
+      <c r="C76" t="s">
         <v>182</v>
       </c>
-      <c r="C76" t="s">
-        <v>282</v>
-      </c>
       <c r="D76" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E76" t="s">
-        <v>389</v>
+        <v>289</v>
       </c>
       <c r="F76" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+      <c r="I76" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>83</v>
       </c>
       <c r="B77" t="s">
+        <v>451</v>
+      </c>
+      <c r="C77" t="s">
         <v>183</v>
       </c>
-      <c r="C77" t="s">
-        <v>283</v>
-      </c>
       <c r="D77" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E77" t="s">
-        <v>390</v>
+        <v>290</v>
       </c>
       <c r="F77" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+      <c r="I77" t="s">
+        <v>322</v>
+      </c>
+      <c r="J77" t="s">
+        <v>318</v>
+      </c>
+      <c r="K77" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>84</v>
       </c>
       <c r="B78" t="s">
+        <v>453</v>
+      </c>
+      <c r="C78" t="s">
         <v>184</v>
       </c>
-      <c r="C78" t="s">
-        <v>284</v>
-      </c>
       <c r="D78" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E78" t="s">
-        <v>391</v>
+        <v>291</v>
       </c>
       <c r="F78" t="s">
-        <v>420</v>
+        <v>311</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
       <c r="H78" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+      <c r="I78" t="s">
+        <v>322</v>
+      </c>
+      <c r="J78" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>85</v>
       </c>
       <c r="B79" t="s">
+        <v>454</v>
+      </c>
+      <c r="C79" t="s">
         <v>185</v>
       </c>
-      <c r="C79" t="s">
-        <v>285</v>
-      </c>
       <c r="D79" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E79" t="s">
-        <v>392</v>
+        <v>292</v>
       </c>
       <c r="F79" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+      <c r="I79" t="s">
+        <v>318</v>
+      </c>
+      <c r="J79" t="s">
+        <v>322</v>
+      </c>
+      <c r="K79" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>86</v>
       </c>
       <c r="B80" t="s">
+        <v>456</v>
+      </c>
+      <c r="C80" t="s">
         <v>186</v>
       </c>
-      <c r="C80" t="s">
-        <v>286</v>
-      </c>
       <c r="D80" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E80" t="s">
-        <v>393</v>
+        <v>293</v>
       </c>
       <c r="F80" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+      <c r="I80" t="s">
+        <v>318</v>
+      </c>
+      <c r="J80" t="s">
+        <v>322</v>
+      </c>
+      <c r="K80" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>87</v>
       </c>
       <c r="B81" t="s">
+        <v>458</v>
+      </c>
+      <c r="C81" t="s">
         <v>187</v>
       </c>
-      <c r="C81" t="s">
-        <v>287</v>
-      </c>
       <c r="D81" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E81" t="s">
-        <v>331</v>
+        <v>231</v>
       </c>
       <c r="F81" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+      <c r="I81" t="s">
+        <v>318</v>
+      </c>
+      <c r="J81" t="s">
+        <v>322</v>
+      </c>
+      <c r="K81" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>88</v>
       </c>
       <c r="B82" t="s">
+        <v>460</v>
+      </c>
+      <c r="C82" t="s">
         <v>188</v>
       </c>
-      <c r="C82" t="s">
-        <v>288</v>
-      </c>
       <c r="D82" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E82" t="s">
-        <v>394</v>
+        <v>294</v>
       </c>
       <c r="F82" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
       <c r="H82" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+      <c r="I82" t="s">
+        <v>318</v>
+      </c>
+      <c r="J82" t="s">
+        <v>322</v>
+      </c>
+      <c r="K82" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>89</v>
       </c>
       <c r="B83" t="s">
+        <v>462</v>
+      </c>
+      <c r="C83" t="s">
         <v>189</v>
       </c>
-      <c r="C83" t="s">
-        <v>289</v>
-      </c>
       <c r="D83" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E83" t="s">
-        <v>395</v>
+        <v>295</v>
       </c>
       <c r="F83" t="s">
-        <v>420</v>
+        <v>311</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
       </c>
       <c r="H83" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+      <c r="I83" t="s">
+        <v>318</v>
+      </c>
+      <c r="J83" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>90</v>
       </c>
       <c r="B84" t="s">
+        <v>463</v>
+      </c>
+      <c r="C84" t="s">
         <v>190</v>
       </c>
-      <c r="C84" t="s">
-        <v>290</v>
-      </c>
       <c r="D84" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E84" t="s">
-        <v>396</v>
+        <v>296</v>
       </c>
       <c r="F84" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+      <c r="I84" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>91</v>
       </c>
       <c r="B85" t="s">
+        <v>465</v>
+      </c>
+      <c r="C85" t="s">
         <v>191</v>
       </c>
-      <c r="C85" t="s">
-        <v>291</v>
-      </c>
       <c r="D85" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E85" t="s">
-        <v>397</v>
+        <v>297</v>
       </c>
       <c r="F85" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+      <c r="I85" t="s">
+        <v>322</v>
+      </c>
+      <c r="J85" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>92</v>
       </c>
       <c r="B86" t="s">
+        <v>467</v>
+      </c>
+      <c r="C86" t="s">
         <v>192</v>
       </c>
-      <c r="C86" t="s">
-        <v>292</v>
-      </c>
       <c r="D86" t="s">
-        <v>315</v>
+        <v>215</v>
       </c>
       <c r="E86" t="s">
-        <v>315</v>
+        <v>215</v>
       </c>
       <c r="F86" t="s">
-        <v>420</v>
+        <v>311</v>
       </c>
       <c r="G86" t="b">
         <v>1</v>
@@ -4254,24 +5449,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>93</v>
       </c>
       <c r="B87" t="s">
+        <v>468</v>
+      </c>
+      <c r="C87" t="s">
         <v>193</v>
       </c>
-      <c r="C87" t="s">
-        <v>293</v>
-      </c>
       <c r="D87" t="s">
-        <v>316</v>
+        <v>216</v>
       </c>
       <c r="E87" t="s">
-        <v>316</v>
+        <v>216</v>
       </c>
       <c r="F87" t="s">
-        <v>420</v>
+        <v>311</v>
       </c>
       <c r="G87" t="b">
         <v>1</v>
@@ -4280,368 +5475,446 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>94</v>
       </c>
       <c r="B88" t="s">
+        <v>469</v>
+      </c>
+      <c r="C88" t="s">
         <v>194</v>
       </c>
-      <c r="C88" t="s">
-        <v>294</v>
-      </c>
       <c r="D88" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E88" t="s">
-        <v>398</v>
+        <v>298</v>
       </c>
       <c r="F88" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>95</v>
       </c>
       <c r="B89" t="s">
+        <v>471</v>
+      </c>
+      <c r="C89" t="s">
         <v>195</v>
       </c>
-      <c r="C89" t="s">
-        <v>295</v>
-      </c>
       <c r="D89" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E89" t="s">
-        <v>399</v>
+        <v>299</v>
       </c>
       <c r="F89" t="s">
-        <v>420</v>
+        <v>311</v>
       </c>
       <c r="G89" t="b">
         <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+      <c r="I89" t="s">
+        <v>322</v>
+      </c>
+      <c r="J89" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>96</v>
       </c>
       <c r="B90" t="s">
+        <v>472</v>
+      </c>
+      <c r="C90" t="s">
         <v>196</v>
       </c>
-      <c r="C90" t="s">
-        <v>296</v>
-      </c>
       <c r="D90" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E90" t="s">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F90" t="s">
-        <v>420</v>
+        <v>311</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+      <c r="I90" t="s">
+        <v>322</v>
+      </c>
+      <c r="J90" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>97</v>
       </c>
       <c r="B91" t="s">
+        <v>473</v>
+      </c>
+      <c r="C91" t="s">
         <v>197</v>
       </c>
-      <c r="C91" t="s">
-        <v>297</v>
-      </c>
       <c r="D91" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E91" t="s">
-        <v>401</v>
+        <v>301</v>
       </c>
       <c r="F91" t="s">
-        <v>420</v>
+        <v>311</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+      <c r="I91" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>98</v>
       </c>
       <c r="B92" t="s">
+        <v>474</v>
+      </c>
+      <c r="C92" t="s">
         <v>198</v>
       </c>
-      <c r="C92" t="s">
-        <v>298</v>
-      </c>
       <c r="D92" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E92" t="s">
-        <v>402</v>
+        <v>302</v>
       </c>
       <c r="F92" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+      <c r="I92" t="s">
+        <v>318</v>
+      </c>
+      <c r="J92" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>99</v>
       </c>
       <c r="B93" t="s">
+        <v>476</v>
+      </c>
+      <c r="C93" t="s">
         <v>199</v>
       </c>
-      <c r="C93" t="s">
-        <v>299</v>
-      </c>
       <c r="D93" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E93" t="s">
-        <v>403</v>
+        <v>303</v>
       </c>
       <c r="F93" t="s">
-        <v>420</v>
+        <v>311</v>
       </c>
       <c r="G93" t="b">
         <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>100</v>
       </c>
       <c r="B94" t="s">
+        <v>477</v>
+      </c>
+      <c r="C94" t="s">
         <v>200</v>
       </c>
-      <c r="C94" t="s">
-        <v>300</v>
-      </c>
       <c r="D94" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E94" t="s">
-        <v>404</v>
+        <v>304</v>
       </c>
       <c r="F94" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+      <c r="I94" t="s">
+        <v>318</v>
+      </c>
+      <c r="J94" t="s">
+        <v>322</v>
+      </c>
+      <c r="K94" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>101</v>
       </c>
       <c r="B95" t="s">
+        <v>479</v>
+      </c>
+      <c r="C95" t="s">
         <v>201</v>
       </c>
-      <c r="C95" t="s">
-        <v>301</v>
-      </c>
       <c r="D95" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E95" t="s">
-        <v>405</v>
+        <v>305</v>
       </c>
       <c r="F95" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+      <c r="I95" t="s">
+        <v>322</v>
+      </c>
+      <c r="J95" t="s">
+        <v>318</v>
+      </c>
+      <c r="K95" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>102</v>
       </c>
       <c r="B96" t="s">
+        <v>481</v>
+      </c>
+      <c r="C96" t="s">
         <v>202</v>
       </c>
-      <c r="C96" t="s">
-        <v>302</v>
-      </c>
       <c r="D96" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E96" t="s">
-        <v>406</v>
+        <v>306</v>
       </c>
       <c r="F96" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+      <c r="I96" t="s">
+        <v>322</v>
+      </c>
+      <c r="J96" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>103</v>
       </c>
       <c r="B97" t="s">
+        <v>483</v>
+      </c>
+      <c r="C97" t="s">
         <v>203</v>
       </c>
-      <c r="C97" t="s">
-        <v>303</v>
-      </c>
       <c r="D97" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E97" t="s">
-        <v>407</v>
+        <v>307</v>
       </c>
       <c r="F97" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+      <c r="I97" t="s">
+        <v>318</v>
+      </c>
+      <c r="J97" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>104</v>
       </c>
       <c r="B98" t="s">
+        <v>485</v>
+      </c>
+      <c r="C98" t="s">
         <v>204</v>
       </c>
-      <c r="C98" t="s">
-        <v>304</v>
-      </c>
       <c r="D98" t="s">
+        <v>208</v>
+      </c>
+      <c r="E98" t="s">
         <v>308</v>
       </c>
-      <c r="E98" t="s">
-        <v>408</v>
-      </c>
       <c r="F98" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="G98" t="b">
         <v>0</v>
       </c>
       <c r="H98" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+      <c r="I98" t="s">
+        <v>318</v>
+      </c>
+      <c r="J98" t="s">
+        <v>322</v>
+      </c>
+      <c r="K98" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>105</v>
       </c>
       <c r="B99" t="s">
+        <v>487</v>
+      </c>
+      <c r="C99" t="s">
         <v>205</v>
       </c>
-      <c r="C99" t="s">
-        <v>305</v>
-      </c>
       <c r="D99" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E99" t="s">
-        <v>409</v>
+        <v>309</v>
       </c>
       <c r="F99" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+      <c r="I99" t="s">
+        <v>318</v>
+      </c>
+      <c r="J99" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>106</v>
       </c>
       <c r="B100" t="s">
+        <v>489</v>
+      </c>
+      <c r="C100" t="s">
         <v>206</v>
       </c>
-      <c r="C100" t="s">
-        <v>306</v>
-      </c>
       <c r="D100" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E100" t="s">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="F100" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+      <c r="I100" t="s">
+        <v>322</v>
+      </c>
+      <c r="J100" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>107</v>
       </c>
       <c r="B101" t="s">
+        <v>491</v>
+      </c>
+      <c r="C101" t="s">
         <v>207</v>
       </c>
-      <c r="C101" t="s">
-        <v>307</v>
-      </c>
       <c r="D101" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E101" t="s">
-        <v>410</v>
+        <v>310</v>
       </c>
       <c r="F101" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="s">
-        <v>485</v>
+        <v>312</v>
+      </c>
+      <c r="I101" t="s">
+        <v>322</v>
+      </c>
+      <c r="J101" t="s">
+        <v>315</v>
       </c>
     </row>
   </sheetData>
